--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F10764C-8CFD-4D1A-9390-4A6D9508B1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D07092-A55E-4054-B0FA-6DB044568D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="34">
   <si>
     <t>Survey Date</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Time difference between survey start and high tide/sunset time. If 1.xx high tide/sunset was before survey, if 0.xx High Tide was after Survey.</t>
-  </si>
-  <si>
-    <t>Missing</t>
   </si>
   <si>
     <t>DFO Estimates and Report in SSB as NA. Left these numbers to try to find them later.</t>
@@ -724,6 +721,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,9 +732,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1094,9 +1091,9 @@
   <dimension ref="A1:AM264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1146,40 +1143,40 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
       </c>
       <c r="N1" t="s">
         <v>6</v>
       </c>
       <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T1" t="s">
         <v>9</v>
@@ -1190,25 +1187,25 @@
       <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1281,25 +1278,25 @@
       <c r="V2" s="11">
         <v>36413.822916666664</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -8146,10 +8143,10 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -8278,25 +8275,25 @@
       <c r="V97" s="11">
         <v>43688.85</v>
       </c>
-      <c r="W97" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="X97" s="31"/>
-      <c r="Y97" s="31"/>
-      <c r="Z97" s="31"/>
-      <c r="AA97" s="31"/>
-      <c r="AB97" s="31"/>
-      <c r="AC97" s="31"/>
-      <c r="AD97" s="31"/>
-      <c r="AE97" s="31"/>
-      <c r="AF97" s="31"/>
-      <c r="AG97" s="31"/>
-      <c r="AH97" s="31"/>
-      <c r="AI97" s="31"/>
-      <c r="AJ97" s="31"/>
-      <c r="AK97" s="31"/>
-      <c r="AL97" s="31"/>
-      <c r="AM97" s="31"/>
+      <c r="W97" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="32"/>
+      <c r="AF97" s="32"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
+      <c r="AI97" s="32"/>
+      <c r="AJ97" s="32"/>
+      <c r="AK97" s="32"/>
+      <c r="AL97" s="32"/>
+      <c r="AM97" s="32"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -9541,7 +9538,7 @@
         <v>44487.774305555555</v>
       </c>
       <c r="W114" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
@@ -9626,25 +9623,25 @@
       <c r="V115" s="22">
         <v>44502.748611111114</v>
       </c>
-      <c r="W115" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="X115" s="31"/>
-      <c r="Y115" s="31"/>
-      <c r="Z115" s="31"/>
-      <c r="AA115" s="31"/>
-      <c r="AB115" s="31"/>
-      <c r="AC115" s="31"/>
-      <c r="AD115" s="31"/>
-      <c r="AE115" s="31"/>
-      <c r="AF115" s="31"/>
-      <c r="AG115" s="31"/>
-      <c r="AH115" s="31"/>
-      <c r="AI115" s="31"/>
-      <c r="AJ115" s="31"/>
-      <c r="AK115" s="31"/>
-      <c r="AL115" s="31"/>
-      <c r="AM115" s="31"/>
+      <c r="W115" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="32"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="32"/>
+      <c r="AC115" s="32"/>
+      <c r="AD115" s="32"/>
+      <c r="AE115" s="32"/>
+      <c r="AF115" s="32"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="32"/>
+      <c r="AJ115" s="32"/>
+      <c r="AK115" s="32"/>
+      <c r="AL115" s="32"/>
+      <c r="AM115" s="32"/>
     </row>
     <row r="116" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -9822,11 +9819,11 @@
       </c>
       <c r="L118" s="12">
         <f t="shared" si="19"/>
-        <v>9.1861111111065838</v>
+        <v>0.18611111110658385</v>
       </c>
       <c r="M118" s="7">
-        <f t="shared" si="12"/>
-        <v>220.46666666655801</v>
+        <f>(U118-T118)*24</f>
+        <v>4.4666666665580124</v>
       </c>
       <c r="N118" s="2">
         <v>254</v>
@@ -9847,7 +9844,7 @@
         <v>44815.833333333336</v>
       </c>
       <c r="U118" s="11">
-        <v>44825.019444444442</v>
+        <v>44816.019444444442</v>
       </c>
       <c r="V118" s="11">
         <v>44815.8125</v>
@@ -9921,25 +9918,25 @@
       <c r="V119" s="11">
         <v>44829.793749999997</v>
       </c>
-      <c r="W119" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="X119" s="31"/>
-      <c r="Y119" s="31"/>
-      <c r="Z119" s="31"/>
-      <c r="AA119" s="31"/>
-      <c r="AB119" s="31"/>
-      <c r="AC119" s="31"/>
-      <c r="AD119" s="31"/>
-      <c r="AE119" s="31"/>
-      <c r="AF119" s="31"/>
-      <c r="AG119" s="31"/>
-      <c r="AH119" s="31"/>
-      <c r="AI119" s="31"/>
-      <c r="AJ119" s="31"/>
-      <c r="AK119" s="31"/>
-      <c r="AL119" s="31"/>
-      <c r="AM119" s="31"/>
+      <c r="W119" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="32"/>
+      <c r="AF119" s="32"/>
+      <c r="AG119" s="32"/>
+      <c r="AH119" s="32"/>
+      <c r="AI119" s="32"/>
+      <c r="AJ119" s="32"/>
+      <c r="AK119" s="32"/>
+      <c r="AL119" s="32"/>
+      <c r="AM119" s="32"/>
     </row>
     <row r="120" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -10009,25 +10006,25 @@
       <c r="V120" s="11">
         <v>44844.774305555555</v>
       </c>
-      <c r="W120" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="X120" s="31"/>
-      <c r="Y120" s="31"/>
-      <c r="Z120" s="31"/>
-      <c r="AA120" s="31"/>
-      <c r="AB120" s="31"/>
-      <c r="AC120" s="31"/>
-      <c r="AD120" s="31"/>
-      <c r="AE120" s="31"/>
-      <c r="AF120" s="31"/>
-      <c r="AG120" s="31"/>
-      <c r="AH120" s="31"/>
-      <c r="AI120" s="31"/>
-      <c r="AJ120" s="31"/>
-      <c r="AK120" s="31"/>
-      <c r="AL120" s="31"/>
-      <c r="AM120" s="31"/>
+      <c r="W120" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="32"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="32"/>
+      <c r="AB120" s="32"/>
+      <c r="AC120" s="32"/>
+      <c r="AD120" s="32"/>
+      <c r="AE120" s="32"/>
+      <c r="AF120" s="32"/>
+      <c r="AG120" s="32"/>
+      <c r="AH120" s="32"/>
+      <c r="AI120" s="32"/>
+      <c r="AJ120" s="32"/>
+      <c r="AK120" s="32"/>
+      <c r="AL120" s="32"/>
+      <c r="AM120" s="32"/>
     </row>
     <row r="121" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -10097,25 +10094,25 @@
       <c r="V121" s="11">
         <v>44857.759027777778</v>
       </c>
-      <c r="W121" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="X121" s="31"/>
-      <c r="Y121" s="31"/>
-      <c r="Z121" s="31"/>
-      <c r="AA121" s="31"/>
-      <c r="AB121" s="31"/>
-      <c r="AC121" s="31"/>
-      <c r="AD121" s="31"/>
-      <c r="AE121" s="31"/>
-      <c r="AF121" s="31"/>
-      <c r="AG121" s="31"/>
-      <c r="AH121" s="31"/>
-      <c r="AI121" s="31"/>
-      <c r="AJ121" s="31"/>
-      <c r="AK121" s="31"/>
-      <c r="AL121" s="31"/>
-      <c r="AM121" s="31"/>
+      <c r="W121" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="32"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="32"/>
+      <c r="AF121" s="32"/>
+      <c r="AG121" s="32"/>
+      <c r="AH121" s="32"/>
+      <c r="AI121" s="32"/>
+      <c r="AJ121" s="32"/>
+      <c r="AK121" s="32"/>
+      <c r="AL121" s="32"/>
+      <c r="AM121" s="32"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -10131,7 +10128,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F122">
         <v>40856</v>
@@ -10201,7 +10198,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F123" t="s">
         <v>12</v>
@@ -10276,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
@@ -10351,7 +10348,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
@@ -10426,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
@@ -10501,7 +10498,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
@@ -10576,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
@@ -10651,7 +10648,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
@@ -10726,7 +10723,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F130" t="s">
         <v>12</v>
@@ -10801,7 +10798,7 @@
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
@@ -10876,7 +10873,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
@@ -10951,7 +10948,7 @@
         <v>5</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
@@ -11026,7 +11023,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
@@ -11101,7 +11098,7 @@
         <v>5</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
@@ -11176,7 +11173,7 @@
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F136" t="s">
         <v>12</v>
@@ -11251,7 +11248,7 @@
         <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
@@ -11326,7 +11323,7 @@
         <v>5</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
@@ -11401,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
@@ -11476,7 +11473,7 @@
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
@@ -11551,7 +11548,7 @@
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
@@ -11626,7 +11623,7 @@
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F142" t="s">
         <v>12</v>
@@ -11701,7 +11698,7 @@
         <v>4</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
@@ -11776,7 +11773,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F144" t="s">
         <v>12</v>
@@ -11851,7 +11848,7 @@
         <v>4</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F145" t="s">
         <v>12</v>
@@ -11926,7 +11923,7 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
@@ -12001,7 +11998,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
@@ -12076,7 +12073,7 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
@@ -12151,7 +12148,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
@@ -12226,7 +12223,7 @@
         <v>6</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F150" t="s">
         <v>12</v>
@@ -12301,7 +12298,7 @@
         <v>6</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
@@ -12376,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F152" t="s">
         <v>12</v>
@@ -12451,7 +12448,7 @@
         <v>5</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
@@ -12526,7 +12523,7 @@
         <v>3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
@@ -12601,7 +12598,7 @@
         <v>6</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F155" t="s">
         <v>12</v>
@@ -12676,7 +12673,7 @@
         <v>8</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
@@ -12751,7 +12748,7 @@
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
@@ -12826,7 +12823,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
@@ -12901,7 +12898,7 @@
         <v>5</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
@@ -12976,7 +12973,7 @@
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
@@ -13051,7 +13048,7 @@
         <v>6</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
@@ -13126,7 +13123,7 @@
         <v>7</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
@@ -13201,7 +13198,7 @@
         <v>6</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
@@ -13276,7 +13273,7 @@
         <v>6</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F164" t="s">
         <v>12</v>
@@ -13351,7 +13348,7 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
@@ -13426,7 +13423,7 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F166" t="s">
         <v>12</v>
@@ -13501,7 +13498,7 @@
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
@@ -13576,7 +13573,7 @@
         <v>8</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
@@ -13651,7 +13648,7 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
@@ -13726,7 +13723,7 @@
         <v>7</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F170" t="s">
         <v>12</v>
@@ -13801,7 +13798,7 @@
         <v>8</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F171" t="s">
         <v>12</v>
@@ -13876,7 +13873,7 @@
         <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
@@ -13951,7 +13948,7 @@
         <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
@@ -14026,7 +14023,7 @@
         <v>6</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F174" t="s">
         <v>12</v>
@@ -14101,7 +14098,7 @@
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
@@ -14176,7 +14173,7 @@
         <v>4</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F176" t="s">
         <v>12</v>
@@ -14251,7 +14248,7 @@
         <v>7</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
@@ -14326,7 +14323,7 @@
         <v>7</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F178" t="s">
         <v>12</v>
@@ -14401,7 +14398,7 @@
         <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F179" t="s">
         <v>12</v>
@@ -14476,7 +14473,7 @@
         <v>8</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
@@ -14551,7 +14548,7 @@
         <v>6</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
@@ -14626,7 +14623,7 @@
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
@@ -14701,7 +14698,7 @@
         <v>7</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F183" t="s">
         <v>12</v>
@@ -14776,7 +14773,7 @@
         <v>7</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
@@ -14851,7 +14848,7 @@
         <v>8</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
@@ -14926,7 +14923,7 @@
         <v>8</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F186" t="s">
         <v>12</v>
@@ -15001,7 +14998,7 @@
         <v>6</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F187" t="s">
         <v>12</v>
@@ -15076,7 +15073,7 @@
         <v>3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
@@ -15151,7 +15148,7 @@
         <v>5</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F189" s="10">
         <v>25181</v>
@@ -15226,7 +15223,7 @@
         <v>6</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F190" s="10">
         <v>43493</v>
@@ -15301,7 +15298,7 @@
         <v>9</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F191" s="10">
         <v>10007</v>
@@ -15376,7 +15373,7 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F192" s="10">
         <v>11074</v>
@@ -15451,7 +15448,7 @@
         <v>8</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F193" s="10">
         <v>26933</v>
@@ -15526,7 +15523,7 @@
         <v>6</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F194" s="10">
         <v>3252</v>
@@ -15601,7 +15598,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F195" s="10">
         <v>91726</v>
@@ -15676,7 +15673,7 @@
         <v>7</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F196" s="10">
         <v>27680</v>
@@ -15751,7 +15748,7 @@
         <v>8</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F197" s="10">
         <v>24775</v>
@@ -15826,7 +15823,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F198" s="10">
         <v>6916</v>
@@ -15901,7 +15898,7 @@
         <v>7</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F199" s="10">
         <v>22106</v>
@@ -15976,7 +15973,7 @@
         <v>8</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F200" s="10">
         <v>13763</v>
@@ -16051,7 +16048,7 @@
         <v>3</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F201" s="10">
         <v>10284</v>
@@ -16126,7 +16123,7 @@
         <v>3</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F202" s="10">
         <v>2310</v>
@@ -16201,7 +16198,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F203" s="10">
         <v>81722</v>
@@ -16276,7 +16273,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F204" s="10">
         <v>29877</v>
@@ -16351,7 +16348,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F205" s="10">
         <v>35684</v>
@@ -16426,7 +16423,7 @@
         <v>6</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F206" s="10">
         <v>4887</v>
@@ -16501,7 +16498,7 @@
         <v>7</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F207" s="10">
         <v>7314</v>
@@ -16576,7 +16573,7 @@
         <v>8</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F208" s="10">
         <v>6087</v>
@@ -16651,7 +16648,7 @@
         <v>8</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F209" s="10">
         <v>7719</v>
@@ -16726,7 +16723,7 @@
         <v>3</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F210" s="10">
         <v>2027</v>
@@ -16801,7 +16798,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F211" s="10">
         <v>58532</v>
@@ -16861,25 +16858,25 @@
       <c r="V211" s="11">
         <v>43624.874305555553</v>
       </c>
-      <c r="W211" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="X211" s="32"/>
-      <c r="Y211" s="32"/>
-      <c r="Z211" s="32"/>
-      <c r="AA211" s="32"/>
-      <c r="AB211" s="32"/>
-      <c r="AC211" s="32"/>
-      <c r="AD211" s="32"/>
-      <c r="AE211" s="32"/>
-      <c r="AF211" s="32"/>
-      <c r="AG211" s="32"/>
-      <c r="AH211" s="32"/>
-      <c r="AI211" s="32"/>
-      <c r="AJ211" s="32"/>
-      <c r="AK211" s="32"/>
-      <c r="AL211" s="32"/>
-      <c r="AM211" s="32"/>
+      <c r="W211" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="X211" s="33"/>
+      <c r="Y211" s="33"/>
+      <c r="Z211" s="33"/>
+      <c r="AA211" s="33"/>
+      <c r="AB211" s="33"/>
+      <c r="AC211" s="33"/>
+      <c r="AD211" s="33"/>
+      <c r="AE211" s="33"/>
+      <c r="AF211" s="33"/>
+      <c r="AG211" s="33"/>
+      <c r="AH211" s="33"/>
+      <c r="AI211" s="33"/>
+      <c r="AJ211" s="33"/>
+      <c r="AK211" s="33"/>
+      <c r="AL211" s="33"/>
+      <c r="AM211" s="33"/>
     </row>
     <row r="212" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -16895,7 +16892,7 @@
         <v>7</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F212" s="10">
         <v>42750</v>
@@ -16955,25 +16952,25 @@
       <c r="V212" s="11">
         <v>43638.87777777778</v>
       </c>
-      <c r="W212" s="32">
+      <c r="W212" s="33">
         <v>37459</v>
       </c>
-      <c r="X212" s="32"/>
-      <c r="Y212" s="32"/>
-      <c r="Z212" s="32"/>
-      <c r="AA212" s="32"/>
-      <c r="AB212" s="32"/>
-      <c r="AC212" s="32"/>
-      <c r="AD212" s="32"/>
-      <c r="AE212" s="32"/>
-      <c r="AF212" s="32"/>
-      <c r="AG212" s="32"/>
-      <c r="AH212" s="32"/>
-      <c r="AI212" s="32"/>
-      <c r="AJ212" s="32"/>
-      <c r="AK212" s="32"/>
-      <c r="AL212" s="32"/>
-      <c r="AM212" s="32"/>
+      <c r="X212" s="33"/>
+      <c r="Y212" s="33"/>
+      <c r="Z212" s="33"/>
+      <c r="AA212" s="33"/>
+      <c r="AB212" s="33"/>
+      <c r="AC212" s="33"/>
+      <c r="AD212" s="33"/>
+      <c r="AE212" s="33"/>
+      <c r="AF212" s="33"/>
+      <c r="AG212" s="33"/>
+      <c r="AH212" s="33"/>
+      <c r="AI212" s="33"/>
+      <c r="AJ212" s="33"/>
+      <c r="AK212" s="33"/>
+      <c r="AL212" s="33"/>
+      <c r="AM212" s="33"/>
     </row>
     <row r="213" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -16989,7 +16986,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F213" s="10">
         <v>21103</v>
@@ -17049,25 +17046,25 @@
       <c r="V213" s="11">
         <v>43652.877083333333</v>
       </c>
-      <c r="W213" s="32">
+      <c r="W213" s="33">
         <v>20940</v>
       </c>
-      <c r="X213" s="32"/>
-      <c r="Y213" s="32"/>
-      <c r="Z213" s="32"/>
-      <c r="AA213" s="32"/>
-      <c r="AB213" s="32"/>
-      <c r="AC213" s="32"/>
-      <c r="AD213" s="32"/>
-      <c r="AE213" s="32"/>
-      <c r="AF213" s="32"/>
-      <c r="AG213" s="32"/>
-      <c r="AH213" s="32"/>
-      <c r="AI213" s="32"/>
-      <c r="AJ213" s="32"/>
-      <c r="AK213" s="32"/>
-      <c r="AL213" s="32"/>
-      <c r="AM213" s="32"/>
+      <c r="X213" s="33"/>
+      <c r="Y213" s="33"/>
+      <c r="Z213" s="33"/>
+      <c r="AA213" s="33"/>
+      <c r="AB213" s="33"/>
+      <c r="AC213" s="33"/>
+      <c r="AD213" s="33"/>
+      <c r="AE213" s="33"/>
+      <c r="AF213" s="33"/>
+      <c r="AG213" s="33"/>
+      <c r="AH213" s="33"/>
+      <c r="AI213" s="33"/>
+      <c r="AJ213" s="33"/>
+      <c r="AK213" s="33"/>
+      <c r="AL213" s="33"/>
+      <c r="AM213" s="33"/>
     </row>
     <row r="214" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -17083,7 +17080,7 @@
         <v>5</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F214" s="10">
         <v>11148</v>
@@ -17143,25 +17140,25 @@
       <c r="V214" s="11">
         <v>43666.870833333334</v>
       </c>
-      <c r="W214" s="32">
+      <c r="W214" s="33">
         <v>7713</v>
       </c>
-      <c r="X214" s="32"/>
-      <c r="Y214" s="32"/>
-      <c r="Z214" s="32"/>
-      <c r="AA214" s="32"/>
-      <c r="AB214" s="32"/>
-      <c r="AC214" s="32"/>
-      <c r="AD214" s="32"/>
-      <c r="AE214" s="32"/>
-      <c r="AF214" s="32"/>
-      <c r="AG214" s="32"/>
-      <c r="AH214" s="32"/>
-      <c r="AI214" s="32"/>
-      <c r="AJ214" s="32"/>
-      <c r="AK214" s="32"/>
-      <c r="AL214" s="32"/>
-      <c r="AM214" s="32"/>
+      <c r="X214" s="33"/>
+      <c r="Y214" s="33"/>
+      <c r="Z214" s="33"/>
+      <c r="AA214" s="33"/>
+      <c r="AB214" s="33"/>
+      <c r="AC214" s="33"/>
+      <c r="AD214" s="33"/>
+      <c r="AE214" s="33"/>
+      <c r="AF214" s="33"/>
+      <c r="AG214" s="33"/>
+      <c r="AH214" s="33"/>
+      <c r="AI214" s="33"/>
+      <c r="AJ214" s="33"/>
+      <c r="AK214" s="33"/>
+      <c r="AL214" s="33"/>
+      <c r="AM214" s="33"/>
     </row>
     <row r="215" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -17177,7 +17174,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F215" s="10">
         <v>3587.65</v>
@@ -17237,25 +17234,25 @@
       <c r="V215" s="11">
         <v>43681.859722222223</v>
       </c>
-      <c r="W215" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="X215" s="32"/>
-      <c r="Y215" s="32"/>
-      <c r="Z215" s="32"/>
-      <c r="AA215" s="32"/>
-      <c r="AB215" s="32"/>
-      <c r="AC215" s="32"/>
-      <c r="AD215" s="32"/>
-      <c r="AE215" s="32"/>
-      <c r="AF215" s="32"/>
-      <c r="AG215" s="32"/>
-      <c r="AH215" s="32"/>
-      <c r="AI215" s="32"/>
-      <c r="AJ215" s="32"/>
-      <c r="AK215" s="32"/>
-      <c r="AL215" s="32"/>
-      <c r="AM215" s="32"/>
+      <c r="W215" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="X215" s="33"/>
+      <c r="Y215" s="33"/>
+      <c r="Z215" s="33"/>
+      <c r="AA215" s="33"/>
+      <c r="AB215" s="33"/>
+      <c r="AC215" s="33"/>
+      <c r="AD215" s="33"/>
+      <c r="AE215" s="33"/>
+      <c r="AF215" s="33"/>
+      <c r="AG215" s="33"/>
+      <c r="AH215" s="33"/>
+      <c r="AI215" s="33"/>
+      <c r="AJ215" s="33"/>
+      <c r="AK215" s="33"/>
+      <c r="AL215" s="33"/>
+      <c r="AM215" s="33"/>
     </row>
     <row r="216" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -17271,7 +17268,7 @@
         <v>7</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F216" s="10">
         <v>13432</v>
@@ -17331,25 +17328,25 @@
       <c r="V216" s="11">
         <v>43695.845138888886</v>
       </c>
-      <c r="W216" s="32">
+      <c r="W216" s="33">
         <v>12319</v>
       </c>
-      <c r="X216" s="32"/>
-      <c r="Y216" s="32"/>
-      <c r="Z216" s="32"/>
-      <c r="AA216" s="32"/>
-      <c r="AB216" s="32"/>
-      <c r="AC216" s="32"/>
-      <c r="AD216" s="32"/>
-      <c r="AE216" s="32"/>
-      <c r="AF216" s="32"/>
-      <c r="AG216" s="32"/>
-      <c r="AH216" s="32"/>
-      <c r="AI216" s="32"/>
-      <c r="AJ216" s="32"/>
-      <c r="AK216" s="32"/>
-      <c r="AL216" s="32"/>
-      <c r="AM216" s="32"/>
+      <c r="X216" s="33"/>
+      <c r="Y216" s="33"/>
+      <c r="Z216" s="33"/>
+      <c r="AA216" s="33"/>
+      <c r="AB216" s="33"/>
+      <c r="AC216" s="33"/>
+      <c r="AD216" s="33"/>
+      <c r="AE216" s="33"/>
+      <c r="AF216" s="33"/>
+      <c r="AG216" s="33"/>
+      <c r="AH216" s="33"/>
+      <c r="AI216" s="33"/>
+      <c r="AJ216" s="33"/>
+      <c r="AK216" s="33"/>
+      <c r="AL216" s="33"/>
+      <c r="AM216" s="33"/>
     </row>
     <row r="217" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -17365,7 +17362,7 @@
         <v>8</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F217" s="10">
         <v>14227</v>
@@ -17425,25 +17422,25 @@
       <c r="V217" s="11">
         <v>43709.828472222223</v>
       </c>
-      <c r="W217" s="32">
+      <c r="W217" s="33">
         <v>12000</v>
       </c>
-      <c r="X217" s="32"/>
-      <c r="Y217" s="32"/>
-      <c r="Z217" s="32"/>
-      <c r="AA217" s="32"/>
-      <c r="AB217" s="32"/>
-      <c r="AC217" s="32"/>
-      <c r="AD217" s="32"/>
-      <c r="AE217" s="32"/>
-      <c r="AF217" s="32"/>
-      <c r="AG217" s="32"/>
-      <c r="AH217" s="32"/>
-      <c r="AI217" s="32"/>
-      <c r="AJ217" s="32"/>
-      <c r="AK217" s="32"/>
-      <c r="AL217" s="32"/>
-      <c r="AM217" s="32"/>
+      <c r="X217" s="33"/>
+      <c r="Y217" s="33"/>
+      <c r="Z217" s="33"/>
+      <c r="AA217" s="33"/>
+      <c r="AB217" s="33"/>
+      <c r="AC217" s="33"/>
+      <c r="AD217" s="33"/>
+      <c r="AE217" s="33"/>
+      <c r="AF217" s="33"/>
+      <c r="AG217" s="33"/>
+      <c r="AH217" s="33"/>
+      <c r="AI217" s="33"/>
+      <c r="AJ217" s="33"/>
+      <c r="AK217" s="33"/>
+      <c r="AL217" s="33"/>
+      <c r="AM217" s="33"/>
     </row>
     <row r="218" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -17459,7 +17456,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F218" s="10">
         <v>9692</v>
@@ -17519,25 +17516,25 @@
       <c r="V218" s="11">
         <v>43723.810416666667</v>
       </c>
-      <c r="W218" s="32">
+      <c r="W218" s="33">
         <v>8077</v>
       </c>
-      <c r="X218" s="32"/>
-      <c r="Y218" s="32"/>
-      <c r="Z218" s="32"/>
-      <c r="AA218" s="32"/>
-      <c r="AB218" s="32"/>
-      <c r="AC218" s="32"/>
-      <c r="AD218" s="32"/>
-      <c r="AE218" s="32"/>
-      <c r="AF218" s="32"/>
-      <c r="AG218" s="32"/>
-      <c r="AH218" s="32"/>
-      <c r="AI218" s="32"/>
-      <c r="AJ218" s="32"/>
-      <c r="AK218" s="32"/>
-      <c r="AL218" s="32"/>
-      <c r="AM218" s="32"/>
+      <c r="X218" s="33"/>
+      <c r="Y218" s="33"/>
+      <c r="Z218" s="33"/>
+      <c r="AA218" s="33"/>
+      <c r="AB218" s="33"/>
+      <c r="AC218" s="33"/>
+      <c r="AD218" s="33"/>
+      <c r="AE218" s="33"/>
+      <c r="AF218" s="33"/>
+      <c r="AG218" s="33"/>
+      <c r="AH218" s="33"/>
+      <c r="AI218" s="33"/>
+      <c r="AJ218" s="33"/>
+      <c r="AK218" s="33"/>
+      <c r="AL218" s="33"/>
+      <c r="AM218" s="33"/>
     </row>
     <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -17553,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F219">
         <v>14718</v>
@@ -17628,7 +17625,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F220">
         <v>11954</v>
@@ -17703,7 +17700,7 @@
         <v>6</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F221">
         <v>42174</v>
@@ -17778,7 +17775,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F222">
         <v>28119</v>
@@ -17853,7 +17850,7 @@
         <v>7</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F223">
         <v>23865</v>
@@ -17928,7 +17925,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F224">
         <v>41914</v>
@@ -18003,7 +18000,7 @@
         <v>8</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F225">
         <v>28159</v>
@@ -18078,7 +18075,7 @@
         <v>8</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F226">
         <v>20186</v>
@@ -18153,7 +18150,7 @@
         <v>4</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F227">
         <v>10122</v>
@@ -18228,7 +18225,7 @@
         <v>3</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F228">
         <v>4502</v>
@@ -18271,7 +18268,7 @@
         <v>-0.11666666669771075</v>
       </c>
       <c r="S228" s="2" t="e">
-        <f>H228/R228/1000</f>
+        <f t="shared" ref="S228:S251" si="39">H228/R228/1000</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T228" s="11">
@@ -18298,7 +18295,7 @@
         <v>6</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F229">
         <v>13947</v>
@@ -18347,7 +18344,7 @@
         <v>622</v>
       </c>
       <c r="S229" s="2">
-        <f>H229/R229/1000</f>
+        <f t="shared" si="39"/>
         <v>5.7733118971061087E-3</v>
       </c>
       <c r="T229" s="11">
@@ -18374,7 +18371,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F230">
         <v>7056</v>
@@ -18423,7 +18420,7 @@
         <v>623</v>
       </c>
       <c r="S230" s="2">
-        <f>H230/R230/1000</f>
+        <f t="shared" si="39"/>
         <v>7.1268057784911716E-3</v>
       </c>
       <c r="T230" s="11">
@@ -18450,7 +18447,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F231">
         <v>9104</v>
@@ -18496,7 +18493,7 @@
         <v>-0.8999999999650754</v>
       </c>
       <c r="S231" s="2" t="e">
-        <f>H231/R231/1000</f>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T231" s="11">
@@ -18523,7 +18520,7 @@
         <v>8</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F232">
         <v>4985</v>
@@ -18572,7 +18569,7 @@
         <v>621</v>
       </c>
       <c r="S232" s="2">
-        <f>H232/R232/1000</f>
+        <f t="shared" si="39"/>
         <v>5.6006441223832529E-3</v>
       </c>
       <c r="T232" s="11">
@@ -18599,7 +18596,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F233">
         <v>10364</v>
@@ -18648,7 +18645,7 @@
         <v>621</v>
       </c>
       <c r="S233" s="2">
-        <f>H233/R233/1000</f>
+        <f t="shared" si="39"/>
         <v>8.0692431561996767E-3</v>
       </c>
       <c r="T233" s="11">
@@ -18660,25 +18657,25 @@
       <c r="V233" s="11">
         <v>44410.85833333333</v>
       </c>
-      <c r="W233" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X233" s="30"/>
-      <c r="Y233" s="30"/>
-      <c r="Z233" s="30"/>
-      <c r="AA233" s="30"/>
-      <c r="AB233" s="30"/>
-      <c r="AC233" s="30"/>
-      <c r="AD233" s="30"/>
-      <c r="AE233" s="30"/>
-      <c r="AF233" s="30"/>
-      <c r="AG233" s="30"/>
-      <c r="AH233" s="30"/>
-      <c r="AI233" s="30"/>
-      <c r="AJ233" s="30"/>
-      <c r="AK233" s="30"/>
-      <c r="AL233" s="30"/>
-      <c r="AM233" s="30"/>
+      <c r="W233" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="X233" s="31"/>
+      <c r="Y233" s="31"/>
+      <c r="Z233" s="31"/>
+      <c r="AA233" s="31"/>
+      <c r="AB233" s="31"/>
+      <c r="AC233" s="31"/>
+      <c r="AD233" s="31"/>
+      <c r="AE233" s="31"/>
+      <c r="AF233" s="31"/>
+      <c r="AG233" s="31"/>
+      <c r="AH233" s="31"/>
+      <c r="AI233" s="31"/>
+      <c r="AJ233" s="31"/>
+      <c r="AK233" s="31"/>
+      <c r="AL233" s="31"/>
+      <c r="AM233" s="31"/>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -18694,7 +18691,7 @@
         <v>7</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F234">
         <v>7705</v>
@@ -18743,7 +18740,7 @@
         <v>616</v>
       </c>
       <c r="S234" s="2">
-        <f>H234/R234/1000</f>
+        <f t="shared" si="39"/>
         <v>8.542207792207792E-3</v>
       </c>
       <c r="T234" s="11">
@@ -18770,7 +18767,7 @@
         <v>9</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F235">
         <v>3602</v>
@@ -18819,7 +18816,7 @@
         <v>612</v>
       </c>
       <c r="S235" s="2">
-        <f>H235/R235/1000</f>
+        <f t="shared" si="39"/>
         <v>7.3431372549019602E-3</v>
       </c>
       <c r="T235" s="11">
@@ -18846,7 +18843,7 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F236">
         <v>38584</v>
@@ -18895,7 +18892,7 @@
         <v>615</v>
       </c>
       <c r="S236" s="2">
-        <f>H236/R236/1000</f>
+        <f t="shared" si="39"/>
         <v>6.2687804878048786E-2</v>
       </c>
       <c r="T236" s="11">
@@ -18922,7 +18919,7 @@
         <v>3</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F237">
         <v>1456</v>
@@ -18945,7 +18942,7 @@
         <v>0.69305555555911269</v>
       </c>
       <c r="L237" s="12">
-        <f t="shared" ref="L237:L258" si="39">IF(U237&gt;T237, U237-T237, 1+T237-U237)</f>
+        <f t="shared" ref="L237:L258" si="40">IF(U237&gt;T237, U237-T237, 1+T237-U237)</f>
         <v>1.1194444444408873</v>
       </c>
       <c r="M237" s="7">
@@ -18971,7 +18968,7 @@
         <v>343</v>
       </c>
       <c r="S237" s="2">
-        <f>H237/R237/1000</f>
+        <f t="shared" si="39"/>
         <v>3.889212827988338E-3</v>
       </c>
       <c r="T237" s="11">
@@ -18998,7 +18995,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F238">
         <v>90746</v>
@@ -19021,7 +19018,7 @@
         <v>2.5000000001455192E-2</v>
       </c>
       <c r="L238" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.10833333333721384</v>
       </c>
       <c r="M238" s="7">
@@ -19047,7 +19044,7 @@
         <v>654</v>
       </c>
       <c r="S238" s="2">
-        <f>H238/R238/1000</f>
+        <f t="shared" si="39"/>
         <v>0.15151681957186544</v>
       </c>
       <c r="T238" s="11">
@@ -19074,7 +19071,7 @@
         <v>8</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F239">
         <v>104368</v>
@@ -19097,7 +19094,7 @@
         <v>0.93402777778101154</v>
       </c>
       <c r="L239" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.7361111116770189E-2</v>
       </c>
       <c r="M239" s="7">
@@ -19123,7 +19120,7 @@
         <v>618</v>
       </c>
       <c r="S239" s="2">
-        <f>H239/R239/1000</f>
+        <f t="shared" si="39"/>
         <v>0.18412944983818769</v>
       </c>
       <c r="T239" s="11">
@@ -19150,7 +19147,7 @@
         <v>7</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F240">
         <v>34199</v>
@@ -19173,7 +19170,7 @@
         <v>0.97430555555911269</v>
       </c>
       <c r="L240" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>5.7638888894871343E-2</v>
       </c>
       <c r="M240" s="7">
@@ -19199,7 +19196,7 @@
         <v>638</v>
       </c>
       <c r="S240" s="2">
-        <f>H240/R240/1000</f>
+        <f t="shared" si="39"/>
         <v>4.6126959247648903E-2</v>
       </c>
       <c r="T240" s="11">
@@ -19226,7 +19223,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F241">
         <v>10537</v>
@@ -19249,7 +19246,7 @@
         <v>0.87986111111240461</v>
       </c>
       <c r="L241" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0368055555518367</v>
       </c>
       <c r="M241" s="7">
@@ -19275,7 +19272,7 @@
         <v>524</v>
       </c>
       <c r="S241" s="2">
-        <f>H241/R241/1000</f>
+        <f t="shared" si="39"/>
         <v>1.5061068702290075E-2</v>
       </c>
       <c r="T241" s="11">
@@ -19302,7 +19299,7 @@
         <v>6</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F242">
         <v>13060</v>
@@ -19325,7 +19322,7 @@
         <v>0.98194444444379769</v>
       </c>
       <c r="L242" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.5277777779556345E-2</v>
       </c>
       <c r="M242" s="7">
@@ -19351,7 +19348,7 @@
         <v>628</v>
       </c>
       <c r="S242" s="2">
-        <f>H242/R242/1000</f>
+        <f t="shared" si="39"/>
         <v>1.8156050955414012E-2</v>
       </c>
       <c r="T242" s="11">
@@ -19378,7 +19375,7 @@
         <v>8</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F243">
         <v>5250</v>
@@ -19401,7 +19398,7 @@
         <v>0.82152777777810115</v>
       </c>
       <c r="L243" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0534722222218988</v>
       </c>
       <c r="M243" s="7">
@@ -19427,7 +19424,7 @@
         <v>625</v>
       </c>
       <c r="S243" s="2">
-        <f>H243/R243/1000</f>
+        <f t="shared" si="39"/>
         <v>9.8399999999999998E-3</v>
       </c>
       <c r="T243" s="11">
@@ -19454,7 +19451,7 @@
         <v>7</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F244">
         <v>4392</v>
@@ -19469,15 +19466,15 @@
         <v>3656</v>
       </c>
       <c r="J244" s="4">
-        <f t="shared" ref="J244:J254" si="40">T244-INT(T244)</f>
+        <f t="shared" ref="J244:J254" si="41">T244-INT(T244)</f>
         <v>0.875</v>
       </c>
       <c r="K244" s="4">
-        <f t="shared" ref="K244:K254" si="41">U244-INT(U244)</f>
+        <f t="shared" ref="K244:K254" si="42">U244-INT(U244)</f>
         <v>0.86041666667006211</v>
       </c>
       <c r="L244" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0145833333299379</v>
       </c>
       <c r="M244" s="7">
@@ -19488,7 +19485,7 @@
         <v>233</v>
       </c>
       <c r="O244" s="4">
-        <f t="shared" ref="O244:O254" si="42">V244-INT(V244)</f>
+        <f t="shared" ref="O244:O254" si="43">V244-INT(V244)</f>
         <v>0.83888888888759539</v>
       </c>
       <c r="P244" s="12">
@@ -19503,7 +19500,7 @@
         <v>607</v>
       </c>
       <c r="S244" s="2">
-        <f>H244/R244/1000</f>
+        <f t="shared" si="39"/>
         <v>7.7232289950576608E-3</v>
       </c>
       <c r="T244" s="11">
@@ -19530,7 +19527,7 @@
         <v>7</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F245">
         <v>21908</v>
@@ -19545,15 +19542,15 @@
         <v>20848</v>
       </c>
       <c r="J245" s="4">
+        <f t="shared" si="41"/>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="K245" s="4">
+        <f t="shared" si="42"/>
+        <v>0.80763888888759539</v>
+      </c>
+      <c r="L245" s="12">
         <f t="shared" si="40"/>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="K245" s="4">
-        <f t="shared" si="41"/>
-        <v>0.80763888888759539</v>
-      </c>
-      <c r="L245" s="12">
-        <f t="shared" si="39"/>
         <v>1.0256944444481633</v>
       </c>
       <c r="M245" s="7">
@@ -19564,7 +19561,7 @@
         <v>248</v>
       </c>
       <c r="O245" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.82013888889196096</v>
       </c>
       <c r="P245" s="12">
@@ -19579,7 +19576,7 @@
         <v>626</v>
       </c>
       <c r="S245" s="2">
-        <f>H245/R245/1000</f>
+        <f t="shared" si="39"/>
         <v>3.4217252396166131E-2</v>
       </c>
       <c r="T245" s="11">
@@ -19606,7 +19603,7 @@
         <v>4</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F246">
         <v>8133</v>
@@ -19621,15 +19618,15 @@
         <v>0</v>
       </c>
       <c r="J246" s="4">
+        <f t="shared" si="41"/>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="K246" s="4">
+        <f t="shared" si="42"/>
+        <v>0.79513888889050577</v>
+      </c>
+      <c r="L246" s="12">
         <f t="shared" si="40"/>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="K246" s="4">
-        <f t="shared" si="41"/>
-        <v>0.79513888889050577</v>
-      </c>
-      <c r="L246" s="12">
-        <f t="shared" si="39"/>
         <v>1.0381944444452529</v>
       </c>
       <c r="M246" s="7">
@@ -19640,7 +19637,7 @@
         <v>261</v>
       </c>
       <c r="O246" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.80347222222189885</v>
       </c>
       <c r="P246" s="12">
@@ -19655,7 +19652,7 @@
         <v>525</v>
       </c>
       <c r="S246" s="2">
-        <f>H246/R246/1000</f>
+        <f t="shared" si="39"/>
         <v>1.3872380952380952E-2</v>
       </c>
       <c r="T246" s="11">
@@ -19682,7 +19679,7 @@
         <v>3</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F247">
         <v>4392.3886890000003</v>
@@ -19697,15 +19694,15 @@
         <v>0</v>
       </c>
       <c r="J247" s="4">
+        <f t="shared" si="41"/>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="K247" s="4">
+        <f t="shared" si="42"/>
+        <v>0.75208333333284827</v>
+      </c>
+      <c r="L247" s="12">
         <f t="shared" si="40"/>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="K247" s="4">
-        <f t="shared" si="41"/>
-        <v>0.75208333333284827</v>
-      </c>
-      <c r="L247" s="12">
-        <f t="shared" si="39"/>
         <v>1.0812500000029104</v>
       </c>
       <c r="M247" s="7">
@@ -19716,7 +19713,7 @@
         <v>276</v>
       </c>
       <c r="O247" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.78333333333284827</v>
       </c>
       <c r="P247" s="12">
@@ -19731,7 +19728,7 @@
         <v>406</v>
       </c>
       <c r="S247" s="2">
-        <f>H247/R247/1000</f>
+        <f t="shared" si="39"/>
         <v>1.0226600985221674E-2</v>
       </c>
       <c r="T247" s="11">
@@ -19758,7 +19755,7 @@
         <v>8</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F248">
         <v>113767.329</v>
@@ -19770,15 +19767,15 @@
         <v>12</v>
       </c>
       <c r="J248" s="4">
+        <f t="shared" si="41"/>
+        <v>0.875</v>
+      </c>
+      <c r="K248" s="4">
+        <f t="shared" si="42"/>
+        <v>0.83402777777519077</v>
+      </c>
+      <c r="L248" s="12">
         <f t="shared" si="40"/>
-        <v>0.875</v>
-      </c>
-      <c r="K248" s="4">
-        <f t="shared" si="41"/>
-        <v>0.83402777777519077</v>
-      </c>
-      <c r="L248" s="12">
-        <f t="shared" si="39"/>
         <v>1.0409722222248092</v>
       </c>
       <c r="M248" s="7">
@@ -19789,7 +19786,7 @@
         <v>157</v>
       </c>
       <c r="O248" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.87152777778101154</v>
       </c>
       <c r="P248" s="12">
@@ -19801,7 +19798,7 @@
         <v>-8.3333333255723119E-2</v>
       </c>
       <c r="S248" s="2" t="e">
-        <f>H248/R248/1000</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="T248" s="11">
@@ -19828,7 +19825,7 @@
         <v>5</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F249">
         <v>34279.38654</v>
@@ -19840,15 +19837,15 @@
         <v>12</v>
       </c>
       <c r="J249" s="4">
+        <f t="shared" si="41"/>
+        <v>0.85416666666424135</v>
+      </c>
+      <c r="K249" s="4">
+        <f t="shared" si="42"/>
+        <v>0.80486111110803904</v>
+      </c>
+      <c r="L249" s="12">
         <f t="shared" si="40"/>
-        <v>0.85416666666424135</v>
-      </c>
-      <c r="K249" s="4">
-        <f t="shared" si="41"/>
-        <v>0.80486111110803904</v>
-      </c>
-      <c r="L249" s="12">
-        <f t="shared" si="39"/>
         <v>1.0493055555562023</v>
       </c>
       <c r="M249" s="7">
@@ -19859,7 +19856,7 @@
         <v>169</v>
       </c>
       <c r="O249" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.87569444444670808</v>
       </c>
       <c r="P249" s="12">
@@ -19871,7 +19868,7 @@
         <v>0.51666666677920148</v>
       </c>
       <c r="S249" s="2" t="e">
-        <f>H249/R249/1000</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="T249" s="11">
@@ -19898,7 +19895,7 @@
         <v>6</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F250">
         <v>11744.77555</v>
@@ -19910,15 +19907,15 @@
         <v>12</v>
       </c>
       <c r="J250" s="4">
+        <f t="shared" si="41"/>
+        <v>0.83333333333575865</v>
+      </c>
+      <c r="K250" s="4">
+        <f t="shared" si="42"/>
+        <v>0.97083333333284827</v>
+      </c>
+      <c r="L250" s="12">
         <f t="shared" si="40"/>
-        <v>0.83333333333575865</v>
-      </c>
-      <c r="K250" s="4">
-        <f t="shared" si="41"/>
-        <v>0.97083333333284827</v>
-      </c>
-      <c r="L250" s="12">
-        <f t="shared" si="39"/>
         <v>0.13749999999708962</v>
       </c>
       <c r="M250" s="7">
@@ -19929,7 +19926,7 @@
         <v>183</v>
       </c>
       <c r="O250" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.87638888888614019</v>
       </c>
       <c r="P250" s="12">
@@ -19941,7 +19938,7 @@
         <v>1.033333333209157</v>
       </c>
       <c r="S250" s="2" t="e">
-        <f>H250/R250/1000</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="T250" s="11">
@@ -19968,7 +19965,7 @@
         <v>6</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F251">
         <v>19282.633519999999</v>
@@ -19980,15 +19977,15 @@
         <v>12</v>
       </c>
       <c r="J251" s="4">
+        <f t="shared" si="41"/>
+        <v>0.89583333333575865</v>
+      </c>
+      <c r="K251" s="4">
+        <f t="shared" si="42"/>
+        <v>0.75624999999854481</v>
+      </c>
+      <c r="L251" s="12">
         <f t="shared" si="40"/>
-        <v>0.89583333333575865</v>
-      </c>
-      <c r="K251" s="4">
-        <f t="shared" si="41"/>
-        <v>0.75624999999854481</v>
-      </c>
-      <c r="L251" s="12">
-        <f t="shared" si="39"/>
         <v>1.1395833333372138</v>
       </c>
       <c r="M251" s="7">
@@ -19999,7 +19996,7 @@
         <v>197</v>
       </c>
       <c r="O251" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.87152777778101154</v>
       </c>
       <c r="P251" s="12">
@@ -20011,7 +20008,7 @@
         <v>-0.58333333331393078</v>
       </c>
       <c r="S251" s="2" t="e">
-        <f>H251/R251/1000</f>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="T251" s="13">
@@ -20038,7 +20035,7 @@
         <v>7</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F252" s="15">
         <v>4549.9328310000001</v>
@@ -20047,15 +20044,15 @@
         <v>1904</v>
       </c>
       <c r="J252" s="4">
+        <f t="shared" si="41"/>
+        <v>0.85416666666424135</v>
+      </c>
+      <c r="K252" s="4">
+        <f t="shared" si="42"/>
+        <v>0.92083333332993789</v>
+      </c>
+      <c r="L252" s="12">
         <f t="shared" si="40"/>
-        <v>0.85416666666424135</v>
-      </c>
-      <c r="K252" s="4">
-        <f t="shared" si="41"/>
-        <v>0.92083333332993789</v>
-      </c>
-      <c r="L252" s="12">
-        <f t="shared" si="39"/>
         <v>6.6666666665696539E-2</v>
       </c>
       <c r="M252" s="7">
@@ -20067,7 +20064,7 @@
         <v>211</v>
       </c>
       <c r="O252" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.86180555555620231</v>
       </c>
       <c r="P252" s="12">
@@ -20113,15 +20110,15 @@
       <c r="H253" s="10"/>
       <c r="I253"/>
       <c r="J253" s="4">
+        <f t="shared" si="41"/>
+        <v>0.85416666666424135</v>
+      </c>
+      <c r="K253" s="4">
+        <f t="shared" si="42"/>
+        <v>0.63819444444379769</v>
+      </c>
+      <c r="L253" s="12">
         <f t="shared" si="40"/>
-        <v>0.85416666666424135</v>
-      </c>
-      <c r="K253" s="4">
-        <f t="shared" si="41"/>
-        <v>0.63819444444379769</v>
-      </c>
-      <c r="L253" s="12">
-        <f t="shared" si="39"/>
         <v>1.2159722222204437</v>
       </c>
       <c r="M253" s="7">
@@ -20132,7 +20129,7 @@
         <v>218</v>
       </c>
       <c r="O253" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.8555555555576575</v>
       </c>
       <c r="P253" s="12">
@@ -20168,7 +20165,7 @@
         <v>6</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F254" s="15">
         <v>4298.8056180000003</v>
@@ -20177,15 +20174,15 @@
         <v>3616</v>
       </c>
       <c r="J254" s="4">
+        <f t="shared" si="41"/>
+        <v>0.85416666666424135</v>
+      </c>
+      <c r="K254" s="4">
+        <f t="shared" si="42"/>
+        <v>0.95763888888905058</v>
+      </c>
+      <c r="L254" s="12">
         <f t="shared" si="40"/>
-        <v>0.85416666666424135</v>
-      </c>
-      <c r="K254" s="4">
-        <f t="shared" si="41"/>
-        <v>0.95763888888905058</v>
-      </c>
-      <c r="L254" s="12">
-        <f t="shared" si="39"/>
         <v>0.10347222222480923</v>
       </c>
       <c r="M254" s="7">
@@ -20197,7 +20194,7 @@
         <v>225</v>
       </c>
       <c r="O254" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0.85486111111094942</v>
       </c>
       <c r="P254" s="12">
@@ -20249,7 +20246,7 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="L255" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.2673611111094942</v>
       </c>
       <c r="M255" s="7">
@@ -20296,7 +20293,7 @@
         <v>8</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F256">
         <v>2896.6589840000001</v>
@@ -20313,7 +20310,7 @@
         <v>0.86666699999999997</v>
       </c>
       <c r="L256" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.3333333332848269E-2</v>
       </c>
       <c r="M256" s="7">
@@ -20377,7 +20374,7 @@
         <v>0.10138900000000001</v>
       </c>
       <c r="L257" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.24722222222771961</v>
       </c>
       <c r="M257" s="7">
@@ -20424,7 +20421,7 @@
         <v>8</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F258">
         <v>3053.668807</v>
@@ -20441,7 +20438,7 @@
         <v>0.90347200000000005</v>
       </c>
       <c r="L258" s="12">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>7.0138888884685002E-2</v>
       </c>
       <c r="M258" s="7">
@@ -20459,7 +20456,7 @@
         <v>1.0041666666656965</v>
       </c>
       <c r="Q258" s="7">
-        <f t="shared" ref="Q258:Q263" si="43">(V258-T258)*24</f>
+        <f t="shared" ref="Q258:Q263" si="44">(V258-T258)*24</f>
         <v>-9.9999999976716936E-2</v>
       </c>
       <c r="R258" s="25"/>
@@ -20505,11 +20502,11 @@
         <v>0.96319444444444446</v>
       </c>
       <c r="L259" s="12">
-        <f t="shared" ref="L259" si="44">IF(U259&gt;T259, U259-T259, 1+T259-U259)</f>
+        <f t="shared" ref="L259" si="45">IF(U259&gt;T259, U259-T259, 1+T259-U259)</f>
         <v>0.10902777777664596</v>
       </c>
       <c r="M259" s="7">
-        <f>(U259-T259)*24</f>
+        <f t="shared" ref="M259:M264" si="46">(U259-T259)*24</f>
         <v>2.6166666666395031</v>
       </c>
       <c r="N259" s="25">
@@ -20520,11 +20517,11 @@
         <v>45182.818749999999</v>
       </c>
       <c r="P259" s="12">
-        <f t="shared" ref="P259:P264" si="45">IF(V259&gt;T259, V259-T259, 1+T259-V259)</f>
+        <f t="shared" ref="P259:P263" si="47">IF(V259&gt;T259, V259-T259, 1+T259-V259)</f>
         <v>1.0354166666656965</v>
       </c>
       <c r="Q259" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.84999999997671694</v>
       </c>
       <c r="T259" s="11">
@@ -20539,7 +20536,7 @@
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <f t="shared" ref="A260:A264" si="46">T260</f>
+        <f t="shared" ref="A260:A264" si="48">T260</f>
         <v>45196.833333333336</v>
       </c>
       <c r="B260" s="8">
@@ -20561,11 +20558,11 @@
         <v>11360</v>
       </c>
       <c r="J260" s="29">
-        <f t="shared" ref="J260:J264" si="47">T260</f>
+        <f t="shared" ref="J260:J264" si="49">T260</f>
         <v>45196.833333333336</v>
       </c>
       <c r="K260" s="29">
-        <f t="shared" ref="K260:K264" si="48">U260</f>
+        <f t="shared" ref="K260:K264" si="50">U260</f>
         <v>45196.908333333333</v>
       </c>
       <c r="L260" s="12">
@@ -20573,22 +20570,22 @@
         <v>7.4999999997089617E-2</v>
       </c>
       <c r="M260" s="7">
-        <f>(U260-T260)*24</f>
+        <f t="shared" si="46"/>
         <v>1.7999999999301508</v>
       </c>
       <c r="N260" s="25">
         <v>253</v>
       </c>
       <c r="O260" s="29">
-        <f t="shared" ref="O260:O264" si="49">V260</f>
+        <f t="shared" ref="O260:O264" si="51">V260</f>
         <v>45196.800694444442</v>
       </c>
       <c r="P260" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0326388888934162</v>
       </c>
       <c r="Q260" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.78333333344198763</v>
       </c>
       <c r="T260" s="11">
@@ -20603,7 +20600,7 @@
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>45210.833333333336</v>
       </c>
       <c r="B261" s="8">
@@ -20625,11 +20622,11 @@
         <v>20057</v>
       </c>
       <c r="J261" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>45210.833333333336</v>
       </c>
       <c r="K261" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>45210.905555555553</v>
       </c>
       <c r="L261" s="12">
@@ -20637,22 +20634,22 @@
         <v>7.2222222217533272E-2</v>
       </c>
       <c r="M261" s="7">
-        <f>(U261-T261)*24</f>
+        <f t="shared" si="46"/>
         <v>1.7333333332207985</v>
       </c>
       <c r="N261" s="25">
         <v>253</v>
       </c>
       <c r="O261" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>45210.783333333333</v>
       </c>
       <c r="P261" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0500000000029104</v>
       </c>
       <c r="Q261" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-1.2000000000698492</v>
       </c>
       <c r="T261" s="11">
@@ -20667,7 +20664,7 @@
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>45223.791666666664</v>
       </c>
       <c r="B262" s="8">
@@ -20689,11 +20686,11 @@
         <v>5502</v>
       </c>
       <c r="J262" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>45223.791666666664</v>
       </c>
       <c r="K262" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>45223.768055555556</v>
       </c>
       <c r="L262" s="12">
@@ -20701,22 +20698,22 @@
         <v>1.023611111108039</v>
       </c>
       <c r="M262" s="7">
-        <f>(U262-T262)*24</f>
+        <f t="shared" si="46"/>
         <v>-0.56666666659293696</v>
       </c>
       <c r="N262" s="25">
         <v>253</v>
       </c>
       <c r="O262" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>45223.768750000003</v>
       </c>
       <c r="P262" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.022916666661331</v>
       </c>
       <c r="Q262" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.54999999987194315</v>
       </c>
       <c r="T262" s="11">
@@ -20731,7 +20728,7 @@
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>45193.833333333336</v>
       </c>
       <c r="B263" s="8">
@@ -20744,7 +20741,7 @@
         <v>4</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F263" s="2">
         <v>3420</v>
@@ -20753,11 +20750,11 @@
         <v>2997</v>
       </c>
       <c r="J263" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>45193.833333333336</v>
       </c>
       <c r="K263" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>45193.80972222222</v>
       </c>
       <c r="L263" s="12">
@@ -20765,22 +20762,22 @@
         <v>1.023611111115315</v>
       </c>
       <c r="M263" s="7">
-        <f>(U263-T263)*24</f>
+        <f t="shared" si="46"/>
         <v>-0.56666666676755995</v>
       </c>
       <c r="N263" s="25">
         <v>253</v>
       </c>
       <c r="O263" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>45193.801388888889</v>
       </c>
       <c r="P263" s="12">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>1.0319444444467081</v>
       </c>
       <c r="Q263" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-0.76666666672099382</v>
       </c>
       <c r="T263" s="11">
@@ -20795,7 +20792,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>45208.791666666664</v>
       </c>
       <c r="B264" s="8">
@@ -20808,7 +20805,7 @@
         <v>4</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F264" s="2">
         <v>3388</v>
@@ -20817,11 +20814,11 @@
         <v>2971</v>
       </c>
       <c r="J264" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>45208.791666666664</v>
       </c>
       <c r="K264" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>45208.879861111112</v>
       </c>
       <c r="L264" s="12">
@@ -20829,14 +20826,14 @@
         <v>8.8194444448163267E-2</v>
       </c>
       <c r="M264" s="7">
-        <f>(U264-T264)*24</f>
+        <f t="shared" si="46"/>
         <v>2.1166666667559184</v>
       </c>
       <c r="N264" s="25">
         <v>253</v>
       </c>
       <c r="O264" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>45208.781944444447</v>
       </c>
       <c r="P264" s="12">
@@ -20881,11 +20878,6 @@
     <sortCondition ref="E122:E258"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="W2:AM2"/>
-    <mergeCell ref="W1:AM1"/>
-    <mergeCell ref="W97:AM97"/>
-    <mergeCell ref="W211:AM211"/>
-    <mergeCell ref="W212:AM212"/>
     <mergeCell ref="W233:AM233"/>
     <mergeCell ref="W115:AM115"/>
     <mergeCell ref="W119:AM119"/>
@@ -20897,20 +20889,23 @@
     <mergeCell ref="W217:AM217"/>
     <mergeCell ref="W215:AM215"/>
     <mergeCell ref="W218:AM218"/>
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="W1:AM1"/>
+    <mergeCell ref="W97:AM97"/>
+    <mergeCell ref="W211:AM211"/>
+    <mergeCell ref="W212:AM212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21109,21 +21104,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21148,9 +21142,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D07092-A55E-4054-B0FA-6DB044568D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A275943C-7D33-4041-8919-0B6B6D1B8264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38310" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -307,7 +307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -660,7 +666,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -721,9 +727,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,6 +736,10 @@
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1093,7 +1100,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A124" sqref="A124"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,25 +1194,25 @@
       <c r="V1" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1278,25 +1285,25 @@
       <c r="V2" s="11">
         <v>36413.822916666664</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -8275,25 +8282,25 @@
       <c r="V97" s="11">
         <v>43688.85</v>
       </c>
-      <c r="W97" s="32" t="s">
+      <c r="W97" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="X97" s="32"/>
-      <c r="Y97" s="32"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
-      <c r="AG97" s="32"/>
-      <c r="AH97" s="32"/>
-      <c r="AI97" s="32"/>
-      <c r="AJ97" s="32"/>
-      <c r="AK97" s="32"/>
-      <c r="AL97" s="32"/>
-      <c r="AM97" s="32"/>
+      <c r="X97" s="31"/>
+      <c r="Y97" s="31"/>
+      <c r="Z97" s="31"/>
+      <c r="AA97" s="31"/>
+      <c r="AB97" s="31"/>
+      <c r="AC97" s="31"/>
+      <c r="AD97" s="31"/>
+      <c r="AE97" s="31"/>
+      <c r="AF97" s="31"/>
+      <c r="AG97" s="31"/>
+      <c r="AH97" s="31"/>
+      <c r="AI97" s="31"/>
+      <c r="AJ97" s="31"/>
+      <c r="AK97" s="31"/>
+      <c r="AL97" s="31"/>
+      <c r="AM97" s="31"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -9502,16 +9509,16 @@
         <v>0.8125</v>
       </c>
       <c r="K114" s="19">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f>U114-INT(U114)</f>
+        <v>0.89027777777664596</v>
       </c>
       <c r="L114" s="20">
         <f t="shared" si="19"/>
-        <v>44488.8125</v>
+        <v>7.7777777776645962E-2</v>
       </c>
       <c r="M114" s="7">
         <f t="shared" si="12"/>
-        <v>-1067707.5</v>
+        <v>1.8666666666395031</v>
       </c>
       <c r="N114" s="18">
         <v>291</v>
@@ -9533,7 +9540,9 @@
       <c r="T114" s="22">
         <v>44487.8125</v>
       </c>
-      <c r="U114" s="22"/>
+      <c r="U114" s="34">
+        <v>44487.890277777777</v>
+      </c>
       <c r="V114" s="22">
         <v>44487.774305555555</v>
       </c>
@@ -9589,15 +9598,15 @@
       </c>
       <c r="K115" s="19">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.85347222222480923</v>
       </c>
       <c r="L115" s="20">
         <f t="shared" si="19"/>
-        <v>44503</v>
+        <v>0.85347222222480923</v>
       </c>
       <c r="M115" s="7">
         <f t="shared" si="12"/>
-        <v>-1068048</v>
+        <v>20.483333333395422</v>
       </c>
       <c r="N115" s="18">
         <v>306</v>
@@ -9619,29 +9628,31 @@
       <c r="T115" s="22">
         <v>44502</v>
       </c>
-      <c r="U115" s="22"/>
+      <c r="U115" s="34">
+        <v>44502.853472222225</v>
+      </c>
       <c r="V115" s="22">
         <v>44502.748611111114</v>
       </c>
-      <c r="W115" s="32" t="s">
+      <c r="W115" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="X115" s="32"/>
-      <c r="Y115" s="32"/>
-      <c r="Z115" s="32"/>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
-      <c r="AD115" s="32"/>
-      <c r="AE115" s="32"/>
-      <c r="AF115" s="32"/>
-      <c r="AG115" s="32"/>
-      <c r="AH115" s="32"/>
-      <c r="AI115" s="32"/>
-      <c r="AJ115" s="32"/>
-      <c r="AK115" s="32"/>
-      <c r="AL115" s="32"/>
-      <c r="AM115" s="32"/>
+      <c r="X115" s="31"/>
+      <c r="Y115" s="31"/>
+      <c r="Z115" s="31"/>
+      <c r="AA115" s="31"/>
+      <c r="AB115" s="31"/>
+      <c r="AC115" s="31"/>
+      <c r="AD115" s="31"/>
+      <c r="AE115" s="31"/>
+      <c r="AF115" s="31"/>
+      <c r="AG115" s="31"/>
+      <c r="AH115" s="31"/>
+      <c r="AI115" s="31"/>
+      <c r="AJ115" s="31"/>
+      <c r="AK115" s="31"/>
+      <c r="AL115" s="31"/>
+      <c r="AM115" s="31"/>
     </row>
     <row r="116" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -9918,25 +9929,25 @@
       <c r="V119" s="11">
         <v>44829.793749999997</v>
       </c>
-      <c r="W119" s="32" t="s">
+      <c r="W119" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="32"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="32"/>
-      <c r="AF119" s="32"/>
-      <c r="AG119" s="32"/>
-      <c r="AH119" s="32"/>
-      <c r="AI119" s="32"/>
-      <c r="AJ119" s="32"/>
-      <c r="AK119" s="32"/>
-      <c r="AL119" s="32"/>
-      <c r="AM119" s="32"/>
+      <c r="X119" s="31"/>
+      <c r="Y119" s="31"/>
+      <c r="Z119" s="31"/>
+      <c r="AA119" s="31"/>
+      <c r="AB119" s="31"/>
+      <c r="AC119" s="31"/>
+      <c r="AD119" s="31"/>
+      <c r="AE119" s="31"/>
+      <c r="AF119" s="31"/>
+      <c r="AG119" s="31"/>
+      <c r="AH119" s="31"/>
+      <c r="AI119" s="31"/>
+      <c r="AJ119" s="31"/>
+      <c r="AK119" s="31"/>
+      <c r="AL119" s="31"/>
+      <c r="AM119" s="31"/>
     </row>
     <row r="120" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -10006,25 +10017,25 @@
       <c r="V120" s="11">
         <v>44844.774305555555</v>
       </c>
-      <c r="W120" s="32" t="s">
+      <c r="W120" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="X120" s="32"/>
-      <c r="Y120" s="32"/>
-      <c r="Z120" s="32"/>
-      <c r="AA120" s="32"/>
-      <c r="AB120" s="32"/>
-      <c r="AC120" s="32"/>
-      <c r="AD120" s="32"/>
-      <c r="AE120" s="32"/>
-      <c r="AF120" s="32"/>
-      <c r="AG120" s="32"/>
-      <c r="AH120" s="32"/>
-      <c r="AI120" s="32"/>
-      <c r="AJ120" s="32"/>
-      <c r="AK120" s="32"/>
-      <c r="AL120" s="32"/>
-      <c r="AM120" s="32"/>
+      <c r="X120" s="31"/>
+      <c r="Y120" s="31"/>
+      <c r="Z120" s="31"/>
+      <c r="AA120" s="31"/>
+      <c r="AB120" s="31"/>
+      <c r="AC120" s="31"/>
+      <c r="AD120" s="31"/>
+      <c r="AE120" s="31"/>
+      <c r="AF120" s="31"/>
+      <c r="AG120" s="31"/>
+      <c r="AH120" s="31"/>
+      <c r="AI120" s="31"/>
+      <c r="AJ120" s="31"/>
+      <c r="AK120" s="31"/>
+      <c r="AL120" s="31"/>
+      <c r="AM120" s="31"/>
     </row>
     <row r="121" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -10094,25 +10105,25 @@
       <c r="V121" s="11">
         <v>44857.759027777778</v>
       </c>
-      <c r="W121" s="32" t="s">
+      <c r="W121" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
-      <c r="AG121" s="32"/>
-      <c r="AH121" s="32"/>
-      <c r="AI121" s="32"/>
-      <c r="AJ121" s="32"/>
-      <c r="AK121" s="32"/>
-      <c r="AL121" s="32"/>
-      <c r="AM121" s="32"/>
+      <c r="X121" s="31"/>
+      <c r="Y121" s="31"/>
+      <c r="Z121" s="31"/>
+      <c r="AA121" s="31"/>
+      <c r="AB121" s="31"/>
+      <c r="AC121" s="31"/>
+      <c r="AD121" s="31"/>
+      <c r="AE121" s="31"/>
+      <c r="AF121" s="31"/>
+      <c r="AG121" s="31"/>
+      <c r="AH121" s="31"/>
+      <c r="AI121" s="31"/>
+      <c r="AJ121" s="31"/>
+      <c r="AK121" s="31"/>
+      <c r="AL121" s="31"/>
+      <c r="AM121" s="31"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -16858,25 +16869,25 @@
       <c r="V211" s="11">
         <v>43624.874305555553</v>
       </c>
-      <c r="W211" s="33" t="s">
+      <c r="W211" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X211" s="33"/>
-      <c r="Y211" s="33"/>
-      <c r="Z211" s="33"/>
-      <c r="AA211" s="33"/>
-      <c r="AB211" s="33"/>
-      <c r="AC211" s="33"/>
-      <c r="AD211" s="33"/>
-      <c r="AE211" s="33"/>
-      <c r="AF211" s="33"/>
-      <c r="AG211" s="33"/>
-      <c r="AH211" s="33"/>
-      <c r="AI211" s="33"/>
-      <c r="AJ211" s="33"/>
-      <c r="AK211" s="33"/>
-      <c r="AL211" s="33"/>
-      <c r="AM211" s="33"/>
+      <c r="X211" s="32"/>
+      <c r="Y211" s="32"/>
+      <c r="Z211" s="32"/>
+      <c r="AA211" s="32"/>
+      <c r="AB211" s="32"/>
+      <c r="AC211" s="32"/>
+      <c r="AD211" s="32"/>
+      <c r="AE211" s="32"/>
+      <c r="AF211" s="32"/>
+      <c r="AG211" s="32"/>
+      <c r="AH211" s="32"/>
+      <c r="AI211" s="32"/>
+      <c r="AJ211" s="32"/>
+      <c r="AK211" s="32"/>
+      <c r="AL211" s="32"/>
+      <c r="AM211" s="32"/>
     </row>
     <row r="212" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -16952,25 +16963,25 @@
       <c r="V212" s="11">
         <v>43638.87777777778</v>
       </c>
-      <c r="W212" s="33">
+      <c r="W212" s="32">
         <v>37459</v>
       </c>
-      <c r="X212" s="33"/>
-      <c r="Y212" s="33"/>
-      <c r="Z212" s="33"/>
-      <c r="AA212" s="33"/>
-      <c r="AB212" s="33"/>
-      <c r="AC212" s="33"/>
-      <c r="AD212" s="33"/>
-      <c r="AE212" s="33"/>
-      <c r="AF212" s="33"/>
-      <c r="AG212" s="33"/>
-      <c r="AH212" s="33"/>
-      <c r="AI212" s="33"/>
-      <c r="AJ212" s="33"/>
-      <c r="AK212" s="33"/>
-      <c r="AL212" s="33"/>
-      <c r="AM212" s="33"/>
+      <c r="X212" s="32"/>
+      <c r="Y212" s="32"/>
+      <c r="Z212" s="32"/>
+      <c r="AA212" s="32"/>
+      <c r="AB212" s="32"/>
+      <c r="AC212" s="32"/>
+      <c r="AD212" s="32"/>
+      <c r="AE212" s="32"/>
+      <c r="AF212" s="32"/>
+      <c r="AG212" s="32"/>
+      <c r="AH212" s="32"/>
+      <c r="AI212" s="32"/>
+      <c r="AJ212" s="32"/>
+      <c r="AK212" s="32"/>
+      <c r="AL212" s="32"/>
+      <c r="AM212" s="32"/>
     </row>
     <row r="213" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -17046,25 +17057,25 @@
       <c r="V213" s="11">
         <v>43652.877083333333</v>
       </c>
-      <c r="W213" s="33">
+      <c r="W213" s="32">
         <v>20940</v>
       </c>
-      <c r="X213" s="33"/>
-      <c r="Y213" s="33"/>
-      <c r="Z213" s="33"/>
-      <c r="AA213" s="33"/>
-      <c r="AB213" s="33"/>
-      <c r="AC213" s="33"/>
-      <c r="AD213" s="33"/>
-      <c r="AE213" s="33"/>
-      <c r="AF213" s="33"/>
-      <c r="AG213" s="33"/>
-      <c r="AH213" s="33"/>
-      <c r="AI213" s="33"/>
-      <c r="AJ213" s="33"/>
-      <c r="AK213" s="33"/>
-      <c r="AL213" s="33"/>
-      <c r="AM213" s="33"/>
+      <c r="X213" s="32"/>
+      <c r="Y213" s="32"/>
+      <c r="Z213" s="32"/>
+      <c r="AA213" s="32"/>
+      <c r="AB213" s="32"/>
+      <c r="AC213" s="32"/>
+      <c r="AD213" s="32"/>
+      <c r="AE213" s="32"/>
+      <c r="AF213" s="32"/>
+      <c r="AG213" s="32"/>
+      <c r="AH213" s="32"/>
+      <c r="AI213" s="32"/>
+      <c r="AJ213" s="32"/>
+      <c r="AK213" s="32"/>
+      <c r="AL213" s="32"/>
+      <c r="AM213" s="32"/>
     </row>
     <row r="214" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -17140,25 +17151,25 @@
       <c r="V214" s="11">
         <v>43666.870833333334</v>
       </c>
-      <c r="W214" s="33">
+      <c r="W214" s="32">
         <v>7713</v>
       </c>
-      <c r="X214" s="33"/>
-      <c r="Y214" s="33"/>
-      <c r="Z214" s="33"/>
-      <c r="AA214" s="33"/>
-      <c r="AB214" s="33"/>
-      <c r="AC214" s="33"/>
-      <c r="AD214" s="33"/>
-      <c r="AE214" s="33"/>
-      <c r="AF214" s="33"/>
-      <c r="AG214" s="33"/>
-      <c r="AH214" s="33"/>
-      <c r="AI214" s="33"/>
-      <c r="AJ214" s="33"/>
-      <c r="AK214" s="33"/>
-      <c r="AL214" s="33"/>
-      <c r="AM214" s="33"/>
+      <c r="X214" s="32"/>
+      <c r="Y214" s="32"/>
+      <c r="Z214" s="32"/>
+      <c r="AA214" s="32"/>
+      <c r="AB214" s="32"/>
+      <c r="AC214" s="32"/>
+      <c r="AD214" s="32"/>
+      <c r="AE214" s="32"/>
+      <c r="AF214" s="32"/>
+      <c r="AG214" s="32"/>
+      <c r="AH214" s="32"/>
+      <c r="AI214" s="32"/>
+      <c r="AJ214" s="32"/>
+      <c r="AK214" s="32"/>
+      <c r="AL214" s="32"/>
+      <c r="AM214" s="32"/>
     </row>
     <row r="215" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -17234,25 +17245,25 @@
       <c r="V215" s="11">
         <v>43681.859722222223</v>
       </c>
-      <c r="W215" s="33" t="s">
+      <c r="W215" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="X215" s="33"/>
-      <c r="Y215" s="33"/>
-      <c r="Z215" s="33"/>
-      <c r="AA215" s="33"/>
-      <c r="AB215" s="33"/>
-      <c r="AC215" s="33"/>
-      <c r="AD215" s="33"/>
-      <c r="AE215" s="33"/>
-      <c r="AF215" s="33"/>
-      <c r="AG215" s="33"/>
-      <c r="AH215" s="33"/>
-      <c r="AI215" s="33"/>
-      <c r="AJ215" s="33"/>
-      <c r="AK215" s="33"/>
-      <c r="AL215" s="33"/>
-      <c r="AM215" s="33"/>
+      <c r="X215" s="32"/>
+      <c r="Y215" s="32"/>
+      <c r="Z215" s="32"/>
+      <c r="AA215" s="32"/>
+      <c r="AB215" s="32"/>
+      <c r="AC215" s="32"/>
+      <c r="AD215" s="32"/>
+      <c r="AE215" s="32"/>
+      <c r="AF215" s="32"/>
+      <c r="AG215" s="32"/>
+      <c r="AH215" s="32"/>
+      <c r="AI215" s="32"/>
+      <c r="AJ215" s="32"/>
+      <c r="AK215" s="32"/>
+      <c r="AL215" s="32"/>
+      <c r="AM215" s="32"/>
     </row>
     <row r="216" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -17328,25 +17339,25 @@
       <c r="V216" s="11">
         <v>43695.845138888886</v>
       </c>
-      <c r="W216" s="33">
+      <c r="W216" s="32">
         <v>12319</v>
       </c>
-      <c r="X216" s="33"/>
-      <c r="Y216" s="33"/>
-      <c r="Z216" s="33"/>
-      <c r="AA216" s="33"/>
-      <c r="AB216" s="33"/>
-      <c r="AC216" s="33"/>
-      <c r="AD216" s="33"/>
-      <c r="AE216" s="33"/>
-      <c r="AF216" s="33"/>
-      <c r="AG216" s="33"/>
-      <c r="AH216" s="33"/>
-      <c r="AI216" s="33"/>
-      <c r="AJ216" s="33"/>
-      <c r="AK216" s="33"/>
-      <c r="AL216" s="33"/>
-      <c r="AM216" s="33"/>
+      <c r="X216" s="32"/>
+      <c r="Y216" s="32"/>
+      <c r="Z216" s="32"/>
+      <c r="AA216" s="32"/>
+      <c r="AB216" s="32"/>
+      <c r="AC216" s="32"/>
+      <c r="AD216" s="32"/>
+      <c r="AE216" s="32"/>
+      <c r="AF216" s="32"/>
+      <c r="AG216" s="32"/>
+      <c r="AH216" s="32"/>
+      <c r="AI216" s="32"/>
+      <c r="AJ216" s="32"/>
+      <c r="AK216" s="32"/>
+      <c r="AL216" s="32"/>
+      <c r="AM216" s="32"/>
     </row>
     <row r="217" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -17422,25 +17433,25 @@
       <c r="V217" s="11">
         <v>43709.828472222223</v>
       </c>
-      <c r="W217" s="33">
+      <c r="W217" s="32">
         <v>12000</v>
       </c>
-      <c r="X217" s="33"/>
-      <c r="Y217" s="33"/>
-      <c r="Z217" s="33"/>
-      <c r="AA217" s="33"/>
-      <c r="AB217" s="33"/>
-      <c r="AC217" s="33"/>
-      <c r="AD217" s="33"/>
-      <c r="AE217" s="33"/>
-      <c r="AF217" s="33"/>
-      <c r="AG217" s="33"/>
-      <c r="AH217" s="33"/>
-      <c r="AI217" s="33"/>
-      <c r="AJ217" s="33"/>
-      <c r="AK217" s="33"/>
-      <c r="AL217" s="33"/>
-      <c r="AM217" s="33"/>
+      <c r="X217" s="32"/>
+      <c r="Y217" s="32"/>
+      <c r="Z217" s="32"/>
+      <c r="AA217" s="32"/>
+      <c r="AB217" s="32"/>
+      <c r="AC217" s="32"/>
+      <c r="AD217" s="32"/>
+      <c r="AE217" s="32"/>
+      <c r="AF217" s="32"/>
+      <c r="AG217" s="32"/>
+      <c r="AH217" s="32"/>
+      <c r="AI217" s="32"/>
+      <c r="AJ217" s="32"/>
+      <c r="AK217" s="32"/>
+      <c r="AL217" s="32"/>
+      <c r="AM217" s="32"/>
     </row>
     <row r="218" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -17516,25 +17527,25 @@
       <c r="V218" s="11">
         <v>43723.810416666667</v>
       </c>
-      <c r="W218" s="33">
+      <c r="W218" s="32">
         <v>8077</v>
       </c>
-      <c r="X218" s="33"/>
-      <c r="Y218" s="33"/>
-      <c r="Z218" s="33"/>
-      <c r="AA218" s="33"/>
-      <c r="AB218" s="33"/>
-      <c r="AC218" s="33"/>
-      <c r="AD218" s="33"/>
-      <c r="AE218" s="33"/>
-      <c r="AF218" s="33"/>
-      <c r="AG218" s="33"/>
-      <c r="AH218" s="33"/>
-      <c r="AI218" s="33"/>
-      <c r="AJ218" s="33"/>
-      <c r="AK218" s="33"/>
-      <c r="AL218" s="33"/>
-      <c r="AM218" s="33"/>
+      <c r="X218" s="32"/>
+      <c r="Y218" s="32"/>
+      <c r="Z218" s="32"/>
+      <c r="AA218" s="32"/>
+      <c r="AB218" s="32"/>
+      <c r="AC218" s="32"/>
+      <c r="AD218" s="32"/>
+      <c r="AE218" s="32"/>
+      <c r="AF218" s="32"/>
+      <c r="AG218" s="32"/>
+      <c r="AH218" s="32"/>
+      <c r="AI218" s="32"/>
+      <c r="AJ218" s="32"/>
+      <c r="AK218" s="32"/>
+      <c r="AL218" s="32"/>
+      <c r="AM218" s="32"/>
     </row>
     <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -18657,25 +18668,25 @@
       <c r="V233" s="11">
         <v>44410.85833333333</v>
       </c>
-      <c r="W233" s="31" t="s">
+      <c r="W233" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="X233" s="31"/>
-      <c r="Y233" s="31"/>
-      <c r="Z233" s="31"/>
-      <c r="AA233" s="31"/>
-      <c r="AB233" s="31"/>
-      <c r="AC233" s="31"/>
-      <c r="AD233" s="31"/>
-      <c r="AE233" s="31"/>
-      <c r="AF233" s="31"/>
-      <c r="AG233" s="31"/>
-      <c r="AH233" s="31"/>
-      <c r="AI233" s="31"/>
-      <c r="AJ233" s="31"/>
-      <c r="AK233" s="31"/>
-      <c r="AL233" s="31"/>
-      <c r="AM233" s="31"/>
+      <c r="X233" s="30"/>
+      <c r="Y233" s="30"/>
+      <c r="Z233" s="30"/>
+      <c r="AA233" s="30"/>
+      <c r="AB233" s="30"/>
+      <c r="AC233" s="30"/>
+      <c r="AD233" s="30"/>
+      <c r="AE233" s="30"/>
+      <c r="AF233" s="30"/>
+      <c r="AG233" s="30"/>
+      <c r="AH233" s="30"/>
+      <c r="AI233" s="30"/>
+      <c r="AJ233" s="30"/>
+      <c r="AK233" s="30"/>
+      <c r="AL233" s="30"/>
+      <c r="AM233" s="30"/>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -20878,6 +20889,11 @@
     <sortCondition ref="E122:E258"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="W1:AM1"/>
+    <mergeCell ref="W97:AM97"/>
+    <mergeCell ref="W211:AM211"/>
+    <mergeCell ref="W212:AM212"/>
     <mergeCell ref="W233:AM233"/>
     <mergeCell ref="W115:AM115"/>
     <mergeCell ref="W119:AM119"/>
@@ -20889,23 +20905,20 @@
     <mergeCell ref="W217:AM217"/>
     <mergeCell ref="W215:AM215"/>
     <mergeCell ref="W218:AM218"/>
-    <mergeCell ref="W2:AM2"/>
-    <mergeCell ref="W1:AM1"/>
-    <mergeCell ref="W97:AM97"/>
-    <mergeCell ref="W211:AM211"/>
-    <mergeCell ref="W212:AM212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21104,20 +21117,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21142,12 +21156,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FF34D8-2840-4D7E-8253-BD461ACDB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4642B9-556C-40F2-9697-5CEAD47C2364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="34">
-  <si>
-    <t>Survey Date</t>
-  </si>
   <si>
     <t>Survey_Number</t>
   </si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>DFO_Density</t>
+  </si>
+  <si>
+    <t>Survey_Date</t>
   </si>
 </sst>
 </file>
@@ -728,9 +728,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,6 +736,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1097,10 +1097,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="U214" sqref="U214"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,90 +1129,90 @@
   <sheetData>
     <row r="1" spans="1:39" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V1" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1225,13 +1225,13 @@
         <v>1999</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>182637</v>
@@ -1244,7 +1244,7 @@
         <v>0.85416666666424135</v>
       </c>
       <c r="K2" s="4">
-        <f t="shared" ref="K2:K33" si="1">U2-INT(U2)</f>
+        <f t="shared" ref="K2:K32" si="1">U2-INT(U2)</f>
         <v>0.99930555555329192</v>
       </c>
       <c r="L2" s="12">
@@ -1285,25 +1285,25 @@
       <c r="V2" s="11">
         <v>36413.822916666664</v>
       </c>
-      <c r="W2" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
+      <c r="W2" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1316,13 +1316,13 @@
         <v>2000</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>147621</v>
@@ -1388,13 +1388,13 @@
         <v>2000</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2">
         <v>121783</v>
@@ -1460,13 +1460,13 @@
         <v>2000</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2">
         <v>145273</v>
@@ -1532,13 +1532,13 @@
         <v>2001</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2">
         <v>33021</v>
@@ -1604,13 +1604,13 @@
         <v>2001</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="2">
         <v>31026</v>
@@ -1676,13 +1676,13 @@
         <v>2001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2">
         <v>12380</v>
@@ -1748,13 +1748,13 @@
         <v>2001</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2">
         <v>35613</v>
@@ -1820,13 +1820,13 @@
         <v>2002</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2">
         <v>2866</v>
@@ -1892,13 +1892,13 @@
         <v>2002</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="2">
         <v>117673</v>
@@ -1964,13 +1964,13 @@
         <v>2002</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2">
         <v>79410</v>
@@ -2036,13 +2036,13 @@
         <v>2003</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="2">
         <v>101182</v>
@@ -2108,13 +2108,13 @@
         <v>2003</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2">
         <v>97926</v>
@@ -2180,13 +2180,13 @@
         <v>2003</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="2">
         <v>52599</v>
@@ -2252,13 +2252,13 @@
         <v>2003</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2">
         <v>70011</v>
@@ -2324,13 +2324,13 @@
         <v>2003</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="2">
         <v>21768</v>
@@ -2396,13 +2396,13 @@
         <v>2004</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2">
         <v>109775</v>
@@ -2468,13 +2468,13 @@
         <v>2004</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" s="2">
         <v>155348</v>
@@ -2540,13 +2540,13 @@
         <v>2004</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2">
         <v>102506</v>
@@ -2612,13 +2612,13 @@
         <v>2005</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="2">
         <v>91701</v>
@@ -2684,13 +2684,13 @@
         <v>2005</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2">
         <v>128825</v>
@@ -2756,13 +2756,13 @@
         <v>2005</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="2">
         <v>48084</v>
@@ -2831,13 +2831,13 @@
         <v>5</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="2">
         <v>114069</v>
@@ -2906,13 +2906,13 @@
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="2">
         <v>107641</v>
@@ -2981,13 +2981,13 @@
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2">
         <v>50893</v>
@@ -3056,13 +3056,13 @@
         <v>4</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="2">
         <v>22787</v>
@@ -3131,13 +3131,13 @@
         <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2">
         <v>45920</v>
@@ -3206,13 +3206,13 @@
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H29" s="2">
         <v>32769</v>
@@ -3281,13 +3281,13 @@
         <v>7</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2">
         <v>191802</v>
@@ -3356,13 +3356,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H31" s="2">
         <v>228870</v>
@@ -3431,13 +3431,13 @@
         <v>3</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2">
         <v>8064</v>
@@ -3506,13 +3506,13 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="2">
         <v>25445</v>
@@ -3581,13 +3581,13 @@
         <v>7</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="2">
         <v>72300</v>
@@ -3656,13 +3656,13 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="2">
         <v>32159</v>
@@ -3731,13 +3731,13 @@
         <v>6</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36" s="2">
         <v>111046</v>
@@ -3806,13 +3806,13 @@
         <v>2</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="2">
         <v>934</v>
@@ -3881,13 +3881,13 @@
         <v>7</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="2">
         <v>90118</v>
@@ -3956,13 +3956,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H39" s="2">
         <v>114610</v>
@@ -4031,13 +4031,13 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H40" s="2">
         <v>37522</v>
@@ -4106,13 +4106,13 @@
         <v>7</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H41" s="2">
         <v>70024</v>
@@ -4181,13 +4181,13 @@
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="2">
         <v>49292</v>
@@ -4256,13 +4256,13 @@
         <v>7</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="2">
         <v>71809</v>
@@ -4331,13 +4331,13 @@
         <v>5</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="2">
         <v>15195</v>
@@ -4406,13 +4406,13 @@
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="2">
         <v>85180</v>
@@ -4481,13 +4481,13 @@
         <v>7</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="2">
         <v>58570</v>
@@ -4500,7 +4500,7 @@
         <v>0.875</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" ref="K45:K83" si="13">U46-INT(U46)</f>
+        <f t="shared" ref="K46:K83" si="13">U46-INT(U46)</f>
         <v>0.65555555555329192</v>
       </c>
       <c r="L46" s="12">
@@ -4556,13 +4556,13 @@
         <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="2">
         <v>66839</v>
@@ -4631,13 +4631,13 @@
         <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="2">
         <v>65230</v>
@@ -4706,13 +4706,13 @@
         <v>7</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="2">
         <v>16637</v>
@@ -4781,13 +4781,13 @@
         <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="2">
         <v>36068</v>
@@ -4856,13 +4856,13 @@
         <v>7</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="2">
         <v>8721</v>
@@ -4931,13 +4931,13 @@
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="2">
         <v>3820</v>
@@ -5006,13 +5006,13 @@
         <v>6</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="2">
         <v>30405</v>
@@ -5081,13 +5081,13 @@
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" s="2">
         <v>116508</v>
@@ -5156,13 +5156,13 @@
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2">
         <v>143937</v>
@@ -5231,13 +5231,13 @@
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H56" s="2">
         <v>9611</v>
@@ -5306,13 +5306,13 @@
         <v>6</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" s="2">
         <v>33541</v>
@@ -5381,13 +5381,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" s="2">
         <v>107994</v>
@@ -5456,13 +5456,13 @@
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="2">
         <v>59916</v>
@@ -5531,13 +5531,13 @@
         <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H60" s="2">
         <v>59213</v>
@@ -5606,13 +5606,13 @@
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H61" s="2">
         <v>21475</v>
@@ -5681,13 +5681,13 @@
         <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H62" s="2">
         <v>53509</v>
@@ -5756,13 +5756,13 @@
         <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H63" s="2">
         <v>118088</v>
@@ -5831,13 +5831,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64" s="2">
         <v>37906</v>
@@ -5906,13 +5906,13 @@
         <v>7</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H65" s="2">
         <v>48419</v>
@@ -5981,13 +5981,13 @@
         <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66" s="2">
         <v>6606</v>
@@ -6056,13 +6056,13 @@
         <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="2">
         <v>51496</v>
@@ -6131,13 +6131,13 @@
         <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H68" s="2">
         <v>70385</v>
@@ -6206,13 +6206,13 @@
         <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69" s="2">
         <v>79348</v>
@@ -6281,13 +6281,13 @@
         <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H70" s="2">
         <v>10510</v>
@@ -6356,13 +6356,13 @@
         <v>5</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H71" s="2">
         <v>21294</v>
@@ -6431,13 +6431,13 @@
         <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H72" s="2">
         <v>16156</v>
@@ -6506,13 +6506,13 @@
         <v>7</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H73" s="2">
         <v>64219</v>
@@ -6581,13 +6581,13 @@
         <v>7</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H74" s="2">
         <v>52782</v>
@@ -6656,13 +6656,13 @@
         <v>7</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H75" s="2">
         <v>39242</v>
@@ -6731,13 +6731,13 @@
         <v>6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H76" s="2">
         <v>28039</v>
@@ -6806,13 +6806,13 @@
         <v>7</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H77" s="2">
         <v>3990</v>
@@ -6881,13 +6881,13 @@
         <v>7</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="10">
         <v>37203</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H78" s="2">
         <v>35565</v>
@@ -6956,13 +6956,13 @@
         <v>6</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="10">
         <v>28127</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" s="2">
         <v>26089</v>
@@ -7031,13 +7031,13 @@
         <v>7</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F80" s="10">
         <v>92063</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H80" s="2">
         <v>36061</v>
@@ -7106,13 +7106,13 @@
         <v>7</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F81" s="10">
         <v>17603</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H81" s="2">
         <v>15396</v>
@@ -7181,13 +7181,13 @@
         <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="10">
         <v>48923</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H82" s="2">
         <v>48752</v>
@@ -7253,25 +7253,25 @@
         <v>2016</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F83">
         <v>10455</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H83">
         <v>10589</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K83" s="4">
         <f t="shared" si="13"/>
@@ -7301,13 +7301,13 @@
         <v>#VALUE!</v>
       </c>
       <c r="R83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S83" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U83" s="11">
         <v>42650.6484837963</v>
@@ -7330,7 +7330,7 @@
         <v>9</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84">
         <v>44233</v>
@@ -7405,7 +7405,7 @@
         <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F85">
         <v>84439</v>
@@ -7480,7 +7480,7 @@
         <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86">
         <v>82359</v>
@@ -7489,7 +7489,7 @@
         <v>62869</v>
       </c>
       <c r="H86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I86" s="2">
         <v>42053</v>
@@ -7555,7 +7555,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87">
         <v>3457</v>
@@ -7564,7 +7564,7 @@
         <v>3148</v>
       </c>
       <c r="H87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J87" s="4">
         <f t="shared" si="19"/>
@@ -7627,7 +7627,7 @@
         <v>6</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88">
         <v>6144</v>
@@ -7702,7 +7702,7 @@
         <v>6</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F89">
         <v>32741</v>
@@ -7777,7 +7777,7 @@
         <v>6</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90">
         <v>13097</v>
@@ -7852,7 +7852,7 @@
         <v>9</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F91">
         <v>17576</v>
@@ -7927,7 +7927,7 @@
         <v>9</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F92">
         <v>49641</v>
@@ -8002,7 +8002,7 @@
         <v>9</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F93">
         <v>46330</v>
@@ -8077,7 +8077,7 @@
         <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F94">
         <v>24816</v>
@@ -8152,7 +8152,7 @@
         <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F95">
         <v>5544</v>
@@ -8164,7 +8164,7 @@
         <v>4963</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J95" s="4">
         <f t="shared" si="19"/>
@@ -8227,13 +8227,13 @@
         <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -8302,7 +8302,7 @@
         <v>6</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F97">
         <v>15587</v>
@@ -8362,25 +8362,25 @@
       <c r="V97" s="11">
         <v>43688.85</v>
       </c>
-      <c r="W97" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="X97" s="33"/>
-      <c r="Y97" s="33"/>
-      <c r="Z97" s="33"/>
-      <c r="AA97" s="33"/>
-      <c r="AB97" s="33"/>
-      <c r="AC97" s="33"/>
-      <c r="AD97" s="33"/>
-      <c r="AE97" s="33"/>
-      <c r="AF97" s="33"/>
-      <c r="AG97" s="33"/>
-      <c r="AH97" s="33"/>
-      <c r="AI97" s="33"/>
-      <c r="AJ97" s="33"/>
-      <c r="AK97" s="33"/>
-      <c r="AL97" s="33"/>
-      <c r="AM97" s="33"/>
+      <c r="W97" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="X97" s="32"/>
+      <c r="Y97" s="32"/>
+      <c r="Z97" s="32"/>
+      <c r="AA97" s="32"/>
+      <c r="AB97" s="32"/>
+      <c r="AC97" s="32"/>
+      <c r="AD97" s="32"/>
+      <c r="AE97" s="32"/>
+      <c r="AF97" s="32"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
+      <c r="AI97" s="32"/>
+      <c r="AJ97" s="32"/>
+      <c r="AK97" s="32"/>
+      <c r="AL97" s="32"/>
+      <c r="AM97" s="32"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -8396,7 +8396,7 @@
         <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98">
         <v>39104</v>
@@ -8471,7 +8471,7 @@
         <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>45469</v>
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F100">
         <v>89343</v>
@@ -8621,7 +8621,7 @@
         <v>6</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101">
         <v>12431</v>
@@ -8696,7 +8696,7 @@
         <v>5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F102">
         <v>26790</v>
@@ -8771,7 +8771,7 @@
         <v>5</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F103">
         <v>1753</v>
@@ -8846,7 +8846,7 @@
         <v>6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104">
         <v>43690</v>
@@ -8921,7 +8921,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105">
         <v>29205</v>
@@ -8996,7 +8996,7 @@
         <v>9</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106">
         <v>69343</v>
@@ -9071,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F107">
         <v>16530</v>
@@ -9146,7 +9146,7 @@
         <v>7</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F108">
         <v>12046</v>
@@ -9221,7 +9221,7 @@
         <v>6</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F109">
         <v>7704</v>
@@ -9296,7 +9296,7 @@
         <v>8</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F110">
         <v>8338</v>
@@ -9365,7 +9365,7 @@
         <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F111">
         <v>40319</v>
@@ -9434,7 +9434,7 @@
         <v>9</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F112">
         <v>80644</v>
@@ -9503,7 +9503,7 @@
         <v>9</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113">
         <v>15722</v>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="D114" s="18"/>
       <c r="E114" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F114" s="17">
         <v>3113</v>
@@ -9627,7 +9627,7 @@
         <v>44487.774305555555</v>
       </c>
       <c r="W114" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
@@ -9658,7 +9658,7 @@
       </c>
       <c r="D115" s="18"/>
       <c r="E115" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" s="17">
         <v>12320</v>
@@ -9714,25 +9714,25 @@
       <c r="V115" s="22">
         <v>44502.748611111114</v>
       </c>
-      <c r="W115" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="X115" s="33"/>
-      <c r="Y115" s="33"/>
-      <c r="Z115" s="33"/>
-      <c r="AA115" s="33"/>
-      <c r="AB115" s="33"/>
-      <c r="AC115" s="33"/>
-      <c r="AD115" s="33"/>
-      <c r="AE115" s="33"/>
-      <c r="AF115" s="33"/>
-      <c r="AG115" s="33"/>
-      <c r="AH115" s="33"/>
-      <c r="AI115" s="33"/>
-      <c r="AJ115" s="33"/>
-      <c r="AK115" s="33"/>
-      <c r="AL115" s="33"/>
-      <c r="AM115" s="33"/>
+      <c r="W115" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="X115" s="32"/>
+      <c r="Y115" s="32"/>
+      <c r="Z115" s="32"/>
+      <c r="AA115" s="32"/>
+      <c r="AB115" s="32"/>
+      <c r="AC115" s="32"/>
+      <c r="AD115" s="32"/>
+      <c r="AE115" s="32"/>
+      <c r="AF115" s="32"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="32"/>
+      <c r="AJ115" s="32"/>
+      <c r="AK115" s="32"/>
+      <c r="AL115" s="32"/>
+      <c r="AM115" s="32"/>
     </row>
     <row r="116" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -9748,7 +9748,7 @@
         <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F116">
         <v>7352</v>
@@ -9817,7 +9817,7 @@
         <v>9</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F117">
         <v>4659</v>
@@ -9886,7 +9886,7 @@
         <v>9</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118">
         <v>7452</v>
@@ -9955,7 +9955,7 @@
         <v>8</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119">
         <v>62399</v>
@@ -10009,25 +10009,25 @@
       <c r="V119" s="11">
         <v>44829.793749999997</v>
       </c>
-      <c r="W119" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="X119" s="33"/>
-      <c r="Y119" s="33"/>
-      <c r="Z119" s="33"/>
-      <c r="AA119" s="33"/>
-      <c r="AB119" s="33"/>
-      <c r="AC119" s="33"/>
-      <c r="AD119" s="33"/>
-      <c r="AE119" s="33"/>
-      <c r="AF119" s="33"/>
-      <c r="AG119" s="33"/>
-      <c r="AH119" s="33"/>
-      <c r="AI119" s="33"/>
-      <c r="AJ119" s="33"/>
-      <c r="AK119" s="33"/>
-      <c r="AL119" s="33"/>
-      <c r="AM119" s="33"/>
+      <c r="W119" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X119" s="32"/>
+      <c r="Y119" s="32"/>
+      <c r="Z119" s="32"/>
+      <c r="AA119" s="32"/>
+      <c r="AB119" s="32"/>
+      <c r="AC119" s="32"/>
+      <c r="AD119" s="32"/>
+      <c r="AE119" s="32"/>
+      <c r="AF119" s="32"/>
+      <c r="AG119" s="32"/>
+      <c r="AH119" s="32"/>
+      <c r="AI119" s="32"/>
+      <c r="AJ119" s="32"/>
+      <c r="AK119" s="32"/>
+      <c r="AL119" s="32"/>
+      <c r="AM119" s="32"/>
     </row>
     <row r="120" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -10043,13 +10043,13 @@
         <v>9</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H120" s="10">
         <v>20247</v>
@@ -10097,25 +10097,25 @@
       <c r="V120" s="11">
         <v>44844.774305555555</v>
       </c>
-      <c r="W120" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="X120" s="33"/>
-      <c r="Y120" s="33"/>
-      <c r="Z120" s="33"/>
-      <c r="AA120" s="33"/>
-      <c r="AB120" s="33"/>
-      <c r="AC120" s="33"/>
-      <c r="AD120" s="33"/>
-      <c r="AE120" s="33"/>
-      <c r="AF120" s="33"/>
-      <c r="AG120" s="33"/>
-      <c r="AH120" s="33"/>
-      <c r="AI120" s="33"/>
-      <c r="AJ120" s="33"/>
-      <c r="AK120" s="33"/>
-      <c r="AL120" s="33"/>
-      <c r="AM120" s="33"/>
+      <c r="W120" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X120" s="32"/>
+      <c r="Y120" s="32"/>
+      <c r="Z120" s="32"/>
+      <c r="AA120" s="32"/>
+      <c r="AB120" s="32"/>
+      <c r="AC120" s="32"/>
+      <c r="AD120" s="32"/>
+      <c r="AE120" s="32"/>
+      <c r="AF120" s="32"/>
+      <c r="AG120" s="32"/>
+      <c r="AH120" s="32"/>
+      <c r="AI120" s="32"/>
+      <c r="AJ120" s="32"/>
+      <c r="AK120" s="32"/>
+      <c r="AL120" s="32"/>
+      <c r="AM120" s="32"/>
     </row>
     <row r="121" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -10131,13 +10131,13 @@
         <v>5</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H121" s="10">
         <v>15565</v>
@@ -10185,25 +10185,25 @@
       <c r="V121" s="11">
         <v>44857.759027777778</v>
       </c>
-      <c r="W121" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="X121" s="33"/>
-      <c r="Y121" s="33"/>
-      <c r="Z121" s="33"/>
-      <c r="AA121" s="33"/>
-      <c r="AB121" s="33"/>
-      <c r="AC121" s="33"/>
-      <c r="AD121" s="33"/>
-      <c r="AE121" s="33"/>
-      <c r="AF121" s="33"/>
-      <c r="AG121" s="33"/>
-      <c r="AH121" s="33"/>
-      <c r="AI121" s="33"/>
-      <c r="AJ121" s="33"/>
-      <c r="AK121" s="33"/>
-      <c r="AL121" s="33"/>
-      <c r="AM121" s="33"/>
+      <c r="W121" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="X121" s="32"/>
+      <c r="Y121" s="32"/>
+      <c r="Z121" s="32"/>
+      <c r="AA121" s="32"/>
+      <c r="AB121" s="32"/>
+      <c r="AC121" s="32"/>
+      <c r="AD121" s="32"/>
+      <c r="AE121" s="32"/>
+      <c r="AF121" s="32"/>
+      <c r="AG121" s="32"/>
+      <c r="AH121" s="32"/>
+      <c r="AI121" s="32"/>
+      <c r="AJ121" s="32"/>
+      <c r="AK121" s="32"/>
+      <c r="AL121" s="32"/>
+      <c r="AM121" s="32"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -10219,7 +10219,7 @@
         <v>4</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F122">
         <v>40856</v>
@@ -10289,13 +10289,13 @@
         <v>1</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H123" s="2">
         <v>22307</v>
@@ -10364,13 +10364,13 @@
         <v>1</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
@@ -10439,13 +10439,13 @@
         <v>8</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H125" s="2">
         <v>45284</v>
@@ -10514,13 +10514,13 @@
         <v>1</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H126" s="2">
         <v>30322</v>
@@ -10589,13 +10589,13 @@
         <v>1</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H127" s="2">
         <v>30710</v>
@@ -10664,13 +10664,13 @@
         <v>1</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H128" s="2">
         <v>54317</v>
@@ -10739,13 +10739,13 @@
         <v>1</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H129" s="2">
         <v>22401</v>
@@ -10814,13 +10814,13 @@
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H130" s="2">
         <v>15824</v>
@@ -10889,13 +10889,13 @@
         <v>2</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H131" s="2">
         <v>79938</v>
@@ -10964,13 +10964,13 @@
         <v>5</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H132" s="2">
         <v>1042</v>
@@ -11039,13 +11039,13 @@
         <v>5</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133" s="2">
         <v>16866</v>
@@ -11114,13 +11114,13 @@
         <v>5</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H134" s="2">
         <v>63327</v>
@@ -11189,13 +11189,13 @@
         <v>5</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H135" s="2">
         <v>27110</v>
@@ -11264,13 +11264,13 @@
         <v>4</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H136" s="2">
         <v>12404</v>
@@ -11339,13 +11339,13 @@
         <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H137" s="2">
         <v>7618</v>
@@ -11414,13 +11414,13 @@
         <v>5</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H138" s="2">
         <v>1206</v>
@@ -11489,13 +11489,13 @@
         <v>2</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H139" s="2">
         <v>260</v>
@@ -11564,13 +11564,13 @@
         <v>4</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H140" s="2">
         <v>586</v>
@@ -11639,13 +11639,13 @@
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H141" s="2">
         <v>1966</v>
@@ -11714,13 +11714,13 @@
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H142" s="2">
         <v>8899</v>
@@ -11789,13 +11789,13 @@
         <v>4</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H143" s="2">
         <v>31962</v>
@@ -11864,13 +11864,13 @@
         <v>4</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H144" s="2">
         <v>8806</v>
@@ -11939,13 +11939,13 @@
         <v>4</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H145" s="2">
         <v>3032</v>
@@ -12014,13 +12014,13 @@
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H146" s="2">
         <v>5912</v>
@@ -12089,13 +12089,13 @@
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H147" s="2">
         <v>14238</v>
@@ -12164,13 +12164,13 @@
         <v>6</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H148" s="2">
         <v>3144</v>
@@ -12239,13 +12239,13 @@
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H149" s="2">
         <v>7542</v>
@@ -12314,13 +12314,13 @@
         <v>6</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H150" s="2">
         <v>45744</v>
@@ -12389,13 +12389,13 @@
         <v>6</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H151" s="2">
         <v>19338</v>
@@ -12464,13 +12464,13 @@
         <v>6</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H152" s="2">
         <v>14877</v>
@@ -12539,13 +12539,13 @@
         <v>5</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H153" s="2">
         <v>256</v>
@@ -12614,13 +12614,13 @@
         <v>3</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H154" s="2">
         <v>11136</v>
@@ -12689,13 +12689,13 @@
         <v>6</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H155" s="2">
         <v>17172</v>
@@ -12764,13 +12764,13 @@
         <v>8</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H156" s="2">
         <v>9439</v>
@@ -12839,13 +12839,13 @@
         <v>11</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H157" s="2">
         <v>13528</v>
@@ -12914,13 +12914,13 @@
         <v>5</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H158" s="2">
         <v>8011</v>
@@ -12989,13 +12989,13 @@
         <v>5</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H159" s="2">
         <v>1238</v>
@@ -13064,13 +13064,13 @@
         <v>6</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H160" s="2">
         <v>37706</v>
@@ -13139,13 +13139,13 @@
         <v>6</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H161" s="2">
         <v>38600</v>
@@ -13214,13 +13214,13 @@
         <v>7</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H162" s="2">
         <v>33725</v>
@@ -13289,13 +13289,13 @@
         <v>6</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H163" s="2">
         <v>5598</v>
@@ -13364,13 +13364,13 @@
         <v>6</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H164" s="2">
         <v>8865</v>
@@ -13439,13 +13439,13 @@
         <v>12</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H165" s="2">
         <v>59795</v>
@@ -13514,13 +13514,13 @@
         <v>12</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H166" s="2">
         <v>55787</v>
@@ -13589,13 +13589,13 @@
         <v>11</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H167" s="2">
         <v>38756</v>
@@ -13664,13 +13664,13 @@
         <v>8</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H168" s="2">
         <v>20939</v>
@@ -13739,13 +13739,13 @@
         <v>7</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H169" s="2">
         <v>9550</v>
@@ -13814,13 +13814,13 @@
         <v>7</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H170" s="2">
         <v>13245</v>
@@ -13889,13 +13889,13 @@
         <v>8</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H171" s="2">
         <v>8098</v>
@@ -13964,13 +13964,13 @@
         <v>9</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G172" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H172" s="2">
         <v>11950</v>
@@ -14039,13 +14039,13 @@
         <v>9</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G173" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H173" s="2">
         <v>9759</v>
@@ -14114,13 +14114,13 @@
         <v>6</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H174" s="2">
         <v>15068</v>
@@ -14189,13 +14189,13 @@
         <v>4</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H175" s="2">
         <v>13917</v>
@@ -14264,13 +14264,13 @@
         <v>4</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H176" s="2">
         <v>4181</v>
@@ -14339,13 +14339,13 @@
         <v>7</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H177" s="2">
         <v>58893</v>
@@ -14414,13 +14414,13 @@
         <v>7</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H178" s="2">
         <v>108061</v>
@@ -14489,13 +14489,13 @@
         <v>6</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G179" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H179" s="2">
         <v>24953</v>
@@ -14564,13 +14564,13 @@
         <v>8</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G180" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H180" s="2">
         <v>20876</v>
@@ -14639,13 +14639,13 @@
         <v>6</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H181" s="2">
         <v>7511</v>
@@ -14714,13 +14714,13 @@
         <v>3</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H182" s="2">
         <v>10639</v>
@@ -14789,13 +14789,13 @@
         <v>7</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H183" s="2">
         <v>82428</v>
@@ -14864,13 +14864,13 @@
         <v>7</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H184" s="2">
         <v>81672</v>
@@ -14939,13 +14939,13 @@
         <v>8</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H185" s="2">
         <v>41192</v>
@@ -15014,13 +15014,13 @@
         <v>8</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H186" s="2">
         <v>34234</v>
@@ -15089,13 +15089,13 @@
         <v>6</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G187" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H187" s="2">
         <v>29424</v>
@@ -15164,13 +15164,13 @@
         <v>3</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H188" s="2">
         <v>16245</v>
@@ -15239,13 +15239,13 @@
         <v>5</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F189" s="10">
         <v>25181</v>
       </c>
       <c r="G189" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H189">
         <v>23989</v>
@@ -15314,13 +15314,13 @@
         <v>6</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F190" s="10">
         <v>43493</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H190">
         <v>41093</v>
@@ -15389,13 +15389,13 @@
         <v>9</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F191" s="10">
         <v>10007</v>
       </c>
       <c r="G191" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H191">
         <v>9423</v>
@@ -15464,13 +15464,13 @@
         <v>9</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F192" s="10">
         <v>11074</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H192">
         <v>11165</v>
@@ -15539,13 +15539,13 @@
         <v>8</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F193" s="10">
         <v>26933</v>
       </c>
       <c r="G193" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H193">
         <v>26951</v>
@@ -15614,13 +15614,13 @@
         <v>6</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F194" s="10">
         <v>3252</v>
       </c>
       <c r="G194" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H194">
         <v>3047</v>
@@ -15689,7 +15689,7 @@
         <v>6</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F195" s="10">
         <v>91726</v>
@@ -15764,7 +15764,7 @@
         <v>7</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F196" s="10">
         <v>27680</v>
@@ -15839,7 +15839,7 @@
         <v>8</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F197" s="10">
         <v>24775</v>
@@ -15914,7 +15914,7 @@
         <v>7</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F198" s="10">
         <v>6916</v>
@@ -15989,7 +15989,7 @@
         <v>7</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F199" s="10">
         <v>22106</v>
@@ -16064,7 +16064,7 @@
         <v>8</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F200" s="10">
         <v>13763</v>
@@ -16139,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F201" s="10">
         <v>10284</v>
@@ -16214,7 +16214,7 @@
         <v>3</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F202" s="10">
         <v>2310</v>
@@ -16289,7 +16289,7 @@
         <v>6</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F203" s="10">
         <v>81722</v>
@@ -16364,7 +16364,7 @@
         <v>7</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F204" s="10">
         <v>29877</v>
@@ -16439,7 +16439,7 @@
         <v>8</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F205" s="10">
         <v>35684</v>
@@ -16514,7 +16514,7 @@
         <v>6</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F206" s="10">
         <v>4887</v>
@@ -16589,7 +16589,7 @@
         <v>7</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F207" s="10">
         <v>7314</v>
@@ -16664,7 +16664,7 @@
         <v>8</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F208" s="10">
         <v>6087</v>
@@ -16739,7 +16739,7 @@
         <v>8</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F209" s="10">
         <v>7719</v>
@@ -16814,7 +16814,7 @@
         <v>3</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F210" s="10">
         <v>2027</v>
@@ -16889,7 +16889,7 @@
         <v>6</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F211" s="10">
         <v>58532</v>
@@ -16949,25 +16949,25 @@
       <c r="V211" s="11">
         <v>43624.874305555553</v>
       </c>
-      <c r="W211" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="X211" s="34"/>
-      <c r="Y211" s="34"/>
-      <c r="Z211" s="34"/>
-      <c r="AA211" s="34"/>
-      <c r="AB211" s="34"/>
-      <c r="AC211" s="34"/>
-      <c r="AD211" s="34"/>
-      <c r="AE211" s="34"/>
-      <c r="AF211" s="34"/>
-      <c r="AG211" s="34"/>
-      <c r="AH211" s="34"/>
-      <c r="AI211" s="34"/>
-      <c r="AJ211" s="34"/>
-      <c r="AK211" s="34"/>
-      <c r="AL211" s="34"/>
-      <c r="AM211" s="34"/>
+      <c r="W211" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="X211" s="33"/>
+      <c r="Y211" s="33"/>
+      <c r="Z211" s="33"/>
+      <c r="AA211" s="33"/>
+      <c r="AB211" s="33"/>
+      <c r="AC211" s="33"/>
+      <c r="AD211" s="33"/>
+      <c r="AE211" s="33"/>
+      <c r="AF211" s="33"/>
+      <c r="AG211" s="33"/>
+      <c r="AH211" s="33"/>
+      <c r="AI211" s="33"/>
+      <c r="AJ211" s="33"/>
+      <c r="AK211" s="33"/>
+      <c r="AL211" s="33"/>
+      <c r="AM211" s="33"/>
     </row>
     <row r="212" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -16983,7 +16983,7 @@
         <v>7</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F212" s="10">
         <v>42750</v>
@@ -17043,25 +17043,25 @@
       <c r="V212" s="11">
         <v>43638.87777777778</v>
       </c>
-      <c r="W212" s="34">
+      <c r="W212" s="33">
         <v>37459</v>
       </c>
-      <c r="X212" s="34"/>
-      <c r="Y212" s="34"/>
-      <c r="Z212" s="34"/>
-      <c r="AA212" s="34"/>
-      <c r="AB212" s="34"/>
-      <c r="AC212" s="34"/>
-      <c r="AD212" s="34"/>
-      <c r="AE212" s="34"/>
-      <c r="AF212" s="34"/>
-      <c r="AG212" s="34"/>
-      <c r="AH212" s="34"/>
-      <c r="AI212" s="34"/>
-      <c r="AJ212" s="34"/>
-      <c r="AK212" s="34"/>
-      <c r="AL212" s="34"/>
-      <c r="AM212" s="34"/>
+      <c r="X212" s="33"/>
+      <c r="Y212" s="33"/>
+      <c r="Z212" s="33"/>
+      <c r="AA212" s="33"/>
+      <c r="AB212" s="33"/>
+      <c r="AC212" s="33"/>
+      <c r="AD212" s="33"/>
+      <c r="AE212" s="33"/>
+      <c r="AF212" s="33"/>
+      <c r="AG212" s="33"/>
+      <c r="AH212" s="33"/>
+      <c r="AI212" s="33"/>
+      <c r="AJ212" s="33"/>
+      <c r="AK212" s="33"/>
+      <c r="AL212" s="33"/>
+      <c r="AM212" s="33"/>
     </row>
     <row r="213" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -17077,7 +17077,7 @@
         <v>6</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F213" s="10">
         <v>21103</v>
@@ -17137,25 +17137,25 @@
       <c r="V213" s="11">
         <v>43652.877083333333</v>
       </c>
-      <c r="W213" s="34">
+      <c r="W213" s="33">
         <v>20940</v>
       </c>
-      <c r="X213" s="34"/>
-      <c r="Y213" s="34"/>
-      <c r="Z213" s="34"/>
-      <c r="AA213" s="34"/>
-      <c r="AB213" s="34"/>
-      <c r="AC213" s="34"/>
-      <c r="AD213" s="34"/>
-      <c r="AE213" s="34"/>
-      <c r="AF213" s="34"/>
-      <c r="AG213" s="34"/>
-      <c r="AH213" s="34"/>
-      <c r="AI213" s="34"/>
-      <c r="AJ213" s="34"/>
-      <c r="AK213" s="34"/>
-      <c r="AL213" s="34"/>
-      <c r="AM213" s="34"/>
+      <c r="X213" s="33"/>
+      <c r="Y213" s="33"/>
+      <c r="Z213" s="33"/>
+      <c r="AA213" s="33"/>
+      <c r="AB213" s="33"/>
+      <c r="AC213" s="33"/>
+      <c r="AD213" s="33"/>
+      <c r="AE213" s="33"/>
+      <c r="AF213" s="33"/>
+      <c r="AG213" s="33"/>
+      <c r="AH213" s="33"/>
+      <c r="AI213" s="33"/>
+      <c r="AJ213" s="33"/>
+      <c r="AK213" s="33"/>
+      <c r="AL213" s="33"/>
+      <c r="AM213" s="33"/>
     </row>
     <row r="214" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -17171,7 +17171,7 @@
         <v>5</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F214" s="10">
         <v>11148</v>
@@ -17231,25 +17231,25 @@
       <c r="V214" s="11">
         <v>43666.870833333334</v>
       </c>
-      <c r="W214" s="34">
+      <c r="W214" s="33">
         <v>7713</v>
       </c>
-      <c r="X214" s="34"/>
-      <c r="Y214" s="34"/>
-      <c r="Z214" s="34"/>
-      <c r="AA214" s="34"/>
-      <c r="AB214" s="34"/>
-      <c r="AC214" s="34"/>
-      <c r="AD214" s="34"/>
-      <c r="AE214" s="34"/>
-      <c r="AF214" s="34"/>
-      <c r="AG214" s="34"/>
-      <c r="AH214" s="34"/>
-      <c r="AI214" s="34"/>
-      <c r="AJ214" s="34"/>
-      <c r="AK214" s="34"/>
-      <c r="AL214" s="34"/>
-      <c r="AM214" s="34"/>
+      <c r="X214" s="33"/>
+      <c r="Y214" s="33"/>
+      <c r="Z214" s="33"/>
+      <c r="AA214" s="33"/>
+      <c r="AB214" s="33"/>
+      <c r="AC214" s="33"/>
+      <c r="AD214" s="33"/>
+      <c r="AE214" s="33"/>
+      <c r="AF214" s="33"/>
+      <c r="AG214" s="33"/>
+      <c r="AH214" s="33"/>
+      <c r="AI214" s="33"/>
+      <c r="AJ214" s="33"/>
+      <c r="AK214" s="33"/>
+      <c r="AL214" s="33"/>
+      <c r="AM214" s="33"/>
     </row>
     <row r="215" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -17265,7 +17265,7 @@
         <v>6</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F215" s="10">
         <v>3587.65</v>
@@ -17325,25 +17325,25 @@
       <c r="V215" s="11">
         <v>43681.859722222223</v>
       </c>
-      <c r="W215" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="X215" s="34"/>
-      <c r="Y215" s="34"/>
-      <c r="Z215" s="34"/>
-      <c r="AA215" s="34"/>
-      <c r="AB215" s="34"/>
-      <c r="AC215" s="34"/>
-      <c r="AD215" s="34"/>
-      <c r="AE215" s="34"/>
-      <c r="AF215" s="34"/>
-      <c r="AG215" s="34"/>
-      <c r="AH215" s="34"/>
-      <c r="AI215" s="34"/>
-      <c r="AJ215" s="34"/>
-      <c r="AK215" s="34"/>
-      <c r="AL215" s="34"/>
-      <c r="AM215" s="34"/>
+      <c r="W215" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="X215" s="33"/>
+      <c r="Y215" s="33"/>
+      <c r="Z215" s="33"/>
+      <c r="AA215" s="33"/>
+      <c r="AB215" s="33"/>
+      <c r="AC215" s="33"/>
+      <c r="AD215" s="33"/>
+      <c r="AE215" s="33"/>
+      <c r="AF215" s="33"/>
+      <c r="AG215" s="33"/>
+      <c r="AH215" s="33"/>
+      <c r="AI215" s="33"/>
+      <c r="AJ215" s="33"/>
+      <c r="AK215" s="33"/>
+      <c r="AL215" s="33"/>
+      <c r="AM215" s="33"/>
     </row>
     <row r="216" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -17359,7 +17359,7 @@
         <v>7</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F216" s="10">
         <v>13432</v>
@@ -17419,25 +17419,25 @@
       <c r="V216" s="11">
         <v>43695.845138888886</v>
       </c>
-      <c r="W216" s="34">
+      <c r="W216" s="33">
         <v>12319</v>
       </c>
-      <c r="X216" s="34"/>
-      <c r="Y216" s="34"/>
-      <c r="Z216" s="34"/>
-      <c r="AA216" s="34"/>
-      <c r="AB216" s="34"/>
-      <c r="AC216" s="34"/>
-      <c r="AD216" s="34"/>
-      <c r="AE216" s="34"/>
-      <c r="AF216" s="34"/>
-      <c r="AG216" s="34"/>
-      <c r="AH216" s="34"/>
-      <c r="AI216" s="34"/>
-      <c r="AJ216" s="34"/>
-      <c r="AK216" s="34"/>
-      <c r="AL216" s="34"/>
-      <c r="AM216" s="34"/>
+      <c r="X216" s="33"/>
+      <c r="Y216" s="33"/>
+      <c r="Z216" s="33"/>
+      <c r="AA216" s="33"/>
+      <c r="AB216" s="33"/>
+      <c r="AC216" s="33"/>
+      <c r="AD216" s="33"/>
+      <c r="AE216" s="33"/>
+      <c r="AF216" s="33"/>
+      <c r="AG216" s="33"/>
+      <c r="AH216" s="33"/>
+      <c r="AI216" s="33"/>
+      <c r="AJ216" s="33"/>
+      <c r="AK216" s="33"/>
+      <c r="AL216" s="33"/>
+      <c r="AM216" s="33"/>
     </row>
     <row r="217" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -17453,7 +17453,7 @@
         <v>8</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F217" s="10">
         <v>14227</v>
@@ -17513,25 +17513,25 @@
       <c r="V217" s="11">
         <v>43709.828472222223</v>
       </c>
-      <c r="W217" s="34">
+      <c r="W217" s="33">
         <v>12000</v>
       </c>
-      <c r="X217" s="34"/>
-      <c r="Y217" s="34"/>
-      <c r="Z217" s="34"/>
-      <c r="AA217" s="34"/>
-      <c r="AB217" s="34"/>
-      <c r="AC217" s="34"/>
-      <c r="AD217" s="34"/>
-      <c r="AE217" s="34"/>
-      <c r="AF217" s="34"/>
-      <c r="AG217" s="34"/>
-      <c r="AH217" s="34"/>
-      <c r="AI217" s="34"/>
-      <c r="AJ217" s="34"/>
-      <c r="AK217" s="34"/>
-      <c r="AL217" s="34"/>
-      <c r="AM217" s="34"/>
+      <c r="X217" s="33"/>
+      <c r="Y217" s="33"/>
+      <c r="Z217" s="33"/>
+      <c r="AA217" s="33"/>
+      <c r="AB217" s="33"/>
+      <c r="AC217" s="33"/>
+      <c r="AD217" s="33"/>
+      <c r="AE217" s="33"/>
+      <c r="AF217" s="33"/>
+      <c r="AG217" s="33"/>
+      <c r="AH217" s="33"/>
+      <c r="AI217" s="33"/>
+      <c r="AJ217" s="33"/>
+      <c r="AK217" s="33"/>
+      <c r="AL217" s="33"/>
+      <c r="AM217" s="33"/>
     </row>
     <row r="218" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -17547,7 +17547,7 @@
         <v>6</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F218" s="10">
         <v>9692</v>
@@ -17607,25 +17607,25 @@
       <c r="V218" s="11">
         <v>43723.810416666667</v>
       </c>
-      <c r="W218" s="34">
+      <c r="W218" s="33">
         <v>8077</v>
       </c>
-      <c r="X218" s="34"/>
-      <c r="Y218" s="34"/>
-      <c r="Z218" s="34"/>
-      <c r="AA218" s="34"/>
-      <c r="AB218" s="34"/>
-      <c r="AC218" s="34"/>
-      <c r="AD218" s="34"/>
-      <c r="AE218" s="34"/>
-      <c r="AF218" s="34"/>
-      <c r="AG218" s="34"/>
-      <c r="AH218" s="34"/>
-      <c r="AI218" s="34"/>
-      <c r="AJ218" s="34"/>
-      <c r="AK218" s="34"/>
-      <c r="AL218" s="34"/>
-      <c r="AM218" s="34"/>
+      <c r="X218" s="33"/>
+      <c r="Y218" s="33"/>
+      <c r="Z218" s="33"/>
+      <c r="AA218" s="33"/>
+      <c r="AB218" s="33"/>
+      <c r="AC218" s="33"/>
+      <c r="AD218" s="33"/>
+      <c r="AE218" s="33"/>
+      <c r="AF218" s="33"/>
+      <c r="AG218" s="33"/>
+      <c r="AH218" s="33"/>
+      <c r="AI218" s="33"/>
+      <c r="AJ218" s="33"/>
+      <c r="AK218" s="33"/>
+      <c r="AL218" s="33"/>
+      <c r="AM218" s="33"/>
     </row>
     <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -17641,7 +17641,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F219">
         <v>14718</v>
@@ -17716,7 +17716,7 @@
         <v>6</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F220">
         <v>11954</v>
@@ -17791,7 +17791,7 @@
         <v>6</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F221">
         <v>42174</v>
@@ -17866,7 +17866,7 @@
         <v>8</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F222">
         <v>28119</v>
@@ -17941,7 +17941,7 @@
         <v>7</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F223">
         <v>23865</v>
@@ -18016,7 +18016,7 @@
         <v>9</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F224">
         <v>41914</v>
@@ -18091,7 +18091,7 @@
         <v>8</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F225">
         <v>28159</v>
@@ -18166,7 +18166,7 @@
         <v>8</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F226">
         <v>20186</v>
@@ -18241,7 +18241,7 @@
         <v>4</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F227">
         <v>10122</v>
@@ -18316,7 +18316,7 @@
         <v>3</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F228">
         <v>4502</v>
@@ -18386,7 +18386,7 @@
         <v>6</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F229">
         <v>13947</v>
@@ -18462,7 +18462,7 @@
         <v>8</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F230">
         <v>7056</v>
@@ -18538,7 +18538,7 @@
         <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F231">
         <v>9104</v>
@@ -18611,7 +18611,7 @@
         <v>8</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F232">
         <v>4985</v>
@@ -18687,7 +18687,7 @@
         <v>8</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F233">
         <v>10364</v>
@@ -18748,25 +18748,25 @@
       <c r="V233" s="11">
         <v>44410.85833333333</v>
       </c>
-      <c r="W233" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="X233" s="32"/>
-      <c r="Y233" s="32"/>
-      <c r="Z233" s="32"/>
-      <c r="AA233" s="32"/>
-      <c r="AB233" s="32"/>
-      <c r="AC233" s="32"/>
-      <c r="AD233" s="32"/>
-      <c r="AE233" s="32"/>
-      <c r="AF233" s="32"/>
-      <c r="AG233" s="32"/>
-      <c r="AH233" s="32"/>
-      <c r="AI233" s="32"/>
-      <c r="AJ233" s="32"/>
-      <c r="AK233" s="32"/>
-      <c r="AL233" s="32"/>
-      <c r="AM233" s="32"/>
+      <c r="W233" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="X233" s="31"/>
+      <c r="Y233" s="31"/>
+      <c r="Z233" s="31"/>
+      <c r="AA233" s="31"/>
+      <c r="AB233" s="31"/>
+      <c r="AC233" s="31"/>
+      <c r="AD233" s="31"/>
+      <c r="AE233" s="31"/>
+      <c r="AF233" s="31"/>
+      <c r="AG233" s="31"/>
+      <c r="AH233" s="31"/>
+      <c r="AI233" s="31"/>
+      <c r="AJ233" s="31"/>
+      <c r="AK233" s="31"/>
+      <c r="AL233" s="31"/>
+      <c r="AM233" s="31"/>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -18782,7 +18782,7 @@
         <v>7</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F234">
         <v>7705</v>
@@ -18858,7 +18858,7 @@
         <v>9</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F235">
         <v>3602</v>
@@ -18934,7 +18934,7 @@
         <v>9</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F236">
         <v>38584</v>
@@ -19010,7 +19010,7 @@
         <v>3</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F237">
         <v>1456</v>
@@ -19086,7 +19086,7 @@
         <v>3</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F238">
         <v>90746</v>
@@ -19162,7 +19162,7 @@
         <v>8</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F239">
         <v>104368</v>
@@ -19238,7 +19238,7 @@
         <v>7</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F240">
         <v>34199</v>
@@ -19314,7 +19314,7 @@
         <v>5</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F241">
         <v>10537</v>
@@ -19390,7 +19390,7 @@
         <v>6</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F242">
         <v>13060</v>
@@ -19466,7 +19466,7 @@
         <v>8</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F243">
         <v>5250</v>
@@ -19542,7 +19542,7 @@
         <v>7</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F244">
         <v>4392</v>
@@ -19618,7 +19618,7 @@
         <v>7</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F245">
         <v>21908</v>
@@ -19694,7 +19694,7 @@
         <v>4</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F246">
         <v>8133</v>
@@ -19770,7 +19770,7 @@
         <v>3</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F247">
         <v>4392.3886890000003</v>
@@ -19846,7 +19846,7 @@
         <v>8</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F248">
         <v>113767.329</v>
@@ -19855,7 +19855,7 @@
         <v>108783</v>
       </c>
       <c r="H248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J248" s="4">
         <f t="shared" si="44"/>
@@ -19916,7 +19916,7 @@
         <v>5</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F249">
         <v>34279.38654</v>
@@ -19925,7 +19925,7 @@
         <v>15158</v>
       </c>
       <c r="H249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J249" s="4">
         <f t="shared" si="44"/>
@@ -19986,7 +19986,7 @@
         <v>6</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F250">
         <v>11744.77555</v>
@@ -19995,7 +19995,7 @@
         <v>5113</v>
       </c>
       <c r="H250" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J250" s="4">
         <f t="shared" si="44"/>
@@ -20056,7 +20056,7 @@
         <v>6</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F251">
         <v>19282.633519999999</v>
@@ -20065,7 +20065,7 @@
         <v>17575</v>
       </c>
       <c r="H251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J251" s="4">
         <f t="shared" si="44"/>
@@ -20126,7 +20126,7 @@
         <v>7</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F252" s="15">
         <v>4549.9328310000001</v>
@@ -20190,7 +20190,7 @@
         <v>5</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F253">
         <v>2686.5144679999999</v>
@@ -20256,7 +20256,7 @@
         <v>6</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F254" s="15">
         <v>4298.8056180000003</v>
@@ -20320,7 +20320,7 @@
         <v>9</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F255" s="15">
         <v>4930.4539489999997</v>
@@ -20384,7 +20384,7 @@
         <v>8</v>
       </c>
       <c r="E256" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F256">
         <v>2896.6589840000001</v>
@@ -20448,7 +20448,7 @@
         <v>9</v>
       </c>
       <c r="E257" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F257">
         <v>9959.4412049999992</v>
@@ -20512,7 +20512,7 @@
         <v>8</v>
       </c>
       <c r="E258" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F258">
         <v>3053.668807</v>
@@ -20577,7 +20577,7 @@
         <v>9</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F259" s="2">
         <v>16266</v>
@@ -20640,7 +20640,7 @@
         <v>9</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F260" s="2">
         <v>15242</v>
@@ -20704,7 +20704,7 @@
         <v>5</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2">
         <v>23614</v>
@@ -20768,7 +20768,7 @@
         <v>8</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F262" s="2">
         <v>11184</v>
@@ -20832,7 +20832,7 @@
         <v>4</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F263" s="2">
         <v>3420</v>
@@ -20896,7 +20896,7 @@
         <v>4</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F264" s="2">
         <v>3388</v>
@@ -20969,6 +20969,11 @@
     <sortCondition ref="E122:E258"/>
   </sortState>
   <mergeCells count="16">
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="W1:AM1"/>
+    <mergeCell ref="W97:AM97"/>
+    <mergeCell ref="W211:AM211"/>
+    <mergeCell ref="W212:AM212"/>
     <mergeCell ref="W233:AM233"/>
     <mergeCell ref="W115:AM115"/>
     <mergeCell ref="W119:AM119"/>
@@ -20980,23 +20985,20 @@
     <mergeCell ref="W217:AM217"/>
     <mergeCell ref="W215:AM215"/>
     <mergeCell ref="W218:AM218"/>
-    <mergeCell ref="W2:AM2"/>
-    <mergeCell ref="W1:AM1"/>
-    <mergeCell ref="W97:AM97"/>
-    <mergeCell ref="W211:AM211"/>
-    <mergeCell ref="W212:AM212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21195,20 +21197,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21233,12 +21236,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4642B9-556C-40F2-9697-5CEAD47C2364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411C3AD-035A-43C6-84CD-1A673320C2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,6 +728,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -736,9 +739,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1098,9 +1098,9 @@
   <dimension ref="A1:AM264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,25 +1194,25 @@
       <c r="V1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
     </row>
     <row r="2" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -1285,25 +1285,25 @@
       <c r="V2" s="11">
         <v>36413.822916666664</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -8362,25 +8362,25 @@
       <c r="V97" s="11">
         <v>43688.85</v>
       </c>
-      <c r="W97" s="32" t="s">
+      <c r="W97" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="X97" s="32"/>
-      <c r="Y97" s="32"/>
-      <c r="Z97" s="32"/>
-      <c r="AA97" s="32"/>
-      <c r="AB97" s="32"/>
-      <c r="AC97" s="32"/>
-      <c r="AD97" s="32"/>
-      <c r="AE97" s="32"/>
-      <c r="AF97" s="32"/>
-      <c r="AG97" s="32"/>
-      <c r="AH97" s="32"/>
-      <c r="AI97" s="32"/>
-      <c r="AJ97" s="32"/>
-      <c r="AK97" s="32"/>
-      <c r="AL97" s="32"/>
-      <c r="AM97" s="32"/>
+      <c r="X97" s="33"/>
+      <c r="Y97" s="33"/>
+      <c r="Z97" s="33"/>
+      <c r="AA97" s="33"/>
+      <c r="AB97" s="33"/>
+      <c r="AC97" s="33"/>
+      <c r="AD97" s="33"/>
+      <c r="AE97" s="33"/>
+      <c r="AF97" s="33"/>
+      <c r="AG97" s="33"/>
+      <c r="AH97" s="33"/>
+      <c r="AI97" s="33"/>
+      <c r="AJ97" s="33"/>
+      <c r="AK97" s="33"/>
+      <c r="AL97" s="33"/>
+      <c r="AM97" s="33"/>
     </row>
     <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
@@ -9714,25 +9714,25 @@
       <c r="V115" s="22">
         <v>44502.748611111114</v>
       </c>
-      <c r="W115" s="32" t="s">
+      <c r="W115" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="X115" s="32"/>
-      <c r="Y115" s="32"/>
-      <c r="Z115" s="32"/>
-      <c r="AA115" s="32"/>
-      <c r="AB115" s="32"/>
-      <c r="AC115" s="32"/>
-      <c r="AD115" s="32"/>
-      <c r="AE115" s="32"/>
-      <c r="AF115" s="32"/>
-      <c r="AG115" s="32"/>
-      <c r="AH115" s="32"/>
-      <c r="AI115" s="32"/>
-      <c r="AJ115" s="32"/>
-      <c r="AK115" s="32"/>
-      <c r="AL115" s="32"/>
-      <c r="AM115" s="32"/>
+      <c r="X115" s="33"/>
+      <c r="Y115" s="33"/>
+      <c r="Z115" s="33"/>
+      <c r="AA115" s="33"/>
+      <c r="AB115" s="33"/>
+      <c r="AC115" s="33"/>
+      <c r="AD115" s="33"/>
+      <c r="AE115" s="33"/>
+      <c r="AF115" s="33"/>
+      <c r="AG115" s="33"/>
+      <c r="AH115" s="33"/>
+      <c r="AI115" s="33"/>
+      <c r="AJ115" s="33"/>
+      <c r="AK115" s="33"/>
+      <c r="AL115" s="33"/>
+      <c r="AM115" s="33"/>
     </row>
     <row r="116" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -10009,25 +10009,25 @@
       <c r="V119" s="11">
         <v>44829.793749999997</v>
       </c>
-      <c r="W119" s="32" t="s">
+      <c r="W119" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="X119" s="32"/>
-      <c r="Y119" s="32"/>
-      <c r="Z119" s="32"/>
-      <c r="AA119" s="32"/>
-      <c r="AB119" s="32"/>
-      <c r="AC119" s="32"/>
-      <c r="AD119" s="32"/>
-      <c r="AE119" s="32"/>
-      <c r="AF119" s="32"/>
-      <c r="AG119" s="32"/>
-      <c r="AH119" s="32"/>
-      <c r="AI119" s="32"/>
-      <c r="AJ119" s="32"/>
-      <c r="AK119" s="32"/>
-      <c r="AL119" s="32"/>
-      <c r="AM119" s="32"/>
+      <c r="X119" s="33"/>
+      <c r="Y119" s="33"/>
+      <c r="Z119" s="33"/>
+      <c r="AA119" s="33"/>
+      <c r="AB119" s="33"/>
+      <c r="AC119" s="33"/>
+      <c r="AD119" s="33"/>
+      <c r="AE119" s="33"/>
+      <c r="AF119" s="33"/>
+      <c r="AG119" s="33"/>
+      <c r="AH119" s="33"/>
+      <c r="AI119" s="33"/>
+      <c r="AJ119" s="33"/>
+      <c r="AK119" s="33"/>
+      <c r="AL119" s="33"/>
+      <c r="AM119" s="33"/>
     </row>
     <row r="120" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -10097,25 +10097,25 @@
       <c r="V120" s="11">
         <v>44844.774305555555</v>
       </c>
-      <c r="W120" s="32" t="s">
+      <c r="W120" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X120" s="32"/>
-      <c r="Y120" s="32"/>
-      <c r="Z120" s="32"/>
-      <c r="AA120" s="32"/>
-      <c r="AB120" s="32"/>
-      <c r="AC120" s="32"/>
-      <c r="AD120" s="32"/>
-      <c r="AE120" s="32"/>
-      <c r="AF120" s="32"/>
-      <c r="AG120" s="32"/>
-      <c r="AH120" s="32"/>
-      <c r="AI120" s="32"/>
-      <c r="AJ120" s="32"/>
-      <c r="AK120" s="32"/>
-      <c r="AL120" s="32"/>
-      <c r="AM120" s="32"/>
+      <c r="X120" s="33"/>
+      <c r="Y120" s="33"/>
+      <c r="Z120" s="33"/>
+      <c r="AA120" s="33"/>
+      <c r="AB120" s="33"/>
+      <c r="AC120" s="33"/>
+      <c r="AD120" s="33"/>
+      <c r="AE120" s="33"/>
+      <c r="AF120" s="33"/>
+      <c r="AG120" s="33"/>
+      <c r="AH120" s="33"/>
+      <c r="AI120" s="33"/>
+      <c r="AJ120" s="33"/>
+      <c r="AK120" s="33"/>
+      <c r="AL120" s="33"/>
+      <c r="AM120" s="33"/>
     </row>
     <row r="121" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -10185,25 +10185,25 @@
       <c r="V121" s="11">
         <v>44857.759027777778</v>
       </c>
-      <c r="W121" s="32" t="s">
+      <c r="W121" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="X121" s="32"/>
-      <c r="Y121" s="32"/>
-      <c r="Z121" s="32"/>
-      <c r="AA121" s="32"/>
-      <c r="AB121" s="32"/>
-      <c r="AC121" s="32"/>
-      <c r="AD121" s="32"/>
-      <c r="AE121" s="32"/>
-      <c r="AF121" s="32"/>
-      <c r="AG121" s="32"/>
-      <c r="AH121" s="32"/>
-      <c r="AI121" s="32"/>
-      <c r="AJ121" s="32"/>
-      <c r="AK121" s="32"/>
-      <c r="AL121" s="32"/>
-      <c r="AM121" s="32"/>
+      <c r="X121" s="33"/>
+      <c r="Y121" s="33"/>
+      <c r="Z121" s="33"/>
+      <c r="AA121" s="33"/>
+      <c r="AB121" s="33"/>
+      <c r="AC121" s="33"/>
+      <c r="AD121" s="33"/>
+      <c r="AE121" s="33"/>
+      <c r="AF121" s="33"/>
+      <c r="AG121" s="33"/>
+      <c r="AH121" s="33"/>
+      <c r="AI121" s="33"/>
+      <c r="AJ121" s="33"/>
+      <c r="AK121" s="33"/>
+      <c r="AL121" s="33"/>
+      <c r="AM121" s="33"/>
     </row>
     <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -16949,25 +16949,25 @@
       <c r="V211" s="11">
         <v>43624.874305555553</v>
       </c>
-      <c r="W211" s="33" t="s">
+      <c r="W211" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="X211" s="33"/>
-      <c r="Y211" s="33"/>
-      <c r="Z211" s="33"/>
-      <c r="AA211" s="33"/>
-      <c r="AB211" s="33"/>
-      <c r="AC211" s="33"/>
-      <c r="AD211" s="33"/>
-      <c r="AE211" s="33"/>
-      <c r="AF211" s="33"/>
-      <c r="AG211" s="33"/>
-      <c r="AH211" s="33"/>
-      <c r="AI211" s="33"/>
-      <c r="AJ211" s="33"/>
-      <c r="AK211" s="33"/>
-      <c r="AL211" s="33"/>
-      <c r="AM211" s="33"/>
+      <c r="X211" s="34"/>
+      <c r="Y211" s="34"/>
+      <c r="Z211" s="34"/>
+      <c r="AA211" s="34"/>
+      <c r="AB211" s="34"/>
+      <c r="AC211" s="34"/>
+      <c r="AD211" s="34"/>
+      <c r="AE211" s="34"/>
+      <c r="AF211" s="34"/>
+      <c r="AG211" s="34"/>
+      <c r="AH211" s="34"/>
+      <c r="AI211" s="34"/>
+      <c r="AJ211" s="34"/>
+      <c r="AK211" s="34"/>
+      <c r="AL211" s="34"/>
+      <c r="AM211" s="34"/>
     </row>
     <row r="212" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
@@ -17043,25 +17043,25 @@
       <c r="V212" s="11">
         <v>43638.87777777778</v>
       </c>
-      <c r="W212" s="33">
+      <c r="W212" s="34">
         <v>37459</v>
       </c>
-      <c r="X212" s="33"/>
-      <c r="Y212" s="33"/>
-      <c r="Z212" s="33"/>
-      <c r="AA212" s="33"/>
-      <c r="AB212" s="33"/>
-      <c r="AC212" s="33"/>
-      <c r="AD212" s="33"/>
-      <c r="AE212" s="33"/>
-      <c r="AF212" s="33"/>
-      <c r="AG212" s="33"/>
-      <c r="AH212" s="33"/>
-      <c r="AI212" s="33"/>
-      <c r="AJ212" s="33"/>
-      <c r="AK212" s="33"/>
-      <c r="AL212" s="33"/>
-      <c r="AM212" s="33"/>
+      <c r="X212" s="34"/>
+      <c r="Y212" s="34"/>
+      <c r="Z212" s="34"/>
+      <c r="AA212" s="34"/>
+      <c r="AB212" s="34"/>
+      <c r="AC212" s="34"/>
+      <c r="AD212" s="34"/>
+      <c r="AE212" s="34"/>
+      <c r="AF212" s="34"/>
+      <c r="AG212" s="34"/>
+      <c r="AH212" s="34"/>
+      <c r="AI212" s="34"/>
+      <c r="AJ212" s="34"/>
+      <c r="AK212" s="34"/>
+      <c r="AL212" s="34"/>
+      <c r="AM212" s="34"/>
     </row>
     <row r="213" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
@@ -17137,25 +17137,25 @@
       <c r="V213" s="11">
         <v>43652.877083333333</v>
       </c>
-      <c r="W213" s="33">
+      <c r="W213" s="34">
         <v>20940</v>
       </c>
-      <c r="X213" s="33"/>
-      <c r="Y213" s="33"/>
-      <c r="Z213" s="33"/>
-      <c r="AA213" s="33"/>
-      <c r="AB213" s="33"/>
-      <c r="AC213" s="33"/>
-      <c r="AD213" s="33"/>
-      <c r="AE213" s="33"/>
-      <c r="AF213" s="33"/>
-      <c r="AG213" s="33"/>
-      <c r="AH213" s="33"/>
-      <c r="AI213" s="33"/>
-      <c r="AJ213" s="33"/>
-      <c r="AK213" s="33"/>
-      <c r="AL213" s="33"/>
-      <c r="AM213" s="33"/>
+      <c r="X213" s="34"/>
+      <c r="Y213" s="34"/>
+      <c r="Z213" s="34"/>
+      <c r="AA213" s="34"/>
+      <c r="AB213" s="34"/>
+      <c r="AC213" s="34"/>
+      <c r="AD213" s="34"/>
+      <c r="AE213" s="34"/>
+      <c r="AF213" s="34"/>
+      <c r="AG213" s="34"/>
+      <c r="AH213" s="34"/>
+      <c r="AI213" s="34"/>
+      <c r="AJ213" s="34"/>
+      <c r="AK213" s="34"/>
+      <c r="AL213" s="34"/>
+      <c r="AM213" s="34"/>
     </row>
     <row r="214" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
@@ -17231,25 +17231,25 @@
       <c r="V214" s="11">
         <v>43666.870833333334</v>
       </c>
-      <c r="W214" s="33">
+      <c r="W214" s="34">
         <v>7713</v>
       </c>
-      <c r="X214" s="33"/>
-      <c r="Y214" s="33"/>
-      <c r="Z214" s="33"/>
-      <c r="AA214" s="33"/>
-      <c r="AB214" s="33"/>
-      <c r="AC214" s="33"/>
-      <c r="AD214" s="33"/>
-      <c r="AE214" s="33"/>
-      <c r="AF214" s="33"/>
-      <c r="AG214" s="33"/>
-      <c r="AH214" s="33"/>
-      <c r="AI214" s="33"/>
-      <c r="AJ214" s="33"/>
-      <c r="AK214" s="33"/>
-      <c r="AL214" s="33"/>
-      <c r="AM214" s="33"/>
+      <c r="X214" s="34"/>
+      <c r="Y214" s="34"/>
+      <c r="Z214" s="34"/>
+      <c r="AA214" s="34"/>
+      <c r="AB214" s="34"/>
+      <c r="AC214" s="34"/>
+      <c r="AD214" s="34"/>
+      <c r="AE214" s="34"/>
+      <c r="AF214" s="34"/>
+      <c r="AG214" s="34"/>
+      <c r="AH214" s="34"/>
+      <c r="AI214" s="34"/>
+      <c r="AJ214" s="34"/>
+      <c r="AK214" s="34"/>
+      <c r="AL214" s="34"/>
+      <c r="AM214" s="34"/>
     </row>
     <row r="215" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
@@ -17325,25 +17325,25 @@
       <c r="V215" s="11">
         <v>43681.859722222223</v>
       </c>
-      <c r="W215" s="33" t="s">
+      <c r="W215" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="X215" s="33"/>
-      <c r="Y215" s="33"/>
-      <c r="Z215" s="33"/>
-      <c r="AA215" s="33"/>
-      <c r="AB215" s="33"/>
-      <c r="AC215" s="33"/>
-      <c r="AD215" s="33"/>
-      <c r="AE215" s="33"/>
-      <c r="AF215" s="33"/>
-      <c r="AG215" s="33"/>
-      <c r="AH215" s="33"/>
-      <c r="AI215" s="33"/>
-      <c r="AJ215" s="33"/>
-      <c r="AK215" s="33"/>
-      <c r="AL215" s="33"/>
-      <c r="AM215" s="33"/>
+      <c r="X215" s="34"/>
+      <c r="Y215" s="34"/>
+      <c r="Z215" s="34"/>
+      <c r="AA215" s="34"/>
+      <c r="AB215" s="34"/>
+      <c r="AC215" s="34"/>
+      <c r="AD215" s="34"/>
+      <c r="AE215" s="34"/>
+      <c r="AF215" s="34"/>
+      <c r="AG215" s="34"/>
+      <c r="AH215" s="34"/>
+      <c r="AI215" s="34"/>
+      <c r="AJ215" s="34"/>
+      <c r="AK215" s="34"/>
+      <c r="AL215" s="34"/>
+      <c r="AM215" s="34"/>
     </row>
     <row r="216" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
@@ -17419,25 +17419,25 @@
       <c r="V216" s="11">
         <v>43695.845138888886</v>
       </c>
-      <c r="W216" s="33">
+      <c r="W216" s="34">
         <v>12319</v>
       </c>
-      <c r="X216" s="33"/>
-      <c r="Y216" s="33"/>
-      <c r="Z216" s="33"/>
-      <c r="AA216" s="33"/>
-      <c r="AB216" s="33"/>
-      <c r="AC216" s="33"/>
-      <c r="AD216" s="33"/>
-      <c r="AE216" s="33"/>
-      <c r="AF216" s="33"/>
-      <c r="AG216" s="33"/>
-      <c r="AH216" s="33"/>
-      <c r="AI216" s="33"/>
-      <c r="AJ216" s="33"/>
-      <c r="AK216" s="33"/>
-      <c r="AL216" s="33"/>
-      <c r="AM216" s="33"/>
+      <c r="X216" s="34"/>
+      <c r="Y216" s="34"/>
+      <c r="Z216" s="34"/>
+      <c r="AA216" s="34"/>
+      <c r="AB216" s="34"/>
+      <c r="AC216" s="34"/>
+      <c r="AD216" s="34"/>
+      <c r="AE216" s="34"/>
+      <c r="AF216" s="34"/>
+      <c r="AG216" s="34"/>
+      <c r="AH216" s="34"/>
+      <c r="AI216" s="34"/>
+      <c r="AJ216" s="34"/>
+      <c r="AK216" s="34"/>
+      <c r="AL216" s="34"/>
+      <c r="AM216" s="34"/>
     </row>
     <row r="217" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
@@ -17513,25 +17513,25 @@
       <c r="V217" s="11">
         <v>43709.828472222223</v>
       </c>
-      <c r="W217" s="33">
+      <c r="W217" s="34">
         <v>12000</v>
       </c>
-      <c r="X217" s="33"/>
-      <c r="Y217" s="33"/>
-      <c r="Z217" s="33"/>
-      <c r="AA217" s="33"/>
-      <c r="AB217" s="33"/>
-      <c r="AC217" s="33"/>
-      <c r="AD217" s="33"/>
-      <c r="AE217" s="33"/>
-      <c r="AF217" s="33"/>
-      <c r="AG217" s="33"/>
-      <c r="AH217" s="33"/>
-      <c r="AI217" s="33"/>
-      <c r="AJ217" s="33"/>
-      <c r="AK217" s="33"/>
-      <c r="AL217" s="33"/>
-      <c r="AM217" s="33"/>
+      <c r="X217" s="34"/>
+      <c r="Y217" s="34"/>
+      <c r="Z217" s="34"/>
+      <c r="AA217" s="34"/>
+      <c r="AB217" s="34"/>
+      <c r="AC217" s="34"/>
+      <c r="AD217" s="34"/>
+      <c r="AE217" s="34"/>
+      <c r="AF217" s="34"/>
+      <c r="AG217" s="34"/>
+      <c r="AH217" s="34"/>
+      <c r="AI217" s="34"/>
+      <c r="AJ217" s="34"/>
+      <c r="AK217" s="34"/>
+      <c r="AL217" s="34"/>
+      <c r="AM217" s="34"/>
     </row>
     <row r="218" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
@@ -17607,25 +17607,25 @@
       <c r="V218" s="11">
         <v>43723.810416666667</v>
       </c>
-      <c r="W218" s="33">
+      <c r="W218" s="34">
         <v>8077</v>
       </c>
-      <c r="X218" s="33"/>
-      <c r="Y218" s="33"/>
-      <c r="Z218" s="33"/>
-      <c r="AA218" s="33"/>
-      <c r="AB218" s="33"/>
-      <c r="AC218" s="33"/>
-      <c r="AD218" s="33"/>
-      <c r="AE218" s="33"/>
-      <c r="AF218" s="33"/>
-      <c r="AG218" s="33"/>
-      <c r="AH218" s="33"/>
-      <c r="AI218" s="33"/>
-      <c r="AJ218" s="33"/>
-      <c r="AK218" s="33"/>
-      <c r="AL218" s="33"/>
-      <c r="AM218" s="33"/>
+      <c r="X218" s="34"/>
+      <c r="Y218" s="34"/>
+      <c r="Z218" s="34"/>
+      <c r="AA218" s="34"/>
+      <c r="AB218" s="34"/>
+      <c r="AC218" s="34"/>
+      <c r="AD218" s="34"/>
+      <c r="AE218" s="34"/>
+      <c r="AF218" s="34"/>
+      <c r="AG218" s="34"/>
+      <c r="AH218" s="34"/>
+      <c r="AI218" s="34"/>
+      <c r="AJ218" s="34"/>
+      <c r="AK218" s="34"/>
+      <c r="AL218" s="34"/>
+      <c r="AM218" s="34"/>
     </row>
     <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
@@ -18748,25 +18748,25 @@
       <c r="V233" s="11">
         <v>44410.85833333333</v>
       </c>
-      <c r="W233" s="31" t="s">
+      <c r="W233" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="X233" s="31"/>
-      <c r="Y233" s="31"/>
-      <c r="Z233" s="31"/>
-      <c r="AA233" s="31"/>
-      <c r="AB233" s="31"/>
-      <c r="AC233" s="31"/>
-      <c r="AD233" s="31"/>
-      <c r="AE233" s="31"/>
-      <c r="AF233" s="31"/>
-      <c r="AG233" s="31"/>
-      <c r="AH233" s="31"/>
-      <c r="AI233" s="31"/>
-      <c r="AJ233" s="31"/>
-      <c r="AK233" s="31"/>
-      <c r="AL233" s="31"/>
-      <c r="AM233" s="31"/>
+      <c r="X233" s="32"/>
+      <c r="Y233" s="32"/>
+      <c r="Z233" s="32"/>
+      <c r="AA233" s="32"/>
+      <c r="AB233" s="32"/>
+      <c r="AC233" s="32"/>
+      <c r="AD233" s="32"/>
+      <c r="AE233" s="32"/>
+      <c r="AF233" s="32"/>
+      <c r="AG233" s="32"/>
+      <c r="AH233" s="32"/>
+      <c r="AI233" s="32"/>
+      <c r="AJ233" s="32"/>
+      <c r="AK233" s="32"/>
+      <c r="AL233" s="32"/>
+      <c r="AM233" s="32"/>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
@@ -20969,11 +20969,6 @@
     <sortCondition ref="E122:E258"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="W2:AM2"/>
-    <mergeCell ref="W1:AM1"/>
-    <mergeCell ref="W97:AM97"/>
-    <mergeCell ref="W211:AM211"/>
-    <mergeCell ref="W212:AM212"/>
     <mergeCell ref="W233:AM233"/>
     <mergeCell ref="W115:AM115"/>
     <mergeCell ref="W119:AM119"/>
@@ -20985,20 +20980,23 @@
     <mergeCell ref="W217:AM217"/>
     <mergeCell ref="W215:AM215"/>
     <mergeCell ref="W218:AM218"/>
+    <mergeCell ref="W2:AM2"/>
+    <mergeCell ref="W1:AM1"/>
+    <mergeCell ref="W97:AM97"/>
+    <mergeCell ref="W211:AM211"/>
+    <mergeCell ref="W212:AM212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21197,21 +21195,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21236,9 +21233,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60413B0-F485-4B5F-BF57-795A0312CDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E9B9E9-5DCF-4FEC-A216-F3A3E2895EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>-' is before survey, '+' is after survey</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>Biomass density broken up into density per transect in DFO report.</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>Missing HSC biomass details. Biomass density broken up into density per transect in DFO report.</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -704,6 +704,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,27 +719,6 @@
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1091,10 +1076,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="S248" sqref="S248"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1108,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>29</v>
@@ -1191,25 +1176,25 @@
       <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1285,25 +1270,25 @@
       <c r="W2" s="11">
         <v>36413.822916666664</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26"/>
-      <c r="AN2" s="26"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8746,25 +8731,25 @@
       <c r="W97" s="11">
         <v>43688.85</v>
       </c>
-      <c r="X97" s="23" t="s">
+      <c r="X97" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="Y97" s="23"/>
-      <c r="Z97" s="23"/>
-      <c r="AA97" s="23"/>
-      <c r="AB97" s="23"/>
-      <c r="AC97" s="23"/>
-      <c r="AD97" s="23"/>
-      <c r="AE97" s="23"/>
-      <c r="AF97" s="23"/>
-      <c r="AG97" s="23"/>
-      <c r="AH97" s="23"/>
-      <c r="AI97" s="23"/>
-      <c r="AJ97" s="23"/>
-      <c r="AK97" s="23"/>
-      <c r="AL97" s="23"/>
-      <c r="AM97" s="23"/>
-      <c r="AN97" s="23"/>
+      <c r="Y97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="25"/>
+      <c r="AB97" s="25"/>
+      <c r="AC97" s="25"/>
+      <c r="AD97" s="25"/>
+      <c r="AE97" s="25"/>
+      <c r="AF97" s="25"/>
+      <c r="AG97" s="25"/>
+      <c r="AH97" s="25"/>
+      <c r="AI97" s="25"/>
+      <c r="AJ97" s="25"/>
+      <c r="AK97" s="25"/>
+      <c r="AL97" s="25"/>
+      <c r="AM97" s="25"/>
+      <c r="AN97" s="25"/>
     </row>
     <row r="98" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -9790,7 +9775,7 @@
         <v>44431.836111111108</v>
       </c>
       <c r="X110" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -9869,7 +9854,7 @@
         <v>44444.820138888892</v>
       </c>
       <c r="X111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -9948,7 +9933,7 @@
         <v>44459.8</v>
       </c>
       <c r="X112" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -10027,7 +10012,7 @@
         <v>44472.783333333333</v>
       </c>
       <c r="X113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -10035,192 +10020,158 @@
         <f t="shared" si="20"/>
         <v>113</v>
       </c>
-      <c r="B114" s="27">
+      <c r="B114" s="1">
         <v>44487</v>
       </c>
-      <c r="C114" s="28">
+      <c r="C114">
         <v>5</v>
       </c>
-      <c r="D114" s="29">
+      <c r="D114" s="2">
         <v>2021</v>
       </c>
-      <c r="E114" s="29">
+      <c r="E114" s="2">
         <v>9</v>
       </c>
-      <c r="F114" s="29" t="s">
+      <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G114" s="28">
+      <c r="G114">
         <v>3113</v>
       </c>
-      <c r="H114" s="28">
+      <c r="H114">
         <v>0</v>
       </c>
-      <c r="I114" s="30">
+      <c r="I114" s="10">
         <v>4208</v>
       </c>
-      <c r="J114" s="28">
+      <c r="J114">
         <v>223</v>
       </c>
-      <c r="K114" s="31">
+      <c r="K114" s="4">
         <f t="shared" si="21"/>
         <v>0.8125</v>
       </c>
-      <c r="L114" s="31">
+      <c r="L114" s="4">
         <f>V114-INT(V114)</f>
         <v>0.89027777777664596</v>
       </c>
-      <c r="M114" s="32">
+      <c r="M114" s="12">
         <f t="shared" si="24"/>
         <v>7.7777777776645962E-2</v>
       </c>
-      <c r="N114" s="33">
+      <c r="N114" s="7">
         <f t="shared" si="16"/>
         <v>1.8666666666395031</v>
       </c>
-      <c r="O114" s="29">
+      <c r="O114" s="2">
         <v>291</v>
       </c>
-      <c r="P114" s="31">
+      <c r="P114" s="4">
         <f t="shared" si="23"/>
         <v>0.77430555555474712</v>
       </c>
-      <c r="Q114" s="32">
+      <c r="Q114" s="12">
         <f t="shared" si="18"/>
         <v>1.0381944444452529</v>
       </c>
-      <c r="R114" s="33">
+      <c r="R114" s="7">
         <f t="shared" si="19"/>
         <v>-0.91666666668606922</v>
       </c>
-      <c r="S114" s="29">
+      <c r="S114" s="2">
         <v>797</v>
       </c>
-      <c r="T114" s="29"/>
-      <c r="U114" s="34">
+      <c r="U114" s="11">
         <v>44487.8125</v>
       </c>
-      <c r="V114" s="34">
+      <c r="V114" s="11">
         <v>44487.890277777777</v>
       </c>
-      <c r="W114" s="34">
+      <c r="W114" s="11">
         <v>44487.774305555555</v>
       </c>
       <c r="X114" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y114" s="28"/>
-      <c r="Z114" s="28"/>
-      <c r="AA114" s="28"/>
-      <c r="AB114" s="28"/>
-      <c r="AC114" s="28"/>
-      <c r="AD114" s="28"/>
-      <c r="AE114" s="28"/>
-      <c r="AF114" s="28"/>
-      <c r="AG114" s="28"/>
-      <c r="AH114" s="28"/>
-      <c r="AI114" s="28"/>
-      <c r="AJ114" s="28"/>
-      <c r="AK114" s="28"/>
-      <c r="AL114" s="28"/>
-      <c r="AM114" s="28"/>
-      <c r="AN114" s="28"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="115" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
-      <c r="B115" s="27">
+      <c r="B115" s="1">
         <v>44502</v>
       </c>
-      <c r="C115" s="28">
+      <c r="C115">
         <v>6</v>
       </c>
-      <c r="D115" s="29">
+      <c r="D115" s="2">
         <v>2021</v>
       </c>
-      <c r="E115" s="29">
+      <c r="E115" s="2">
         <v>8</v>
       </c>
-      <c r="F115" s="29" t="s">
+      <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G115" s="28">
+      <c r="G115">
         <v>12320</v>
       </c>
-      <c r="H115" s="28">
+      <c r="H115">
         <v>11197</v>
       </c>
-      <c r="I115" s="30">
+      <c r="I115" s="10">
         <v>11508</v>
       </c>
-      <c r="J115" s="28">
+      <c r="J115">
         <v>10661</v>
       </c>
-      <c r="K115" s="31">
+      <c r="K115" s="4">
         <f t="shared" si="21"/>
         <v>0.79166666666424135</v>
       </c>
-      <c r="L115" s="31">
+      <c r="L115" s="4">
         <f t="shared" si="22"/>
         <v>0.85347222222480923</v>
       </c>
-      <c r="M115" s="32">
+      <c r="M115" s="12">
         <f t="shared" si="24"/>
         <v>6.1805555560567882E-2</v>
       </c>
-      <c r="N115" s="33">
+      <c r="N115" s="7">
         <f t="shared" si="16"/>
         <v>1.4833333334536292</v>
       </c>
-      <c r="O115" s="29">
+      <c r="O115" s="2">
         <v>306</v>
       </c>
-      <c r="P115" s="31">
+      <c r="P115" s="4">
         <f t="shared" si="23"/>
         <v>0.74861111111385981</v>
       </c>
-      <c r="Q115" s="32">
+      <c r="Q115" s="12">
         <f t="shared" si="18"/>
         <v>1.0430555555503815</v>
       </c>
-      <c r="R115" s="33">
+      <c r="R115" s="7">
         <f t="shared" si="19"/>
         <v>-1.033333333209157</v>
       </c>
-      <c r="S115" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="T115" s="29"/>
-      <c r="U115" s="34">
+      <c r="S115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U115" s="11">
         <v>44502.791666666664</v>
       </c>
-      <c r="V115" s="34">
+      <c r="V115" s="11">
         <v>44502.853472222225</v>
       </c>
-      <c r="W115" s="34">
+      <c r="W115" s="11">
         <v>44502.748611111114</v>
       </c>
       <c r="X115" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y115" s="35"/>
-      <c r="Z115" s="35"/>
-      <c r="AA115" s="35"/>
-      <c r="AB115" s="35"/>
-      <c r="AC115" s="35"/>
-      <c r="AD115" s="35"/>
-      <c r="AE115" s="35"/>
-      <c r="AF115" s="35"/>
-      <c r="AG115" s="35"/>
-      <c r="AH115" s="35"/>
-      <c r="AI115" s="35"/>
-      <c r="AJ115" s="35"/>
-      <c r="AK115" s="35"/>
-      <c r="AL115" s="35"/>
-      <c r="AM115" s="35"/>
-      <c r="AN115" s="35"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="116" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -10298,7 +10249,7 @@
         <v>44787.84652777778</v>
       </c>
       <c r="X116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="117" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -10377,7 +10328,7 @@
         <v>44801.830555555556</v>
       </c>
       <c r="X117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="118" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -10456,7 +10407,7 @@
         <v>44815.8125</v>
       </c>
       <c r="X118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="119" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
@@ -10534,25 +10485,25 @@
       <c r="W119" s="11">
         <v>44829.793749999997</v>
       </c>
-      <c r="X119" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y119" s="23"/>
-      <c r="Z119" s="23"/>
-      <c r="AA119" s="23"/>
-      <c r="AB119" s="23"/>
-      <c r="AC119" s="23"/>
-      <c r="AD119" s="23"/>
-      <c r="AE119" s="23"/>
-      <c r="AF119" s="23"/>
-      <c r="AG119" s="23"/>
-      <c r="AH119" s="23"/>
-      <c r="AI119" s="23"/>
-      <c r="AJ119" s="23"/>
-      <c r="AK119" s="23"/>
-      <c r="AL119" s="23"/>
-      <c r="AM119" s="23"/>
-      <c r="AN119" s="23"/>
+      <c r="X119" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y119" s="25"/>
+      <c r="Z119" s="25"/>
+      <c r="AA119" s="25"/>
+      <c r="AB119" s="25"/>
+      <c r="AC119" s="25"/>
+      <c r="AD119" s="25"/>
+      <c r="AE119" s="25"/>
+      <c r="AF119" s="25"/>
+      <c r="AG119" s="25"/>
+      <c r="AH119" s="25"/>
+      <c r="AI119" s="25"/>
+      <c r="AJ119" s="25"/>
+      <c r="AK119" s="25"/>
+      <c r="AL119" s="25"/>
+      <c r="AM119" s="25"/>
+      <c r="AN119" s="25"/>
     </row>
     <row r="120" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -10629,25 +10580,25 @@
       <c r="W120" s="11">
         <v>44844.774305555555</v>
       </c>
-      <c r="X120" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y120" s="23"/>
-      <c r="Z120" s="23"/>
-      <c r="AA120" s="23"/>
-      <c r="AB120" s="23"/>
-      <c r="AC120" s="23"/>
-      <c r="AD120" s="23"/>
-      <c r="AE120" s="23"/>
-      <c r="AF120" s="23"/>
-      <c r="AG120" s="23"/>
-      <c r="AH120" s="23"/>
-      <c r="AI120" s="23"/>
-      <c r="AJ120" s="23"/>
-      <c r="AK120" s="23"/>
-      <c r="AL120" s="23"/>
-      <c r="AM120" s="23"/>
-      <c r="AN120" s="23"/>
+      <c r="X120" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y120" s="25"/>
+      <c r="Z120" s="25"/>
+      <c r="AA120" s="25"/>
+      <c r="AB120" s="25"/>
+      <c r="AC120" s="25"/>
+      <c r="AD120" s="25"/>
+      <c r="AE120" s="25"/>
+      <c r="AF120" s="25"/>
+      <c r="AG120" s="25"/>
+      <c r="AH120" s="25"/>
+      <c r="AI120" s="25"/>
+      <c r="AJ120" s="25"/>
+      <c r="AK120" s="25"/>
+      <c r="AL120" s="25"/>
+      <c r="AM120" s="25"/>
+      <c r="AN120" s="25"/>
     </row>
     <row r="121" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -10724,25 +10675,25 @@
       <c r="W121" s="11">
         <v>44857.759027777778</v>
       </c>
-      <c r="X121" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y121" s="23"/>
-      <c r="Z121" s="23"/>
-      <c r="AA121" s="23"/>
-      <c r="AB121" s="23"/>
-      <c r="AC121" s="23"/>
-      <c r="AD121" s="23"/>
-      <c r="AE121" s="23"/>
-      <c r="AF121" s="23"/>
-      <c r="AG121" s="23"/>
-      <c r="AH121" s="23"/>
-      <c r="AI121" s="23"/>
-      <c r="AJ121" s="23"/>
-      <c r="AK121" s="23"/>
-      <c r="AL121" s="23"/>
-      <c r="AM121" s="23"/>
-      <c r="AN121" s="23"/>
+      <c r="X121" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y121" s="25"/>
+      <c r="Z121" s="25"/>
+      <c r="AA121" s="25"/>
+      <c r="AB121" s="25"/>
+      <c r="AC121" s="25"/>
+      <c r="AD121" s="25"/>
+      <c r="AE121" s="25"/>
+      <c r="AF121" s="25"/>
+      <c r="AG121" s="25"/>
+      <c r="AH121" s="25"/>
+      <c r="AI121" s="25"/>
+      <c r="AJ121" s="25"/>
+      <c r="AK121" s="25"/>
+      <c r="AL121" s="25"/>
+      <c r="AM121" s="25"/>
+      <c r="AN121" s="25"/>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -17851,25 +17802,25 @@
       <c r="W211" s="11">
         <v>43624.874305555553</v>
       </c>
-      <c r="X211" s="24" t="s">
+      <c r="X211" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Y211" s="24"/>
-      <c r="Z211" s="24"/>
-      <c r="AA211" s="24"/>
-      <c r="AB211" s="24"/>
-      <c r="AC211" s="24"/>
-      <c r="AD211" s="24"/>
-      <c r="AE211" s="24"/>
-      <c r="AF211" s="24"/>
-      <c r="AG211" s="24"/>
-      <c r="AH211" s="24"/>
-      <c r="AI211" s="24"/>
-      <c r="AJ211" s="24"/>
-      <c r="AK211" s="24"/>
-      <c r="AL211" s="24"/>
-      <c r="AM211" s="24"/>
-      <c r="AN211" s="24"/>
+      <c r="Y211" s="26"/>
+      <c r="Z211" s="26"/>
+      <c r="AA211" s="26"/>
+      <c r="AB211" s="26"/>
+      <c r="AC211" s="26"/>
+      <c r="AD211" s="26"/>
+      <c r="AE211" s="26"/>
+      <c r="AF211" s="26"/>
+      <c r="AG211" s="26"/>
+      <c r="AH211" s="26"/>
+      <c r="AI211" s="26"/>
+      <c r="AJ211" s="26"/>
+      <c r="AK211" s="26"/>
+      <c r="AL211" s="26"/>
+      <c r="AM211" s="26"/>
+      <c r="AN211" s="26"/>
     </row>
     <row r="212" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -17949,25 +17900,25 @@
       <c r="W212" s="11">
         <v>43638.87777777778</v>
       </c>
-      <c r="X212" s="24">
+      <c r="X212" s="26">
         <v>37459</v>
       </c>
-      <c r="Y212" s="24"/>
-      <c r="Z212" s="24"/>
-      <c r="AA212" s="24"/>
-      <c r="AB212" s="24"/>
-      <c r="AC212" s="24"/>
-      <c r="AD212" s="24"/>
-      <c r="AE212" s="24"/>
-      <c r="AF212" s="24"/>
-      <c r="AG212" s="24"/>
-      <c r="AH212" s="24"/>
-      <c r="AI212" s="24"/>
-      <c r="AJ212" s="24"/>
-      <c r="AK212" s="24"/>
-      <c r="AL212" s="24"/>
-      <c r="AM212" s="24"/>
-      <c r="AN212" s="24"/>
+      <c r="Y212" s="26"/>
+      <c r="Z212" s="26"/>
+      <c r="AA212" s="26"/>
+      <c r="AB212" s="26"/>
+      <c r="AC212" s="26"/>
+      <c r="AD212" s="26"/>
+      <c r="AE212" s="26"/>
+      <c r="AF212" s="26"/>
+      <c r="AG212" s="26"/>
+      <c r="AH212" s="26"/>
+      <c r="AI212" s="26"/>
+      <c r="AJ212" s="26"/>
+      <c r="AK212" s="26"/>
+      <c r="AL212" s="26"/>
+      <c r="AM212" s="26"/>
+      <c r="AN212" s="26"/>
     </row>
     <row r="213" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -18047,25 +17998,25 @@
       <c r="W213" s="11">
         <v>43652.877083333333</v>
       </c>
-      <c r="X213" s="24">
+      <c r="X213" s="26">
         <v>20940</v>
       </c>
-      <c r="Y213" s="24"/>
-      <c r="Z213" s="24"/>
-      <c r="AA213" s="24"/>
-      <c r="AB213" s="24"/>
-      <c r="AC213" s="24"/>
-      <c r="AD213" s="24"/>
-      <c r="AE213" s="24"/>
-      <c r="AF213" s="24"/>
-      <c r="AG213" s="24"/>
-      <c r="AH213" s="24"/>
-      <c r="AI213" s="24"/>
-      <c r="AJ213" s="24"/>
-      <c r="AK213" s="24"/>
-      <c r="AL213" s="24"/>
-      <c r="AM213" s="24"/>
-      <c r="AN213" s="24"/>
+      <c r="Y213" s="26"/>
+      <c r="Z213" s="26"/>
+      <c r="AA213" s="26"/>
+      <c r="AB213" s="26"/>
+      <c r="AC213" s="26"/>
+      <c r="AD213" s="26"/>
+      <c r="AE213" s="26"/>
+      <c r="AF213" s="26"/>
+      <c r="AG213" s="26"/>
+      <c r="AH213" s="26"/>
+      <c r="AI213" s="26"/>
+      <c r="AJ213" s="26"/>
+      <c r="AK213" s="26"/>
+      <c r="AL213" s="26"/>
+      <c r="AM213" s="26"/>
+      <c r="AN213" s="26"/>
     </row>
     <row r="214" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -18145,25 +18096,25 @@
       <c r="W214" s="11">
         <v>43666.870833333334</v>
       </c>
-      <c r="X214" s="24">
+      <c r="X214" s="26">
         <v>7713</v>
       </c>
-      <c r="Y214" s="24"/>
-      <c r="Z214" s="24"/>
-      <c r="AA214" s="24"/>
-      <c r="AB214" s="24"/>
-      <c r="AC214" s="24"/>
-      <c r="AD214" s="24"/>
-      <c r="AE214" s="24"/>
-      <c r="AF214" s="24"/>
-      <c r="AG214" s="24"/>
-      <c r="AH214" s="24"/>
-      <c r="AI214" s="24"/>
-      <c r="AJ214" s="24"/>
-      <c r="AK214" s="24"/>
-      <c r="AL214" s="24"/>
-      <c r="AM214" s="24"/>
-      <c r="AN214" s="24"/>
+      <c r="Y214" s="26"/>
+      <c r="Z214" s="26"/>
+      <c r="AA214" s="26"/>
+      <c r="AB214" s="26"/>
+      <c r="AC214" s="26"/>
+      <c r="AD214" s="26"/>
+      <c r="AE214" s="26"/>
+      <c r="AF214" s="26"/>
+      <c r="AG214" s="26"/>
+      <c r="AH214" s="26"/>
+      <c r="AI214" s="26"/>
+      <c r="AJ214" s="26"/>
+      <c r="AK214" s="26"/>
+      <c r="AL214" s="26"/>
+      <c r="AM214" s="26"/>
+      <c r="AN214" s="26"/>
     </row>
     <row r="215" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -18243,25 +18194,25 @@
       <c r="W215" s="11">
         <v>43681.859722222223</v>
       </c>
-      <c r="X215" s="24" t="s">
+      <c r="X215" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="Y215" s="24"/>
-      <c r="Z215" s="24"/>
-      <c r="AA215" s="24"/>
-      <c r="AB215" s="24"/>
-      <c r="AC215" s="24"/>
-      <c r="AD215" s="24"/>
-      <c r="AE215" s="24"/>
-      <c r="AF215" s="24"/>
-      <c r="AG215" s="24"/>
-      <c r="AH215" s="24"/>
-      <c r="AI215" s="24"/>
-      <c r="AJ215" s="24"/>
-      <c r="AK215" s="24"/>
-      <c r="AL215" s="24"/>
-      <c r="AM215" s="24"/>
-      <c r="AN215" s="24"/>
+      <c r="Y215" s="26"/>
+      <c r="Z215" s="26"/>
+      <c r="AA215" s="26"/>
+      <c r="AB215" s="26"/>
+      <c r="AC215" s="26"/>
+      <c r="AD215" s="26"/>
+      <c r="AE215" s="26"/>
+      <c r="AF215" s="26"/>
+      <c r="AG215" s="26"/>
+      <c r="AH215" s="26"/>
+      <c r="AI215" s="26"/>
+      <c r="AJ215" s="26"/>
+      <c r="AK215" s="26"/>
+      <c r="AL215" s="26"/>
+      <c r="AM215" s="26"/>
+      <c r="AN215" s="26"/>
     </row>
     <row r="216" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -18341,25 +18292,25 @@
       <c r="W216" s="11">
         <v>43695.845138888886</v>
       </c>
-      <c r="X216" s="24">
+      <c r="X216" s="26">
         <v>12319</v>
       </c>
-      <c r="Y216" s="24"/>
-      <c r="Z216" s="24"/>
-      <c r="AA216" s="24"/>
-      <c r="AB216" s="24"/>
-      <c r="AC216" s="24"/>
-      <c r="AD216" s="24"/>
-      <c r="AE216" s="24"/>
-      <c r="AF216" s="24"/>
-      <c r="AG216" s="24"/>
-      <c r="AH216" s="24"/>
-      <c r="AI216" s="24"/>
-      <c r="AJ216" s="24"/>
-      <c r="AK216" s="24"/>
-      <c r="AL216" s="24"/>
-      <c r="AM216" s="24"/>
-      <c r="AN216" s="24"/>
+      <c r="Y216" s="26"/>
+      <c r="Z216" s="26"/>
+      <c r="AA216" s="26"/>
+      <c r="AB216" s="26"/>
+      <c r="AC216" s="26"/>
+      <c r="AD216" s="26"/>
+      <c r="AE216" s="26"/>
+      <c r="AF216" s="26"/>
+      <c r="AG216" s="26"/>
+      <c r="AH216" s="26"/>
+      <c r="AI216" s="26"/>
+      <c r="AJ216" s="26"/>
+      <c r="AK216" s="26"/>
+      <c r="AL216" s="26"/>
+      <c r="AM216" s="26"/>
+      <c r="AN216" s="26"/>
     </row>
     <row r="217" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -18439,25 +18390,25 @@
       <c r="W217" s="11">
         <v>43709.828472222223</v>
       </c>
-      <c r="X217" s="24">
+      <c r="X217" s="26">
         <v>12000</v>
       </c>
-      <c r="Y217" s="24"/>
-      <c r="Z217" s="24"/>
-      <c r="AA217" s="24"/>
-      <c r="AB217" s="24"/>
-      <c r="AC217" s="24"/>
-      <c r="AD217" s="24"/>
-      <c r="AE217" s="24"/>
-      <c r="AF217" s="24"/>
-      <c r="AG217" s="24"/>
-      <c r="AH217" s="24"/>
-      <c r="AI217" s="24"/>
-      <c r="AJ217" s="24"/>
-      <c r="AK217" s="24"/>
-      <c r="AL217" s="24"/>
-      <c r="AM217" s="24"/>
-      <c r="AN217" s="24"/>
+      <c r="Y217" s="26"/>
+      <c r="Z217" s="26"/>
+      <c r="AA217" s="26"/>
+      <c r="AB217" s="26"/>
+      <c r="AC217" s="26"/>
+      <c r="AD217" s="26"/>
+      <c r="AE217" s="26"/>
+      <c r="AF217" s="26"/>
+      <c r="AG217" s="26"/>
+      <c r="AH217" s="26"/>
+      <c r="AI217" s="26"/>
+      <c r="AJ217" s="26"/>
+      <c r="AK217" s="26"/>
+      <c r="AL217" s="26"/>
+      <c r="AM217" s="26"/>
+      <c r="AN217" s="26"/>
     </row>
     <row r="218" spans="1:40" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -18537,25 +18488,25 @@
       <c r="W218" s="11">
         <v>43723.810416666667</v>
       </c>
-      <c r="X218" s="24">
+      <c r="X218" s="26">
         <v>8077</v>
       </c>
-      <c r="Y218" s="24"/>
-      <c r="Z218" s="24"/>
-      <c r="AA218" s="24"/>
-      <c r="AB218" s="24"/>
-      <c r="AC218" s="24"/>
-      <c r="AD218" s="24"/>
-      <c r="AE218" s="24"/>
-      <c r="AF218" s="24"/>
-      <c r="AG218" s="24"/>
-      <c r="AH218" s="24"/>
-      <c r="AI218" s="24"/>
-      <c r="AJ218" s="24"/>
-      <c r="AK218" s="24"/>
-      <c r="AL218" s="24"/>
-      <c r="AM218" s="24"/>
-      <c r="AN218" s="24"/>
+      <c r="Y218" s="26"/>
+      <c r="Z218" s="26"/>
+      <c r="AA218" s="26"/>
+      <c r="AB218" s="26"/>
+      <c r="AC218" s="26"/>
+      <c r="AD218" s="26"/>
+      <c r="AE218" s="26"/>
+      <c r="AF218" s="26"/>
+      <c r="AG218" s="26"/>
+      <c r="AH218" s="26"/>
+      <c r="AI218" s="26"/>
+      <c r="AJ218" s="26"/>
+      <c r="AK218" s="26"/>
+      <c r="AL218" s="26"/>
+      <c r="AM218" s="26"/>
+      <c r="AN218" s="26"/>
     </row>
     <row r="219" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -19411,7 +19362,7 @@
         <v>622</v>
       </c>
       <c r="T229" s="2">
-        <f t="shared" ref="T228:T251" si="46">I229/S229/1000</f>
+        <f t="shared" ref="T229:T251" si="46">I229/S229/1000</f>
         <v>5.7733118971061087E-3</v>
       </c>
       <c r="U229" s="11">
@@ -19739,25 +19690,25 @@
       <c r="W233" s="11">
         <v>44410.85833333333</v>
       </c>
-      <c r="X233" s="22" t="s">
+      <c r="X233" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="Y233" s="22"/>
-      <c r="Z233" s="22"/>
-      <c r="AA233" s="22"/>
-      <c r="AB233" s="22"/>
-      <c r="AC233" s="22"/>
-      <c r="AD233" s="22"/>
-      <c r="AE233" s="22"/>
-      <c r="AF233" s="22"/>
-      <c r="AG233" s="22"/>
-      <c r="AH233" s="22"/>
-      <c r="AI233" s="22"/>
-      <c r="AJ233" s="22"/>
-      <c r="AK233" s="22"/>
-      <c r="AL233" s="22"/>
-      <c r="AM233" s="22"/>
-      <c r="AN233" s="22"/>
+      <c r="Y233" s="24"/>
+      <c r="Z233" s="24"/>
+      <c r="AA233" s="24"/>
+      <c r="AB233" s="24"/>
+      <c r="AC233" s="24"/>
+      <c r="AD233" s="24"/>
+      <c r="AE233" s="24"/>
+      <c r="AF233" s="24"/>
+      <c r="AG233" s="24"/>
+      <c r="AH233" s="24"/>
+      <c r="AI233" s="24"/>
+      <c r="AJ233" s="24"/>
+      <c r="AK233" s="24"/>
+      <c r="AL233" s="24"/>
+      <c r="AM233" s="24"/>
+      <c r="AN233" s="24"/>
     </row>
     <row r="234" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -22084,11 +22035,6 @@
     <sortCondition ref="F122:F258"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="X2:AN2"/>
-    <mergeCell ref="X1:AN1"/>
-    <mergeCell ref="X97:AN97"/>
-    <mergeCell ref="X211:AN211"/>
-    <mergeCell ref="X212:AN212"/>
     <mergeCell ref="X233:AN233"/>
     <mergeCell ref="X119:AN119"/>
     <mergeCell ref="X120:AN120"/>
@@ -22099,20 +22045,23 @@
     <mergeCell ref="X217:AN217"/>
     <mergeCell ref="X215:AN215"/>
     <mergeCell ref="X218:AN218"/>
+    <mergeCell ref="X2:AN2"/>
+    <mergeCell ref="X1:AN1"/>
+    <mergeCell ref="X97:AN97"/>
+    <mergeCell ref="X211:AN211"/>
+    <mergeCell ref="X212:AN212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22311,21 +22260,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22350,9 +22298,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FCDFF7-7C9E-4B10-944F-CE25C6425E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410A01B-8B98-44AF-A505-369A44810207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,12 +704,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,6 +711,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,25 +1176,25 @@
       <c r="W1" t="s">
         <v>6</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -1273,25 +1273,25 @@
       <c r="W2" s="11">
         <v>36366.871527777781</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2783,7 +2783,7 @@
       <c r="H22" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>8759</v>
       </c>
       <c r="K22" s="4"/>
@@ -2824,7 +2824,7 @@
       <c r="H23" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>71589</v>
       </c>
       <c r="K23" s="4"/>
@@ -2865,7 +2865,7 @@
       <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>20159</v>
       </c>
       <c r="K24" s="4"/>
@@ -2906,7 +2906,7 @@
       <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>5272</v>
       </c>
       <c r="K25" s="4"/>
@@ -8894,25 +8894,25 @@
       <c r="W101" s="11">
         <v>40807.806944444441</v>
       </c>
-      <c r="X101" s="25" t="s">
+      <c r="X101" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Y101" s="25"/>
-      <c r="Z101" s="25"/>
-      <c r="AA101" s="25"/>
-      <c r="AB101" s="25"/>
-      <c r="AC101" s="25"/>
-      <c r="AD101" s="25"/>
-      <c r="AE101" s="25"/>
-      <c r="AF101" s="25"/>
-      <c r="AG101" s="25"/>
-      <c r="AH101" s="25"/>
-      <c r="AI101" s="25"/>
-      <c r="AJ101" s="25"/>
-      <c r="AK101" s="25"/>
-      <c r="AL101" s="25"/>
-      <c r="AM101" s="25"/>
-      <c r="AN101" s="25"/>
+      <c r="Y101" s="23"/>
+      <c r="Z101" s="23"/>
+      <c r="AA101" s="23"/>
+      <c r="AB101" s="23"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="23"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="23"/>
+      <c r="AG101" s="23"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="23"/>
+      <c r="AJ101" s="23"/>
+      <c r="AK101" s="23"/>
+      <c r="AL101" s="23"/>
+      <c r="AM101" s="23"/>
+      <c r="AN101" s="23"/>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -10678,25 +10678,25 @@
       <c r="W123" s="11">
         <v>41546.796527777777</v>
       </c>
-      <c r="X123" s="25" t="s">
+      <c r="X123" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Y123" s="25"/>
-      <c r="Z123" s="25"/>
-      <c r="AA123" s="25"/>
-      <c r="AB123" s="25"/>
-      <c r="AC123" s="25"/>
-      <c r="AD123" s="25"/>
-      <c r="AE123" s="25"/>
-      <c r="AF123" s="25"/>
-      <c r="AG123" s="25"/>
-      <c r="AH123" s="25"/>
-      <c r="AI123" s="25"/>
-      <c r="AJ123" s="25"/>
-      <c r="AK123" s="25"/>
-      <c r="AL123" s="25"/>
-      <c r="AM123" s="25"/>
-      <c r="AN123" s="25"/>
+      <c r="Y123" s="23"/>
+      <c r="Z123" s="23"/>
+      <c r="AA123" s="23"/>
+      <c r="AB123" s="23"/>
+      <c r="AC123" s="23"/>
+      <c r="AD123" s="23"/>
+      <c r="AE123" s="23"/>
+      <c r="AF123" s="23"/>
+      <c r="AG123" s="23"/>
+      <c r="AH123" s="23"/>
+      <c r="AI123" s="23"/>
+      <c r="AJ123" s="23"/>
+      <c r="AK123" s="23"/>
+      <c r="AL123" s="23"/>
+      <c r="AM123" s="23"/>
+      <c r="AN123" s="23"/>
     </row>
     <row r="124" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -10776,25 +10776,25 @@
       <c r="W124" s="11">
         <v>41561.777777777781</v>
       </c>
-      <c r="X124" s="25" t="s">
+      <c r="X124" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Y124" s="25"/>
-      <c r="Z124" s="25"/>
-      <c r="AA124" s="25"/>
-      <c r="AB124" s="25"/>
-      <c r="AC124" s="25"/>
-      <c r="AD124" s="25"/>
-      <c r="AE124" s="25"/>
-      <c r="AF124" s="25"/>
-      <c r="AG124" s="25"/>
-      <c r="AH124" s="25"/>
-      <c r="AI124" s="25"/>
-      <c r="AJ124" s="25"/>
-      <c r="AK124" s="25"/>
-      <c r="AL124" s="25"/>
-      <c r="AM124" s="25"/>
-      <c r="AN124" s="25"/>
+      <c r="Y124" s="23"/>
+      <c r="Z124" s="23"/>
+      <c r="AA124" s="23"/>
+      <c r="AB124" s="23"/>
+      <c r="AC124" s="23"/>
+      <c r="AD124" s="23"/>
+      <c r="AE124" s="23"/>
+      <c r="AF124" s="23"/>
+      <c r="AG124" s="23"/>
+      <c r="AH124" s="23"/>
+      <c r="AI124" s="23"/>
+      <c r="AJ124" s="23"/>
+      <c r="AK124" s="23"/>
+      <c r="AL124" s="23"/>
+      <c r="AM124" s="23"/>
+      <c r="AN124" s="23"/>
     </row>
     <row r="125" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -10874,25 +10874,25 @@
       <c r="W125" s="11">
         <v>41811.87777777778</v>
       </c>
-      <c r="X125" s="25" t="s">
+      <c r="X125" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="Y125" s="25"/>
-      <c r="Z125" s="25"/>
-      <c r="AA125" s="25"/>
-      <c r="AB125" s="25"/>
-      <c r="AC125" s="25"/>
-      <c r="AD125" s="25"/>
-      <c r="AE125" s="25"/>
-      <c r="AF125" s="25"/>
-      <c r="AG125" s="25"/>
-      <c r="AH125" s="25"/>
-      <c r="AI125" s="25"/>
-      <c r="AJ125" s="25"/>
-      <c r="AK125" s="25"/>
-      <c r="AL125" s="25"/>
-      <c r="AM125" s="25"/>
-      <c r="AN125" s="25"/>
+      <c r="Y125" s="23"/>
+      <c r="Z125" s="23"/>
+      <c r="AA125" s="23"/>
+      <c r="AB125" s="23"/>
+      <c r="AC125" s="23"/>
+      <c r="AD125" s="23"/>
+      <c r="AE125" s="23"/>
+      <c r="AF125" s="23"/>
+      <c r="AG125" s="23"/>
+      <c r="AH125" s="23"/>
+      <c r="AI125" s="23"/>
+      <c r="AJ125" s="23"/>
+      <c r="AK125" s="23"/>
+      <c r="AL125" s="23"/>
+      <c r="AM125" s="23"/>
+      <c r="AN125" s="23"/>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -18003,25 +18003,25 @@
       <c r="W215" s="11">
         <v>44094.805555555555</v>
       </c>
-      <c r="X215" s="26" t="s">
+      <c r="X215" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="Y215" s="26"/>
-      <c r="Z215" s="26"/>
-      <c r="AA215" s="26"/>
-      <c r="AB215" s="26"/>
-      <c r="AC215" s="26"/>
-      <c r="AD215" s="26"/>
-      <c r="AE215" s="26"/>
-      <c r="AF215" s="26"/>
-      <c r="AG215" s="26"/>
-      <c r="AH215" s="26"/>
-      <c r="AI215" s="26"/>
-      <c r="AJ215" s="26"/>
-      <c r="AK215" s="26"/>
-      <c r="AL215" s="26"/>
-      <c r="AM215" s="26"/>
-      <c r="AN215" s="26"/>
+      <c r="Y215" s="24"/>
+      <c r="Z215" s="24"/>
+      <c r="AA215" s="24"/>
+      <c r="AB215" s="24"/>
+      <c r="AC215" s="24"/>
+      <c r="AD215" s="24"/>
+      <c r="AE215" s="24"/>
+      <c r="AF215" s="24"/>
+      <c r="AG215" s="24"/>
+      <c r="AH215" s="24"/>
+      <c r="AI215" s="24"/>
+      <c r="AJ215" s="24"/>
+      <c r="AK215" s="24"/>
+      <c r="AL215" s="24"/>
+      <c r="AM215" s="24"/>
+      <c r="AN215" s="24"/>
     </row>
     <row r="216" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -18101,25 +18101,25 @@
       <c r="W216" s="11">
         <v>44101.800694444442</v>
       </c>
-      <c r="X216" s="26">
+      <c r="X216" s="24">
         <v>37459</v>
       </c>
-      <c r="Y216" s="26"/>
-      <c r="Z216" s="26"/>
-      <c r="AA216" s="26"/>
-      <c r="AB216" s="26"/>
-      <c r="AC216" s="26"/>
-      <c r="AD216" s="26"/>
-      <c r="AE216" s="26"/>
-      <c r="AF216" s="26"/>
-      <c r="AG216" s="26"/>
-      <c r="AH216" s="26"/>
-      <c r="AI216" s="26"/>
-      <c r="AJ216" s="26"/>
-      <c r="AK216" s="26"/>
-      <c r="AL216" s="26"/>
-      <c r="AM216" s="26"/>
-      <c r="AN216" s="26"/>
+      <c r="Y216" s="24"/>
+      <c r="Z216" s="24"/>
+      <c r="AA216" s="24"/>
+      <c r="AB216" s="24"/>
+      <c r="AC216" s="24"/>
+      <c r="AD216" s="24"/>
+      <c r="AE216" s="24"/>
+      <c r="AF216" s="24"/>
+      <c r="AG216" s="24"/>
+      <c r="AH216" s="24"/>
+      <c r="AI216" s="24"/>
+      <c r="AJ216" s="24"/>
+      <c r="AK216" s="24"/>
+      <c r="AL216" s="24"/>
+      <c r="AM216" s="24"/>
+      <c r="AN216" s="24"/>
     </row>
     <row r="217" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -18199,25 +18199,25 @@
       <c r="W217" s="11">
         <v>44115.783333333333</v>
       </c>
-      <c r="X217" s="26">
+      <c r="X217" s="24">
         <v>20940</v>
       </c>
-      <c r="Y217" s="26"/>
-      <c r="Z217" s="26"/>
-      <c r="AA217" s="26"/>
-      <c r="AB217" s="26"/>
-      <c r="AC217" s="26"/>
-      <c r="AD217" s="26"/>
-      <c r="AE217" s="26"/>
-      <c r="AF217" s="26"/>
-      <c r="AG217" s="26"/>
-      <c r="AH217" s="26"/>
-      <c r="AI217" s="26"/>
-      <c r="AJ217" s="26"/>
-      <c r="AK217" s="26"/>
-      <c r="AL217" s="26"/>
-      <c r="AM217" s="26"/>
-      <c r="AN217" s="26"/>
+      <c r="Y217" s="24"/>
+      <c r="Z217" s="24"/>
+      <c r="AA217" s="24"/>
+      <c r="AB217" s="24"/>
+      <c r="AC217" s="24"/>
+      <c r="AD217" s="24"/>
+      <c r="AE217" s="24"/>
+      <c r="AF217" s="24"/>
+      <c r="AG217" s="24"/>
+      <c r="AH217" s="24"/>
+      <c r="AI217" s="24"/>
+      <c r="AJ217" s="24"/>
+      <c r="AK217" s="24"/>
+      <c r="AL217" s="24"/>
+      <c r="AM217" s="24"/>
+      <c r="AN217" s="24"/>
     </row>
     <row r="218" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -18297,25 +18297,25 @@
       <c r="W218" s="11">
         <v>44129.768055555556</v>
       </c>
-      <c r="X218" s="26">
+      <c r="X218" s="24">
         <v>7713</v>
       </c>
-      <c r="Y218" s="26"/>
-      <c r="Z218" s="26"/>
-      <c r="AA218" s="26"/>
-      <c r="AB218" s="26"/>
-      <c r="AC218" s="26"/>
-      <c r="AD218" s="26"/>
-      <c r="AE218" s="26"/>
-      <c r="AF218" s="26"/>
-      <c r="AG218" s="26"/>
-      <c r="AH218" s="26"/>
-      <c r="AI218" s="26"/>
-      <c r="AJ218" s="26"/>
-      <c r="AK218" s="26"/>
-      <c r="AL218" s="26"/>
-      <c r="AM218" s="26"/>
-      <c r="AN218" s="26"/>
+      <c r="Y218" s="24"/>
+      <c r="Z218" s="24"/>
+      <c r="AA218" s="24"/>
+      <c r="AB218" s="24"/>
+      <c r="AC218" s="24"/>
+      <c r="AD218" s="24"/>
+      <c r="AE218" s="24"/>
+      <c r="AF218" s="24"/>
+      <c r="AG218" s="24"/>
+      <c r="AH218" s="24"/>
+      <c r="AI218" s="24"/>
+      <c r="AJ218" s="24"/>
+      <c r="AK218" s="24"/>
+      <c r="AL218" s="24"/>
+      <c r="AM218" s="24"/>
+      <c r="AN218" s="24"/>
     </row>
     <row r="219" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -18395,25 +18395,25 @@
       <c r="W219" s="11">
         <v>44340.870138888888</v>
       </c>
-      <c r="X219" s="26" t="s">
+      <c r="X219" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Y219" s="26"/>
-      <c r="Z219" s="26"/>
-      <c r="AA219" s="26"/>
-      <c r="AB219" s="26"/>
-      <c r="AC219" s="26"/>
-      <c r="AD219" s="26"/>
-      <c r="AE219" s="26"/>
-      <c r="AF219" s="26"/>
-      <c r="AG219" s="26"/>
-      <c r="AH219" s="26"/>
-      <c r="AI219" s="26"/>
-      <c r="AJ219" s="26"/>
-      <c r="AK219" s="26"/>
-      <c r="AL219" s="26"/>
-      <c r="AM219" s="26"/>
-      <c r="AN219" s="26"/>
+      <c r="Y219" s="24"/>
+      <c r="Z219" s="24"/>
+      <c r="AA219" s="24"/>
+      <c r="AB219" s="24"/>
+      <c r="AC219" s="24"/>
+      <c r="AD219" s="24"/>
+      <c r="AE219" s="24"/>
+      <c r="AF219" s="24"/>
+      <c r="AG219" s="24"/>
+      <c r="AH219" s="24"/>
+      <c r="AI219" s="24"/>
+      <c r="AJ219" s="24"/>
+      <c r="AK219" s="24"/>
+      <c r="AL219" s="24"/>
+      <c r="AM219" s="24"/>
+      <c r="AN219" s="24"/>
     </row>
     <row r="220" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -18493,25 +18493,25 @@
       <c r="W220" s="11">
         <v>44353.877083333333</v>
       </c>
-      <c r="X220" s="26">
+      <c r="X220" s="24">
         <v>12319</v>
       </c>
-      <c r="Y220" s="26"/>
-      <c r="Z220" s="26"/>
-      <c r="AA220" s="26"/>
-      <c r="AB220" s="26"/>
-      <c r="AC220" s="26"/>
-      <c r="AD220" s="26"/>
-      <c r="AE220" s="26"/>
-      <c r="AF220" s="26"/>
-      <c r="AG220" s="26"/>
-      <c r="AH220" s="26"/>
-      <c r="AI220" s="26"/>
-      <c r="AJ220" s="26"/>
-      <c r="AK220" s="26"/>
-      <c r="AL220" s="26"/>
-      <c r="AM220" s="26"/>
-      <c r="AN220" s="26"/>
+      <c r="Y220" s="24"/>
+      <c r="Z220" s="24"/>
+      <c r="AA220" s="24"/>
+      <c r="AB220" s="24"/>
+      <c r="AC220" s="24"/>
+      <c r="AD220" s="24"/>
+      <c r="AE220" s="24"/>
+      <c r="AF220" s="24"/>
+      <c r="AG220" s="24"/>
+      <c r="AH220" s="24"/>
+      <c r="AI220" s="24"/>
+      <c r="AJ220" s="24"/>
+      <c r="AK220" s="24"/>
+      <c r="AL220" s="24"/>
+      <c r="AM220" s="24"/>
+      <c r="AN220" s="24"/>
     </row>
     <row r="221" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -18591,25 +18591,25 @@
       <c r="W221" s="11">
         <v>44366.837500000001</v>
       </c>
-      <c r="X221" s="26">
+      <c r="X221" s="24">
         <v>12000</v>
       </c>
-      <c r="Y221" s="26"/>
-      <c r="Z221" s="26"/>
-      <c r="AA221" s="26"/>
-      <c r="AB221" s="26"/>
-      <c r="AC221" s="26"/>
-      <c r="AD221" s="26"/>
-      <c r="AE221" s="26"/>
-      <c r="AF221" s="26"/>
-      <c r="AG221" s="26"/>
-      <c r="AH221" s="26"/>
-      <c r="AI221" s="26"/>
-      <c r="AJ221" s="26"/>
-      <c r="AK221" s="26"/>
-      <c r="AL221" s="26"/>
-      <c r="AM221" s="26"/>
-      <c r="AN221" s="26"/>
+      <c r="Y221" s="24"/>
+      <c r="Z221" s="24"/>
+      <c r="AA221" s="24"/>
+      <c r="AB221" s="24"/>
+      <c r="AC221" s="24"/>
+      <c r="AD221" s="24"/>
+      <c r="AE221" s="24"/>
+      <c r="AF221" s="24"/>
+      <c r="AG221" s="24"/>
+      <c r="AH221" s="24"/>
+      <c r="AI221" s="24"/>
+      <c r="AJ221" s="24"/>
+      <c r="AK221" s="24"/>
+      <c r="AL221" s="24"/>
+      <c r="AM221" s="24"/>
+      <c r="AN221" s="24"/>
     </row>
     <row r="222" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -18689,25 +18689,25 @@
       <c r="W222" s="11">
         <v>44381.837500000001</v>
       </c>
-      <c r="X222" s="26">
+      <c r="X222" s="24">
         <v>8077</v>
       </c>
-      <c r="Y222" s="26"/>
-      <c r="Z222" s="26"/>
-      <c r="AA222" s="26"/>
-      <c r="AB222" s="26"/>
-      <c r="AC222" s="26"/>
-      <c r="AD222" s="26"/>
-      <c r="AE222" s="26"/>
-      <c r="AF222" s="26"/>
-      <c r="AG222" s="26"/>
-      <c r="AH222" s="26"/>
-      <c r="AI222" s="26"/>
-      <c r="AJ222" s="26"/>
-      <c r="AK222" s="26"/>
-      <c r="AL222" s="26"/>
-      <c r="AM222" s="26"/>
-      <c r="AN222" s="26"/>
+      <c r="Y222" s="24"/>
+      <c r="Z222" s="24"/>
+      <c r="AA222" s="24"/>
+      <c r="AB222" s="24"/>
+      <c r="AC222" s="24"/>
+      <c r="AD222" s="24"/>
+      <c r="AE222" s="24"/>
+      <c r="AF222" s="24"/>
+      <c r="AG222" s="24"/>
+      <c r="AH222" s="24"/>
+      <c r="AI222" s="24"/>
+      <c r="AJ222" s="24"/>
+      <c r="AK222" s="24"/>
+      <c r="AL222" s="24"/>
+      <c r="AM222" s="24"/>
+      <c r="AN222" s="24"/>
     </row>
     <row r="223" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -19893,25 +19893,25 @@
       <c r="W237" s="11">
         <v>44738.876388888886</v>
       </c>
-      <c r="X237" s="24" t="s">
+      <c r="X237" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Y237" s="24"/>
-      <c r="Z237" s="24"/>
-      <c r="AA237" s="24"/>
-      <c r="AB237" s="24"/>
-      <c r="AC237" s="24"/>
-      <c r="AD237" s="24"/>
-      <c r="AE237" s="24"/>
-      <c r="AF237" s="24"/>
-      <c r="AG237" s="24"/>
-      <c r="AH237" s="24"/>
-      <c r="AI237" s="24"/>
-      <c r="AJ237" s="24"/>
-      <c r="AK237" s="24"/>
-      <c r="AL237" s="24"/>
-      <c r="AM237" s="24"/>
-      <c r="AN237" s="24"/>
+      <c r="Y237" s="22"/>
+      <c r="Z237" s="22"/>
+      <c r="AA237" s="22"/>
+      <c r="AB237" s="22"/>
+      <c r="AC237" s="22"/>
+      <c r="AD237" s="22"/>
+      <c r="AE237" s="22"/>
+      <c r="AF237" s="22"/>
+      <c r="AG237" s="22"/>
+      <c r="AH237" s="22"/>
+      <c r="AI237" s="22"/>
+      <c r="AJ237" s="22"/>
+      <c r="AK237" s="22"/>
+      <c r="AL237" s="22"/>
+      <c r="AM237" s="22"/>
+      <c r="AN237" s="22"/>
     </row>
     <row r="238" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -22382,6 +22382,11 @@
     <sortCondition ref="F2:F268"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="X2:AN2"/>
+    <mergeCell ref="X1:AN1"/>
+    <mergeCell ref="X101:AN101"/>
+    <mergeCell ref="X215:AN215"/>
+    <mergeCell ref="X216:AN216"/>
     <mergeCell ref="X237:AN237"/>
     <mergeCell ref="X123:AN123"/>
     <mergeCell ref="X124:AN124"/>
@@ -22392,23 +22397,20 @@
     <mergeCell ref="X221:AN221"/>
     <mergeCell ref="X219:AN219"/>
     <mergeCell ref="X222:AN222"/>
-    <mergeCell ref="X2:AN2"/>
-    <mergeCell ref="X1:AN1"/>
-    <mergeCell ref="X101:AN101"/>
-    <mergeCell ref="X215:AN215"/>
-    <mergeCell ref="X216:AN216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22607,20 +22609,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
+    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22645,12 +22648,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
-    <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
+++ b/Tracey's Folder/surveyFactorsAll_Tracey with SSB data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Tracey's Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9D113B-8906-4A2C-BA36-AA10159B8C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAC048-94A0-40A9-BB00-58AD6E34D752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="0" windowWidth="26760" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$AO$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$AO$320</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="65">
   <si>
     <t>Survey_Number</t>
   </si>
@@ -1228,11 +1228,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO318"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V310" sqref="V310"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I330" sqref="I330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,11 +1254,10 @@
     <col min="14" max="14" width="9.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="17" style="4" customWidth="1"/>
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.140625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="10" style="2" customWidth="1"/>
-    <col min="21" max="21" width="10.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="19" customWidth="1"/>
     <col min="23" max="24" width="17" style="11" customWidth="1"/>
     <col min="25" max="25" width="22" customWidth="1"/>
@@ -1356,7 +1356,7 @@
       <c r="AN1" s="41"/>
       <c r="AO1" s="41"/>
     </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="V5" s="11"/>
       <c r="Y5" s="29"/>
     </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="R6" s="12"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>36406.825694444444</v>
       </c>
     </row>
-    <row r="8" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>36413.821527777778</v>
       </c>
     </row>
-    <row r="9" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="R9" s="12"/>
       <c r="V9" s="11"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="V10" s="11"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>36739.861805555556</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>36752.848611111112</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>36767.831250000003</v>
       </c>
     </row>
-    <row r="16" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2268,7 +2268,7 @@
       <c r="R16" s="12"/>
       <c r="V16" s="11"/>
     </row>
-    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2307,7 +2307,7 @@
       <c r="R17" s="12"/>
       <c r="V17" s="11"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>36781.818055555559</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>36796.798611111109</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="R20" s="12"/>
       <c r="V20" s="11"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>37119.84652777778</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>37130.839583333334</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>37143.823611111111</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2907,7 +2907,7 @@
       <c r="R26" s="12"/>
       <c r="V26" s="11"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3144,7 +3144,7 @@
       <c r="R30" s="12"/>
       <c r="V30" s="11"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>37479.856249999997</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>37479.852777777778</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>37489.841666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>37494.84097222222</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="27">
         <v>34</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>37509.820833333331</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="R37" s="12"/>
       <c r="V37" s="11"/>
     </row>
-    <row r="38" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="R38" s="12"/>
       <c r="V38" s="11"/>
     </row>
-    <row r="39" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="R39" s="12"/>
       <c r="V39" s="11"/>
     </row>
-    <row r="40" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>37833.866527777776</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>37843.851388888892</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>37857.835821759261</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>37862.837500000001</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>37870.819444444445</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>37872.825694444444</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>37882.813194444447</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>37904.785416666666</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>37914.774305555555</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>38187.870833333334</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>38215.84652777778</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4678,7 +4678,7 @@
       <c r="AN52" s="5"/>
       <c r="AO52" s="5"/>
     </row>
-    <row r="53" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4772,7 +4772,7 @@
       <c r="AN53" s="5"/>
       <c r="AO53" s="5"/>
     </row>
-    <row r="54" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4830,7 +4830,7 @@
       <c r="AN54" s="5"/>
       <c r="AO54" s="5"/>
     </row>
-    <row r="55" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="AN55" s="5"/>
       <c r="AO55" s="5"/>
     </row>
-    <row r="56" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="AN56" s="5"/>
       <c r="AO56" s="5"/>
     </row>
-    <row r="57" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="AN57" s="5"/>
       <c r="AO57" s="5"/>
     </row>
-    <row r="58" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5212,7 +5212,7 @@
       <c r="AN58" s="5"/>
       <c r="AO58" s="5"/>
     </row>
-    <row r="59" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="AN59" s="5"/>
       <c r="AO59" s="5"/>
     </row>
-    <row r="60" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>38606.81527777778</v>
       </c>
     </row>
-    <row r="61" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>38616.808333333334</v>
       </c>
     </row>
-    <row r="62" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>38629.792361111111</v>
       </c>
     </row>
-    <row r="63" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>38920.869444444441</v>
       </c>
     </row>
-    <row r="64" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>38935.86041666667</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>38948.84652777778</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>38954.842361111114</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>38975.816666666666</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>38991.796527777777</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>39005.779166666667</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>39277.874305555553</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>39291.865277777775</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>39305.852777777778</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>39318.842361111114</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27">
         <v>73</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>39332.82708333333</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>39346.807638888888</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>39360.789583333331</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>39372.775000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>39641.878472222219</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>39655.866666666669</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>39669.856944444444</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>39682.845138888886</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>39696.828472222223</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7328,7 +7328,7 @@
         <v>39710.810416666667</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>39727.789583333331</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>39742.772222222222</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>39991.881944444445</v>
       </c>
     </row>
-    <row r="88" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>40005.879166666666</v>
       </c>
     </row>
-    <row r="89" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>40019.867361111108</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7814,7 +7814,7 @@
         <v>40033.855555555558</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>40037.856249999997</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>40050.841666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -8016,7 +8016,7 @@
       <c r="W93" s="37"/>
       <c r="X93" s="37"/>
     </row>
-    <row r="94" spans="1:25" s="32" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25" s="32" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -8262,7 +8262,7 @@
         <v>40070.817361111112</v>
       </c>
     </row>
-    <row r="97" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>40080.804861111108</v>
       </c>
     </row>
-    <row r="98" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8424,7 +8424,7 @@
         <v>40091.790972222225</v>
       </c>
     </row>
-    <row r="99" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>40369.875694444447</v>
       </c>
     </row>
-    <row r="102" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>40383.871527777781</v>
       </c>
     </row>
-    <row r="103" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>40397.856249999997</v>
       </c>
     </row>
-    <row r="104" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>40408.85</v>
       </c>
     </row>
-    <row r="105" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>40411.84097222222</v>
       </c>
     </row>
-    <row r="106" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>40421.834722222222</v>
       </c>
     </row>
-    <row r="107" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>40426.825694444444</v>
       </c>
     </row>
-    <row r="108" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="109" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -9327,7 +9327,7 @@
         <v>40436.816666666666</v>
       </c>
     </row>
-    <row r="110" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="R111" s="12"/>
       <c r="V111" s="11"/>
     </row>
-    <row r="112" spans="1:26" ht="150" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>40456.790972222225</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>40470.775000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -9696,7 +9696,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>40726.87777777778</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>40740.872916666667</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>40754.863888888889</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>40768.853472222225</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -10101,7 +10101,7 @@
         <v>40781.84097222222</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>40781.836111111108</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>40794.824305555558</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>40827.78402777778</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -10464,7 +10464,7 @@
       <c r="R124" s="12"/>
       <c r="V124" s="11"/>
     </row>
-    <row r="125" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -10506,7 +10506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>41090.87777777778</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>41104.873611111114</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -10749,7 +10749,7 @@
         <v>41118.868055555555</v>
       </c>
     </row>
-    <row r="129" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>41132.852083333331</v>
       </c>
     </row>
-    <row r="130" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>41133.855555555558</v>
       </c>
     </row>
-    <row r="131" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -10992,7 +10992,7 @@
         <v>41146.836111111108</v>
       </c>
     </row>
-    <row r="132" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -11073,7 +11073,7 @@
         <v>41147.838888888888</v>
       </c>
     </row>
-    <row r="133" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>41161.823611111111</v>
       </c>
     </row>
-    <row r="134" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>41174.806944444441</v>
       </c>
     </row>
-    <row r="135" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -11316,7 +11316,7 @@
         <v>41189.786111111112</v>
       </c>
     </row>
-    <row r="136" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -11358,7 +11358,7 @@
       <c r="R136" s="12"/>
       <c r="V136" s="11"/>
     </row>
-    <row r="137" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>41447.87777777778</v>
       </c>
     </row>
-    <row r="139" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="140" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="142" spans="1:41" s="26" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:41" s="26" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -11836,7 +11836,7 @@
       <c r="AN142"/>
       <c r="AO142"/>
     </row>
-    <row r="143" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -11917,7 +11917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="144" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="146" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="148" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -12337,7 +12337,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -12368,7 +12368,7 @@
       <c r="V149" s="11"/>
       <c r="Y149" s="27"/>
     </row>
-    <row r="150" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -12536,7 +12536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -12633,7 +12633,7 @@
       <c r="AN152" s="27"/>
       <c r="AO152" s="27"/>
     </row>
-    <row r="153" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="AN153" s="27"/>
       <c r="AO153" s="27"/>
     </row>
-    <row r="154" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -12827,7 +12827,7 @@
       <c r="AN154" s="27"/>
       <c r="AO154" s="27"/>
     </row>
-    <row r="155" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -12873,7 +12873,7 @@
       <c r="AN155" s="27"/>
       <c r="AO155" s="27"/>
     </row>
-    <row r="156" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -12954,7 +12954,7 @@
         <v>41863.856249999997</v>
       </c>
     </row>
-    <row r="157" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>41867.85</v>
       </c>
     </row>
-    <row r="158" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>41876.842361111114</v>
       </c>
     </row>
-    <row r="159" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v>41881.830555555556</v>
       </c>
     </row>
-    <row r="160" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>41890.824999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13359,7 +13359,7 @@
         <v>41908.802777777775</v>
       </c>
     </row>
-    <row r="162" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>41918.790277777778</v>
       </c>
     </row>
-    <row r="163" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13521,7 +13521,7 @@
         <v>42182.881944444445</v>
       </c>
     </row>
-    <row r="164" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13602,7 +13602,7 @@
         <v>42196.875694444447</v>
       </c>
     </row>
-    <row r="165" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>42210.867361111108</v>
       </c>
     </row>
-    <row r="166" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13780,7 +13780,7 @@
       <c r="AN166" s="26"/>
       <c r="AO166" s="26"/>
     </row>
-    <row r="167" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13877,7 +13877,7 @@
       <c r="AN167" s="26"/>
       <c r="AO167" s="26"/>
     </row>
-    <row r="168" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13974,7 +13974,7 @@
       <c r="AN168" s="26"/>
       <c r="AO168" s="26"/>
     </row>
-    <row r="169" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14071,7 +14071,7 @@
       <c r="AN169" s="26"/>
       <c r="AO169" s="26"/>
     </row>
-    <row r="170" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14168,7 +14168,7 @@
       <c r="AN170" s="26"/>
       <c r="AO170" s="26"/>
     </row>
-    <row r="171" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14265,7 +14265,7 @@
       <c r="AN171" s="26"/>
       <c r="AO171" s="26"/>
     </row>
-    <row r="172" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14311,7 +14311,7 @@
       <c r="AN172" s="26"/>
       <c r="AO172" s="26"/>
     </row>
-    <row r="173" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14408,7 +14408,7 @@
       <c r="AN173" s="26"/>
       <c r="AO173" s="26"/>
     </row>
-    <row r="174" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14505,7 +14505,7 @@
       <c r="AN174" s="26"/>
       <c r="AO174" s="26"/>
     </row>
-    <row r="175" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14602,7 +14602,7 @@
       <c r="AN175" s="26"/>
       <c r="AO175" s="26"/>
     </row>
-    <row r="176" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14699,7 +14699,7 @@
       <c r="AN176" s="26"/>
       <c r="AO176" s="26"/>
     </row>
-    <row r="177" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14796,7 +14796,7 @@
       <c r="AN177" s="26"/>
       <c r="AO177" s="26"/>
     </row>
-    <row r="178" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14893,7 +14893,7 @@
       <c r="AN178" s="26"/>
       <c r="AO178" s="26"/>
     </row>
-    <row r="179" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14990,7 +14990,7 @@
       <c r="AN179" s="26"/>
       <c r="AO179" s="26"/>
     </row>
-    <row r="180" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -15087,7 +15087,7 @@
       <c r="AN180" s="26"/>
       <c r="AO180" s="26"/>
     </row>
-    <row r="181" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -15184,7 +15184,7 @@
       <c r="AN181" s="26"/>
       <c r="AO181" s="26"/>
     </row>
-    <row r="182" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -15281,7 +15281,7 @@
       <c r="AN182" s="26"/>
       <c r="AO182" s="26"/>
     </row>
-    <row r="183" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -15378,7 +15378,7 @@
       <c r="AN183" s="26"/>
       <c r="AO183" s="26"/>
     </row>
-    <row r="184" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -15475,7 +15475,7 @@
       <c r="AN184" s="25"/>
       <c r="AO184" s="25"/>
     </row>
-    <row r="185" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -15572,7 +15572,7 @@
       <c r="AN185" s="25"/>
       <c r="AO185" s="25"/>
     </row>
-    <row r="186" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -15669,7 +15669,7 @@
       <c r="AN186" s="25"/>
       <c r="AO186" s="25"/>
     </row>
-    <row r="187" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -15766,7 +15766,7 @@
       <c r="AN187" s="25"/>
       <c r="AO187" s="25"/>
     </row>
-    <row r="188" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -15863,7 +15863,7 @@
       <c r="AN188" s="25"/>
       <c r="AO188" s="25"/>
     </row>
-    <row r="189" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>42917.87777777778</v>
       </c>
     </row>
-    <row r="190" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -16041,7 +16041,7 @@
       <c r="AN190" s="26"/>
       <c r="AO190" s="26"/>
     </row>
-    <row r="191" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -16138,7 +16138,7 @@
       <c r="AN191" s="26"/>
       <c r="AO191" s="26"/>
     </row>
-    <row r="192" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -16219,7 +16219,7 @@
         <v>42959.854166666664</v>
       </c>
     </row>
-    <row r="193" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -16316,7 +16316,7 @@
       <c r="AN193" s="26"/>
       <c r="AO193" s="26"/>
     </row>
-    <row r="194" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>42973.835416666669</v>
       </c>
     </row>
-    <row r="195" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -16494,7 +16494,7 @@
       <c r="AN195" s="21"/>
       <c r="AO195" s="21"/>
     </row>
-    <row r="196" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -16591,7 +16591,7 @@
       <c r="AN196" s="26"/>
       <c r="AO196" s="26"/>
     </row>
-    <row r="197" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -16688,7 +16688,7 @@
       <c r="AN197" s="21"/>
       <c r="AO197" s="21"/>
     </row>
-    <row r="198" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -16785,7 +16785,7 @@
       <c r="AN198" s="26"/>
       <c r="AO198" s="26"/>
     </row>
-    <row r="199" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -16879,7 +16879,7 @@
       <c r="AN199" s="21"/>
       <c r="AO199" s="21"/>
     </row>
-    <row r="200" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -16976,7 +16976,7 @@
       <c r="AN200" s="21"/>
       <c r="AO200" s="21"/>
     </row>
-    <row r="201" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17073,7 +17073,7 @@
       <c r="AN201" s="21"/>
       <c r="AO201" s="21"/>
     </row>
-    <row r="202" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17154,7 +17154,7 @@
         <v>43260.874305555553</v>
       </c>
     </row>
-    <row r="203" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17235,7 +17235,7 @@
         <v>43274.881944444445</v>
       </c>
     </row>
-    <row r="204" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17332,7 +17332,7 @@
       <c r="AN204" s="26"/>
       <c r="AO204" s="26"/>
     </row>
-    <row r="205" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17429,7 +17429,7 @@
       <c r="AN205" s="26"/>
       <c r="AO205" s="26"/>
     </row>
-    <row r="206" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17526,7 +17526,7 @@
       <c r="AN206" s="26"/>
       <c r="AO206" s="26"/>
     </row>
-    <row r="207" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17607,7 +17607,7 @@
         <v>43324.856249999997</v>
       </c>
     </row>
-    <row r="208" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17704,7 +17704,7 @@
       <c r="AN208" s="24"/>
       <c r="AO208" s="24"/>
     </row>
-    <row r="209" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -17801,7 +17801,7 @@
       <c r="AN209" s="26"/>
       <c r="AO209" s="26"/>
     </row>
-    <row r="210" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="AN210" s="26"/>
       <c r="AO210" s="26"/>
     </row>
-    <row r="211" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -17995,7 +17995,7 @@
       <c r="AN211" s="21"/>
       <c r="AO211" s="21"/>
     </row>
-    <row r="212" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18092,7 +18092,7 @@
       <c r="AN212" s="21"/>
       <c r="AO212" s="21"/>
     </row>
-    <row r="213" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18189,7 +18189,7 @@
       <c r="AN213" s="21"/>
       <c r="AO213" s="21"/>
     </row>
-    <row r="214" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18286,7 +18286,7 @@
       <c r="AN214" s="21"/>
       <c r="AO214" s="21"/>
     </row>
-    <row r="215" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18383,7 +18383,7 @@
       <c r="AN215" s="26"/>
       <c r="AO215" s="26"/>
     </row>
-    <row r="216" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18480,7 +18480,7 @@
       <c r="AN216" s="26"/>
       <c r="AO216" s="26"/>
     </row>
-    <row r="217" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18571,7 +18571,7 @@
       <c r="AN217" s="26"/>
       <c r="AO217" s="26"/>
     </row>
-    <row r="218" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18662,7 +18662,7 @@
       <c r="AN218" s="26"/>
       <c r="AO218" s="26"/>
     </row>
-    <row r="219" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18753,7 +18753,7 @@
       <c r="AN219" s="26"/>
       <c r="AO219" s="26"/>
     </row>
-    <row r="220" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18844,7 +18844,7 @@
       <c r="AN220" s="21"/>
       <c r="AO220" s="21"/>
     </row>
-    <row r="221" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18935,7 +18935,7 @@
       <c r="AN221" s="21"/>
       <c r="AO221" s="21"/>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19026,7 +19026,7 @@
       <c r="AN222" s="21"/>
       <c r="AO222" s="21"/>
     </row>
-    <row r="223" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19117,7 +19117,7 @@
       <c r="AN223" s="26"/>
       <c r="AO223" s="26"/>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19208,7 +19208,7 @@
       <c r="AN224" s="26"/>
       <c r="AO224" s="26"/>
     </row>
-    <row r="225" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19299,7 +19299,7 @@
       <c r="AN225" s="26"/>
       <c r="AO225" s="26"/>
     </row>
-    <row r="226" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19390,7 +19390,7 @@
       <c r="AN226" s="26"/>
       <c r="AO226" s="26"/>
     </row>
-    <row r="227" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19481,7 +19481,7 @@
       <c r="AN227" s="21"/>
       <c r="AO227" s="21"/>
     </row>
-    <row r="228" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19572,7 +19572,7 @@
       <c r="AN228" s="26"/>
       <c r="AO228" s="26"/>
     </row>
-    <row r="229" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19663,7 +19663,7 @@
       <c r="AN229" s="21"/>
       <c r="AO229" s="21"/>
     </row>
-    <row r="230" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19754,7 +19754,7 @@
       <c r="AN230" s="21"/>
       <c r="AO230" s="21"/>
     </row>
-    <row r="231" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19845,7 +19845,7 @@
       <c r="AN231" s="21"/>
       <c r="AO231" s="21"/>
     </row>
-    <row r="232" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19936,7 +19936,7 @@
       <c r="AN232" s="26"/>
       <c r="AO232" s="26"/>
     </row>
-    <row r="233" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -20027,7 +20027,7 @@
       <c r="AN233" s="26"/>
       <c r="AO233" s="26"/>
     </row>
-    <row r="234" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -20118,7 +20118,7 @@
       <c r="AN234" s="26"/>
       <c r="AO234" s="26"/>
     </row>
-    <row r="235" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -20209,7 +20209,7 @@
       <c r="AN235" s="26"/>
       <c r="AO235" s="26"/>
     </row>
-    <row r="236" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -20300,7 +20300,7 @@
       <c r="AN236" s="21"/>
       <c r="AO236" s="21"/>
     </row>
-    <row r="237" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -20391,7 +20391,7 @@
       <c r="AN237" s="21"/>
       <c r="AO237" s="21"/>
     </row>
-    <row r="238" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -20482,7 +20482,7 @@
       <c r="AN238" s="21"/>
       <c r="AO238" s="21"/>
     </row>
-    <row r="239" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -20573,7 +20573,7 @@
       <c r="AN239" s="21"/>
       <c r="AO239" s="21"/>
     </row>
-    <row r="240" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -20664,7 +20664,7 @@
       <c r="AN240" s="26"/>
       <c r="AO240" s="26"/>
     </row>
-    <row r="241" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
@@ -20755,7 +20755,7 @@
       <c r="AN241" s="26"/>
       <c r="AO241" s="26"/>
     </row>
-    <row r="242" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -20846,7 +20846,7 @@
       <c r="AN242" s="21"/>
       <c r="AO242" s="21"/>
     </row>
-    <row r="243" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:41" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20940,7 +20940,7 @@
       <c r="AN243" s="26"/>
       <c r="AO243" s="26"/>
     </row>
-    <row r="244" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
@@ -21034,7 +21034,7 @@
       <c r="AN244" s="21"/>
       <c r="AO244" s="21"/>
     </row>
-    <row r="245" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -21128,7 +21128,7 @@
       <c r="AN245" s="21"/>
       <c r="AO245" s="21"/>
     </row>
-    <row r="246" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -21222,7 +21222,7 @@
       <c r="AN246" s="26"/>
       <c r="AO246" s="26"/>
     </row>
-    <row r="247" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
@@ -21316,7 +21316,7 @@
       <c r="AN247" s="26"/>
       <c r="AO247" s="26"/>
     </row>
-    <row r="248" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -21410,7 +21410,7 @@
       <c r="AN248" s="21"/>
       <c r="AO248" s="21"/>
     </row>
-    <row r="249" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -21504,7 +21504,7 @@
       <c r="AN249" s="26"/>
       <c r="AO249" s="26"/>
     </row>
-    <row r="250" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -21598,7 +21598,7 @@
       <c r="AN250" s="21"/>
       <c r="AO250" s="21"/>
     </row>
-    <row r="251" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -21691,7 +21691,7 @@
       <c r="AN251" s="21"/>
       <c r="AO251" s="21"/>
     </row>
-    <row r="252" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -21784,7 +21784,7 @@
       <c r="AN252" s="21"/>
       <c r="AO252" s="21"/>
     </row>
-    <row r="253" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -21877,7 +21877,7 @@
       <c r="AN253" s="21"/>
       <c r="AO253" s="21"/>
     </row>
-    <row r="254" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -21970,7 +21970,7 @@
       <c r="AN254" s="26"/>
       <c r="AO254" s="26"/>
     </row>
-    <row r="255" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="AN255" s="26"/>
       <c r="AO255" s="26"/>
     </row>
-    <row r="256" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -22156,7 +22156,7 @@
       <c r="AN256" s="26"/>
       <c r="AO256" s="26"/>
     </row>
-    <row r="257" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
@@ -22249,7 +22249,7 @@
       <c r="AN257" s="26"/>
       <c r="AO257" s="26"/>
     </row>
-    <row r="258" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
@@ -22342,7 +22342,7 @@
       <c r="AN258" s="21"/>
       <c r="AO258" s="21"/>
     </row>
-    <row r="259" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -22435,7 +22435,7 @@
       <c r="AN259" s="26"/>
       <c r="AO259" s="26"/>
     </row>
-    <row r="260" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
@@ -22528,7 +22528,7 @@
       <c r="AN260" s="21"/>
       <c r="AO260" s="21"/>
     </row>
-    <row r="261" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -22621,7 +22621,7 @@
       <c r="AN261" s="21"/>
       <c r="AO261" s="21"/>
     </row>
-    <row r="262" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -22714,7 +22714,7 @@
       <c r="AN262" s="21"/>
       <c r="AO262" s="21"/>
     </row>
-    <row r="263" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
@@ -22807,7 +22807,7 @@
       <c r="AN263" s="26"/>
       <c r="AO263" s="26"/>
     </row>
-    <row r="264" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -22900,7 +22900,7 @@
       <c r="AN264" s="26"/>
       <c r="AO264" s="26"/>
     </row>
-    <row r="265" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
@@ -22996,7 +22996,7 @@
       <c r="AN265" s="26"/>
       <c r="AO265" s="26"/>
     </row>
-    <row r="266" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
@@ -23089,7 +23089,7 @@
       <c r="AN266" s="26"/>
       <c r="AO266" s="26"/>
     </row>
-    <row r="267" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -23182,7 +23182,7 @@
       <c r="AN267" s="21"/>
       <c r="AO267" s="21"/>
     </row>
-    <row r="268" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
@@ -23275,7 +23275,7 @@
       <c r="AN268" s="26"/>
       <c r="AO268" s="26"/>
     </row>
-    <row r="269" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
@@ -23333,7 +23333,7 @@
         <v>1.0284722222204437</v>
       </c>
       <c r="S269" s="7">
-        <f t="shared" ref="S269:S298" si="77">(X269-V269)*24</f>
+        <f t="shared" ref="S269:S297" si="77">(X269-V269)*24</f>
         <v>-0.68333333329064772</v>
       </c>
       <c r="T269" s="2">
@@ -23368,7 +23368,7 @@
       <c r="AN269" s="21"/>
       <c r="AO269" s="21"/>
     </row>
-    <row r="270" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
@@ -23461,7 +23461,7 @@
       <c r="AN270" s="26"/>
       <c r="AO270" s="26"/>
     </row>
-    <row r="271" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -23554,7 +23554,7 @@
       <c r="AN271" s="21"/>
       <c r="AO271" s="21"/>
     </row>
-    <row r="272" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -23647,7 +23647,7 @@
       <c r="AN272" s="21"/>
       <c r="AO272" s="21"/>
     </row>
-    <row r="273" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -23724,7 +23724,7 @@
         <v>44815.819444444445</v>
       </c>
     </row>
-    <row r="274" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -23817,7 +23817,7 @@
       <c r="AN274" s="26"/>
       <c r="AO274" s="26"/>
     </row>
-    <row r="275" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>44829.793749999997</v>
       </c>
     </row>
-    <row r="276" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
@@ -23987,7 +23987,7 @@
       <c r="AN276" s="26"/>
       <c r="AO276" s="26"/>
     </row>
-    <row r="277" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -24080,7 +24080,7 @@
       <c r="AN277" s="26"/>
       <c r="AO277" s="26"/>
     </row>
-    <row r="278" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:41" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
@@ -24173,7 +24173,7 @@
       <c r="AN278" s="26"/>
       <c r="AO278" s="26"/>
     </row>
-    <row r="279" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -24268,7 +24268,7 @@
       <c r="AN279" s="21"/>
       <c r="AO279" s="21"/>
     </row>
-    <row r="280" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
@@ -24363,7 +24363,7 @@
       <c r="AN280" s="21"/>
       <c r="AO280" s="21"/>
     </row>
-    <row r="281" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -24458,7 +24458,7 @@
       <c r="AN281" s="21"/>
       <c r="AO281" s="21"/>
     </row>
-    <row r="282" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -24553,7 +24553,7 @@
       <c r="AN282" s="26"/>
       <c r="AO282" s="26"/>
     </row>
-    <row r="283" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -24648,7 +24648,7 @@
       <c r="AN283" s="26"/>
       <c r="AO283" s="26"/>
     </row>
-    <row r="284" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -24742,7 +24742,7 @@
       <c r="AN284" s="26"/>
       <c r="AO284" s="26"/>
     </row>
-    <row r="285" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -24837,7 +24837,7 @@
       <c r="AN285" s="26"/>
       <c r="AO285" s="26"/>
     </row>
-    <row r="286" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:41" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
@@ -24932,7 +24932,7 @@
       <c r="AN286" s="21"/>
       <c r="AO286" s="21"/>
     </row>
-    <row r="287" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -25024,7 +25024,7 @@
       <c r="AN287" s="21"/>
       <c r="AO287" s="21"/>
     </row>
-    <row r="288" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
@@ -25116,7 +25116,7 @@
       <c r="AN288" s="21"/>
       <c r="AO288" s="21"/>
     </row>
-    <row r="289" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
@@ -25208,7 +25208,7 @@
       <c r="AN289" s="26"/>
       <c r="AO289" s="26"/>
     </row>
-    <row r="290" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -25300,7 +25300,7 @@
       <c r="AN290" s="26"/>
       <c r="AO290" s="26"/>
     </row>
-    <row r="291" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -25394,7 +25394,7 @@
       <c r="AN291" s="26"/>
       <c r="AO291" s="26"/>
     </row>
-    <row r="292" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -25489,7 +25489,7 @@
       <c r="AN292" s="21"/>
       <c r="AO292" s="21"/>
     </row>
-    <row r="293" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -25584,7 +25584,7 @@
       <c r="AN293" s="26"/>
       <c r="AO293" s="26"/>
     </row>
-    <row r="294" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
@@ -25679,7 +25679,7 @@
       <c r="AN294" s="23"/>
       <c r="AO294" s="23"/>
     </row>
-    <row r="295" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -25774,7 +25774,7 @@
       <c r="AN295" s="23"/>
       <c r="AO295" s="23"/>
     </row>
-    <row r="296" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -25869,7 +25869,7 @@
       <c r="AN296" s="22"/>
       <c r="AO296" s="22"/>
     </row>
-    <row r="297" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>45417</v>
       </c>
@@ -25895,25 +25895,25 @@
       <c r="J297">
         <v>78661.998250000004</v>
       </c>
-      <c r="K297" t="s">
-        <v>10</v>
-      </c>
-      <c r="L297" s="6" t="s">
-        <v>10</v>
+      <c r="K297">
+        <v>67094</v>
+      </c>
+      <c r="L297">
+        <v>67094</v>
       </c>
       <c r="M297" s="12">
         <v>0.83333333333333337</v>
       </c>
       <c r="N297" s="20">
-        <f t="shared" ref="N297:N318" si="81">W297</f>
+        <f t="shared" ref="N297:N320" si="81">W297</f>
         <v>45417.929861111108</v>
       </c>
       <c r="O297" s="12">
-        <f t="shared" ref="O297:O318" si="82">IF(W297&gt;V297, W297-V297, 1+V297-W297)</f>
+        <f t="shared" ref="O297:O320" si="82">IF(W297&gt;V297, W297-V297, 1+V297-W297)</f>
         <v>9.6527777772280388E-2</v>
       </c>
       <c r="P297" s="7">
-        <f t="shared" ref="P297:P318" si="83">(W297-V297)*24</f>
+        <f t="shared" ref="P297:P320" si="83">(W297-V297)*24</f>
         <v>2.3166666665347293</v>
       </c>
       <c r="Q297" s="20">
@@ -25921,15 +25921,15 @@
         <v>45417.855555555558</v>
       </c>
       <c r="R297" s="12">
-        <f t="shared" ref="R297:R318" si="85">IF(X297&gt;V297, X297-V297, 1+V297-X297)</f>
+        <f t="shared" ref="R297:R320" si="85">IF(X297&gt;V297, X297-V297, 1+V297-X297)</f>
         <v>2.2222222221898846E-2</v>
       </c>
       <c r="S297" s="7">
         <f t="shared" si="77"/>
         <v>0.53333333332557231</v>
       </c>
-      <c r="T297" s="2" t="s">
-        <v>10</v>
+      <c r="T297" s="2">
+        <v>426</v>
       </c>
       <c r="U297" s="2" t="s">
         <v>10</v>
@@ -25945,7 +25945,7 @@
         <v>45417.855555555558</v>
       </c>
     </row>
-    <row r="298" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>45432</v>
       </c>
@@ -25971,11 +25971,11 @@
       <c r="J298">
         <v>17255</v>
       </c>
-      <c r="K298" t="s">
-        <v>10</v>
-      </c>
-      <c r="L298" s="6" t="s">
-        <v>10</v>
+      <c r="K298">
+        <v>28750</v>
+      </c>
+      <c r="L298">
+        <v>20566</v>
       </c>
       <c r="M298" s="12">
         <v>0.83333333333333337</v>
@@ -26004,14 +26004,14 @@
         <f>(X298-V298)*24</f>
         <v>0.8166666665347293</v>
       </c>
-      <c r="T298" s="2" t="s">
-        <v>10</v>
+      <c r="T298" s="2">
+        <v>550</v>
       </c>
       <c r="U298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="V298" s="11">
-        <f t="shared" ref="V298:V318" si="86">B298+M298</f>
+        <f t="shared" ref="V298:V319" si="86">B298+M298</f>
         <v>45432.833333333336</v>
       </c>
       <c r="W298" s="11">
@@ -26021,7 +26021,7 @@
         <v>45432.867361111108</v>
       </c>
     </row>
-    <row r="299" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>45445</v>
       </c>
@@ -26047,11 +26047,11 @@
       <c r="J299">
         <v>89523</v>
       </c>
-      <c r="K299" t="s">
-        <v>10</v>
-      </c>
-      <c r="L299" s="6" t="s">
-        <v>10</v>
+      <c r="K299">
+        <v>61745</v>
+      </c>
+      <c r="L299">
+        <v>57220</v>
       </c>
       <c r="M299" s="12">
         <v>0.83333333333333337</v>
@@ -26077,11 +26077,11 @@
         <v>4.3055555550381541E-2</v>
       </c>
       <c r="S299" s="7">
-        <f t="shared" ref="S299:S318" si="87">(X299-V299)*24</f>
+        <f t="shared" ref="S299:S320" si="87">(X299-V299)*24</f>
         <v>1.033333333209157</v>
       </c>
-      <c r="T299" s="2" t="s">
-        <v>10</v>
+      <c r="T299" s="2">
+        <v>599</v>
       </c>
       <c r="U299" s="2" t="s">
         <v>10</v>
@@ -26097,7 +26097,7 @@
         <v>45445.876388888886</v>
       </c>
     </row>
-    <row r="300" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>45459</v>
       </c>
@@ -26123,11 +26123,11 @@
       <c r="J300">
         <v>22278</v>
       </c>
-      <c r="K300" t="s">
-        <v>10</v>
-      </c>
-      <c r="L300" s="6" t="s">
-        <v>10</v>
+      <c r="K300">
+        <v>32605</v>
+      </c>
+      <c r="L300">
+        <v>23965</v>
       </c>
       <c r="M300" s="12">
         <v>0.83333333333333337</v>
@@ -26156,8 +26156,8 @@
         <f t="shared" si="87"/>
         <v>1.1499999999068677</v>
       </c>
-      <c r="T300" s="2" t="s">
-        <v>10</v>
+      <c r="T300" s="2">
+        <v>540</v>
       </c>
       <c r="U300" s="2" t="s">
         <v>10</v>
@@ -26173,7 +26173,7 @@
         <v>45459.881249999999</v>
       </c>
     </row>
-    <row r="301" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>45474</v>
       </c>
@@ -26199,11 +26199,11 @@
       <c r="J301">
         <v>3123</v>
       </c>
-      <c r="K301" t="s">
-        <v>10</v>
-      </c>
-      <c r="L301" s="6" t="s">
-        <v>10</v>
+      <c r="K301">
+        <v>4682</v>
+      </c>
+      <c r="L301">
+        <v>705</v>
       </c>
       <c r="M301" s="12">
         <v>0.875</v>
@@ -26232,8 +26232,8 @@
         <f t="shared" si="87"/>
         <v>0.18333333340706304</v>
       </c>
-      <c r="T301" s="2" t="s">
-        <v>10</v>
+      <c r="T301" s="2">
+        <v>576</v>
       </c>
       <c r="U301" s="2" t="s">
         <v>10</v>
@@ -26249,7 +26249,7 @@
         <v>45474.882638888892</v>
       </c>
     </row>
-    <row r="302" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>45488</v>
       </c>
@@ -26275,11 +26275,11 @@
       <c r="J302">
         <v>3560</v>
       </c>
-      <c r="K302" t="s">
-        <v>10</v>
-      </c>
-      <c r="L302" s="6" t="s">
-        <v>10</v>
+      <c r="K302">
+        <v>4816</v>
+      </c>
+      <c r="L302">
+        <v>4183</v>
       </c>
       <c r="M302" s="12">
         <v>0.83333333333333337</v>
@@ -26308,8 +26308,8 @@
         <f t="shared" si="87"/>
         <v>1.0666666666511446</v>
       </c>
-      <c r="T302" s="2" t="s">
-        <v>10</v>
+      <c r="T302" s="2">
+        <v>651</v>
       </c>
       <c r="U302" s="2" t="s">
         <v>10</v>
@@ -26325,7 +26325,7 @@
         <v>45488.87777777778</v>
       </c>
     </row>
-    <row r="303" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:41" hidden="1" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>45502</v>
       </c>
@@ -26351,11 +26351,11 @@
       <c r="J303">
         <v>32016</v>
       </c>
-      <c r="K303" t="s">
-        <v>10</v>
-      </c>
-      <c r="L303" s="6" t="s">
-        <v>10</v>
+      <c r="K303">
+        <v>33994</v>
+      </c>
+      <c r="L303">
+        <v>33327</v>
       </c>
       <c r="M303" s="12">
         <v>0.875</v>
@@ -26384,8 +26384,8 @@
         <f t="shared" si="87"/>
         <v>-0.16666666668606922</v>
       </c>
-      <c r="T303" s="2" t="s">
-        <v>10</v>
+      <c r="T303" s="2">
+        <v>509</v>
       </c>
       <c r="U303" s="2" t="s">
         <v>10</v>
@@ -26427,11 +26427,11 @@
       <c r="J304">
         <v>12233</v>
       </c>
-      <c r="K304" t="s">
-        <v>10</v>
-      </c>
-      <c r="L304" s="6" t="s">
-        <v>10</v>
+      <c r="K304">
+        <v>5026</v>
+      </c>
+      <c r="L304">
+        <v>5026</v>
       </c>
       <c r="M304" s="12">
         <v>0.83333333333333337</v>
@@ -26460,8 +26460,8 @@
         <f t="shared" si="87"/>
         <v>0.71666666655801237</v>
       </c>
-      <c r="T304" s="2" t="s">
-        <v>10</v>
+      <c r="T304" s="2">
+        <v>828</v>
       </c>
       <c r="U304" s="2" t="s">
         <v>10</v>
@@ -26477,7 +26477,7 @@
         <v>45508.863194444442</v>
       </c>
     </row>
-    <row r="305" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>45515</v>
       </c>
@@ -26503,11 +26503,11 @@
       <c r="J305">
         <v>10296</v>
       </c>
-      <c r="K305" t="s">
-        <v>10</v>
-      </c>
-      <c r="L305" s="6" t="s">
-        <v>10</v>
+      <c r="K305">
+        <v>13079</v>
+      </c>
+      <c r="L305">
+        <v>7959</v>
       </c>
       <c r="M305" s="12">
         <v>0.83333333333333337</v>
@@ -26536,8 +26536,8 @@
         <f t="shared" si="87"/>
         <v>0.53333333332557231</v>
       </c>
-      <c r="T305" s="2" t="s">
-        <v>10</v>
+      <c r="T305" s="2">
+        <v>517</v>
       </c>
       <c r="U305" s="2" t="s">
         <v>10</v>
@@ -26579,11 +26579,11 @@
       <c r="J306">
         <v>11668</v>
       </c>
-      <c r="K306" t="s">
-        <v>10</v>
-      </c>
-      <c r="L306" s="6" t="s">
-        <v>10</v>
+      <c r="K306">
+        <v>11333</v>
+      </c>
+      <c r="L306">
+        <v>10353</v>
       </c>
       <c r="M306" s="12">
         <v>0.83333333333333337</v>
@@ -26612,8 +26612,8 @@
         <f t="shared" si="87"/>
         <v>0.39999999990686774</v>
       </c>
-      <c r="T306" s="2" t="s">
-        <v>10</v>
+      <c r="T306" s="2">
+        <v>840</v>
       </c>
       <c r="U306" s="2" t="s">
         <v>10</v>
@@ -26655,11 +26655,11 @@
       <c r="J307">
         <v>12639</v>
       </c>
-      <c r="K307" t="s">
-        <v>10</v>
-      </c>
-      <c r="L307" s="6" t="s">
-        <v>10</v>
+      <c r="K307">
+        <v>11070</v>
+      </c>
+      <c r="L307">
+        <v>8899</v>
       </c>
       <c r="M307" s="12">
         <v>0.83333333333333337</v>
@@ -26688,8 +26688,8 @@
         <f t="shared" si="87"/>
         <v>-4.9999999988358468E-2</v>
       </c>
-      <c r="T307" s="2" t="s">
-        <v>10</v>
+      <c r="T307" s="2">
+        <v>831</v>
       </c>
       <c r="U307" s="2" t="s">
         <v>10</v>
@@ -26705,7 +26705,7 @@
         <v>45537.831250000003</v>
       </c>
     </row>
-    <row r="308" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>45529</v>
       </c>
@@ -26731,11 +26731,11 @@
       <c r="J308">
         <v>6810</v>
       </c>
-      <c r="K308" t="s">
-        <v>10</v>
-      </c>
-      <c r="L308" s="6" t="s">
-        <v>10</v>
+      <c r="K308">
+        <v>8459</v>
+      </c>
+      <c r="L308">
+        <v>6338</v>
       </c>
       <c r="M308" s="12">
         <v>0.83333333333333337</v>
@@ -26764,8 +26764,8 @@
         <f t="shared" si="87"/>
         <v>0.13333333324408159</v>
       </c>
-      <c r="T308" s="2" t="s">
-        <v>10</v>
+      <c r="T308" s="2">
+        <v>488</v>
       </c>
       <c r="U308" s="2" t="s">
         <v>10</v>
@@ -26781,7 +26781,7 @@
         <v>45529.838888888888</v>
       </c>
     </row>
-    <row r="309" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>45543</v>
       </c>
@@ -26807,11 +26807,11 @@
       <c r="J309">
         <v>12121</v>
       </c>
-      <c r="K309" t="s">
-        <v>10</v>
-      </c>
-      <c r="L309" s="6" t="s">
-        <v>10</v>
+      <c r="K309">
+        <v>8621</v>
+      </c>
+      <c r="L309">
+        <v>7432</v>
       </c>
       <c r="M309" s="12">
         <v>0.83333333333333337</v>
@@ -26840,8 +26840,8 @@
         <f t="shared" si="87"/>
         <v>-0.28333333338377997</v>
       </c>
-      <c r="T309" s="2" t="s">
-        <v>10</v>
+      <c r="T309" s="2">
+        <v>684</v>
       </c>
       <c r="U309" s="2" t="s">
         <v>10</v>
@@ -26883,11 +26883,11 @@
       <c r="J310">
         <v>21033</v>
       </c>
-      <c r="K310" t="s">
-        <v>10</v>
-      </c>
-      <c r="L310" s="6" t="s">
-        <v>10</v>
+      <c r="K310">
+        <v>21117</v>
+      </c>
+      <c r="L310">
+        <v>18363</v>
       </c>
       <c r="M310" s="12">
         <v>0.83333333333333337</v>
@@ -26916,8 +26916,8 @@
         <f t="shared" si="87"/>
         <v>-0.43333333334885538</v>
       </c>
-      <c r="T310" s="2" t="s">
-        <v>10</v>
+      <c r="T310" s="2">
+        <v>815</v>
       </c>
       <c r="U310" s="2" t="s">
         <v>10</v>
@@ -26933,7 +26933,7 @@
         <v>45550.81527777778</v>
       </c>
     </row>
-    <row r="311" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>45558</v>
       </c>
@@ -26959,11 +26959,11 @@
       <c r="J311">
         <v>7098</v>
       </c>
-      <c r="K311" t="s">
-        <v>10</v>
-      </c>
-      <c r="L311" s="6" t="s">
-        <v>10</v>
+      <c r="K311">
+        <v>6478</v>
+      </c>
+      <c r="L311">
+        <v>5427</v>
       </c>
       <c r="M311" s="12">
         <v>0.83333333333333337</v>
@@ -26992,8 +26992,8 @@
         <f t="shared" si="87"/>
         <v>-0.76666666672099382</v>
       </c>
-      <c r="T311" s="2" t="s">
-        <v>10</v>
+      <c r="T311" s="2">
+        <v>593</v>
       </c>
       <c r="U311" s="2" t="s">
         <v>10</v>
@@ -27035,11 +27035,11 @@
       <c r="J312">
         <v>5068</v>
       </c>
-      <c r="K312" t="s">
-        <v>10</v>
-      </c>
-      <c r="L312" s="6" t="s">
-        <v>10</v>
+      <c r="K312">
+        <v>11196</v>
+      </c>
+      <c r="L312">
+        <v>6588</v>
       </c>
       <c r="M312" s="12">
         <v>0.83333333333333337</v>
@@ -27068,8 +27068,8 @@
         <f t="shared" si="87"/>
         <v>-0.86666666669771075</v>
       </c>
-      <c r="T312" s="2" t="s">
-        <v>10</v>
+      <c r="T312" s="2">
+        <v>816</v>
       </c>
       <c r="U312" s="2" t="s">
         <v>10</v>
@@ -27111,11 +27111,11 @@
       <c r="J313">
         <v>4071</v>
       </c>
-      <c r="K313" t="s">
-        <v>10</v>
-      </c>
-      <c r="L313" s="6" t="s">
-        <v>10</v>
+      <c r="K313">
+        <v>18989</v>
+      </c>
+      <c r="L313">
+        <v>17847</v>
       </c>
       <c r="M313" s="12">
         <v>0.79166666666666663</v>
@@ -27144,8 +27144,8 @@
         <f t="shared" si="87"/>
         <v>-0.46666666661622003</v>
       </c>
-      <c r="T313" s="2" t="s">
-        <v>10</v>
+      <c r="T313" s="2">
+        <v>809</v>
       </c>
       <c r="U313" s="2" t="s">
         <v>10</v>
@@ -27187,11 +27187,11 @@
       <c r="J314">
         <v>1999</v>
       </c>
-      <c r="K314" t="s">
-        <v>10</v>
-      </c>
-      <c r="L314" s="6" t="s">
-        <v>10</v>
+      <c r="K314">
+        <v>2989</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
       </c>
       <c r="M314" s="12">
         <v>0.75</v>
@@ -27220,8 +27220,8 @@
         <f t="shared" si="87"/>
         <v>-0.81666666670935228</v>
       </c>
-      <c r="T314" s="2" t="s">
-        <v>10</v>
+      <c r="T314" s="2">
+        <v>896</v>
       </c>
       <c r="U314" s="2" t="s">
         <v>10</v>
@@ -27237,7 +27237,7 @@
         <v>45599.71597222222</v>
       </c>
     </row>
-    <row r="315" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>45783</v>
       </c>
@@ -27313,7 +27313,7 @@
         <v>45783.856249999997</v>
       </c>
     </row>
-    <row r="316" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>45797</v>
       </c>
@@ -27389,7 +27389,7 @@
         <v>45797.867361111108</v>
       </c>
     </row>
-    <row r="317" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>45811</v>
       </c>
@@ -27465,7 +27465,7 @@
         <v>45811.876388888886</v>
       </c>
     </row>
-    <row r="318" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>45824</v>
       </c>
@@ -27541,8 +27541,168 @@
         <v>45824.881249999999</v>
       </c>
     </row>
+    <row r="319" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="3">
+        <v>45838</v>
+      </c>
+      <c r="C319" s="8">
+        <v>5</v>
+      </c>
+      <c r="D319" t="s">
+        <v>35</v>
+      </c>
+      <c r="F319" s="2">
+        <v>2025</v>
+      </c>
+      <c r="G319" s="2">
+        <v>7</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I319">
+        <v>15789</v>
+      </c>
+      <c r="J319">
+        <v>11509</v>
+      </c>
+      <c r="K319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L319" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M319" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N319" s="20">
+        <f t="shared" si="81"/>
+        <v>45838.7</v>
+      </c>
+      <c r="O319" s="4">
+        <f t="shared" si="82"/>
+        <v>1.133333333338669</v>
+      </c>
+      <c r="P319" s="2">
+        <f t="shared" si="83"/>
+        <v>-3.2000000001280569</v>
+      </c>
+      <c r="Q319" s="4">
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="R319" s="12">
+        <f t="shared" si="85"/>
+        <v>4.9999999995634425E-2</v>
+      </c>
+      <c r="S319" s="7">
+        <f t="shared" si="87"/>
+        <v>1.1999999998952262</v>
+      </c>
+      <c r="T319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V319" s="11">
+        <f t="shared" si="86"/>
+        <v>45838.833333333336</v>
+      </c>
+      <c r="W319" s="11">
+        <v>45838.7</v>
+      </c>
+      <c r="X319" s="11">
+        <v>45838.883333333331</v>
+      </c>
+    </row>
+    <row r="320" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="3">
+        <v>45852</v>
+      </c>
+      <c r="C320" s="8">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F320" s="2">
+        <v>2025</v>
+      </c>
+      <c r="G320" s="2">
+        <v>6</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I320">
+        <v>7114</v>
+      </c>
+      <c r="J320">
+        <v>5137</v>
+      </c>
+      <c r="K320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L320" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M320" s="4">
+        <f>V320</f>
+        <v>45852.833333333336</v>
+      </c>
+      <c r="N320" s="20">
+        <f t="shared" si="81"/>
+        <v>45852.588194444441</v>
+      </c>
+      <c r="O320" s="4">
+        <f t="shared" si="82"/>
+        <v>1.2451388888948713</v>
+      </c>
+      <c r="P320" s="2">
+        <f t="shared" si="83"/>
+        <v>-5.8833333334769122</v>
+      </c>
+      <c r="Q320" s="4">
+        <f>X320</f>
+        <v>45852.879861111112</v>
+      </c>
+      <c r="R320" s="12">
+        <f t="shared" si="85"/>
+        <v>4.6527777776645962E-2</v>
+      </c>
+      <c r="S320" s="7">
+        <f t="shared" si="87"/>
+        <v>1.1166666666395031</v>
+      </c>
+      <c r="T320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V320" s="11">
+        <v>45852.833333333336</v>
+      </c>
+      <c r="W320" s="11">
+        <v>45852.588194444441</v>
+      </c>
+      <c r="X320" s="11">
+        <v>45852.879861111112</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO318" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AO320" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2024"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="GB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AO296">
     <sortCondition ref="B2:B296"/>
   </sortState>
@@ -27552,15 +27712,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa15ca5b-4450-4fec-8212-75ae51eef6c9">
@@ -27569,6 +27720,15 @@
     <TaxCatchAll xmlns="9b77705d-b477-4602-ae15-a5316c12e631" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27767,20 +27927,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11BA438-8776-4F92-AF90-A30F82347EBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="aa15ca5b-4450-4fec-8212-75ae51eef6c9"/>
     <ds:schemaRef ds:uri="9b77705d-b477-4602-ae15-a5316c12e631"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEA89319-F00C-40E2-B422-E7B15BEFCE0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
